--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0241FDA1-4DD1-4BEF-9AE2-56CFF2BF1FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E5DC93-6445-4C24-B903-6EA01406C59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="1500" yWindow="0" windowWidth="21540" windowHeight="12360" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -141,8 +132,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:J3" totalsRowShown="0">
-  <autoFilter ref="A1:J3" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:J19" totalsRowShown="0">
+  <autoFilter ref="A1:J19" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85B37DB0-31A5-490F-B932-C71BE32FE704}" name="ItemID"/>
@@ -456,25 +447,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,13 +505,13 @@
         <v>101</v>
       </c>
       <c r="C2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -533,18 +524,363 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>1001</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1008</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>1001</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1009</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>1012</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1003</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>1012</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
         <v>1002</v>
       </c>
-      <c r="F3">
-        <v>3</v>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1003</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>1003</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1008</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1009</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>1013</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>109</v>
+      </c>
+      <c r="C10">
+        <v>1008</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1009</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>110</v>
+      </c>
+      <c r="C11">
+        <v>1010</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1009</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>111</v>
+      </c>
+      <c r="C12">
+        <v>1011</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1009</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>112</v>
+      </c>
+      <c r="C13">
+        <v>1002</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1001</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>1003</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>1009</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1003</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>1012</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>1004</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1008</v>
+      </c>
+      <c r="C16">
+        <v>1004</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1005</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1001</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1009</v>
+      </c>
+      <c r="C17">
+        <v>1005</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1001</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1010</v>
+      </c>
+      <c r="C18">
+        <v>1006</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1005</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1001</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1011</v>
+      </c>
+      <c r="C19">
+        <v>1007</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1005</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1001</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E5DC93-6445-4C24-B903-6EA01406C59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4D6A4-F26C-4EEF-8E73-EA97A1BDDE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="0" windowWidth="21540" windowHeight="12360" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>Cost4Count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -132,11 +136,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:J19" totalsRowShown="0">
-  <autoFilter ref="A1:J19" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:K19" totalsRowShown="0">
+  <autoFilter ref="A1:K19" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85B37DB0-31A5-490F-B932-C71BE32FE704}" name="ItemID"/>
+    <tableColumn id="3" xr3:uid="{8A7F82E4-FAD6-4D40-A292-389A7FE3BE0E}" name="Type"/>
     <tableColumn id="4" xr3:uid="{0CB139D8-B91B-4491-8E08-E77189119C85}" name="Cost1"/>
     <tableColumn id="5" xr3:uid="{06E6B05B-2C7D-47AF-A3A5-BCE8C4A00835}" name="Cost1Count"/>
     <tableColumn id="6" xr3:uid="{5E236F15-7227-4E41-8227-8E13C8BC80C7}" name="Cost2"/>
@@ -447,25 +452,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,31 +478,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,13 +513,16 @@
         <v>101</v>
       </c>
       <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
         <v>1003</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -519,13 +530,16 @@
         <v>102</v>
       </c>
       <c r="C3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1001</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -533,19 +547,22 @@
         <v>103</v>
       </c>
       <c r="C4">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1008</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -553,19 +570,22 @@
         <v>104</v>
       </c>
       <c r="C5">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1009</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -573,19 +593,22 @@
         <v>105</v>
       </c>
       <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
         <v>1012</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1003</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -593,25 +616,28 @@
         <v>106</v>
       </c>
       <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
         <v>1012</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1002</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>1003</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -619,25 +645,28 @@
         <v>107</v>
       </c>
       <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
         <v>1003</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>1008</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1009</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -645,13 +674,16 @@
         <v>108</v>
       </c>
       <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
         <v>1013</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -659,19 +691,22 @@
         <v>109</v>
       </c>
       <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
         <v>1008</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>1009</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -679,19 +714,22 @@
         <v>110</v>
       </c>
       <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
         <v>1010</v>
       </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
         <v>1009</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -699,19 +737,22 @@
         <v>111</v>
       </c>
       <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
         <v>1011</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <v>1009</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -719,13 +760,16 @@
         <v>112</v>
       </c>
       <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
         <v>1002</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -733,25 +777,28 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D14">
+        <v>1001</v>
+      </c>
+      <c r="E14">
         <v>50</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1003</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>20</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1009</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -759,25 +806,28 @@
         <v>2</v>
       </c>
       <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
         <v>1003</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>100</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1012</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>50</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1004</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -785,25 +835,28 @@
         <v>1008</v>
       </c>
       <c r="C16">
+        <v>1001</v>
+      </c>
+      <c r="D16">
         <v>1004</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1005</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>1001</v>
-      </c>
       <c r="H16">
+        <v>1001</v>
+      </c>
+      <c r="I16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -811,19 +864,22 @@
         <v>1009</v>
       </c>
       <c r="C17">
+        <v>1001</v>
+      </c>
+      <c r="D17">
         <v>1005</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>7</v>
       </c>
-      <c r="E17">
-        <v>1001</v>
-      </c>
       <c r="F17">
+        <v>1001</v>
+      </c>
+      <c r="G17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -831,25 +887,28 @@
         <v>1010</v>
       </c>
       <c r="C18">
+        <v>1001</v>
+      </c>
+      <c r="D18">
         <v>1006</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1005</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="G18">
-        <v>1001</v>
-      </c>
       <c r="H18">
+        <v>1001</v>
+      </c>
+      <c r="I18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -857,21 +916,24 @@
         <v>1011</v>
       </c>
       <c r="C19">
+        <v>1001</v>
+      </c>
+      <c r="D19">
         <v>1007</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1005</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2</v>
       </c>
-      <c r="G19">
-        <v>1001</v>
-      </c>
       <c r="H19">
+        <v>1001</v>
+      </c>
+      <c r="I19">
         <v>8</v>
       </c>
     </row>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4D6A4-F26C-4EEF-8E73-EA97A1BDDE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E5DC93-6445-4C24-B903-6EA01406C59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="1500" yWindow="0" windowWidth="21540" windowHeight="12360" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>Cost4Count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Type</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -136,12 +132,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:K19" totalsRowShown="0">
-  <autoFilter ref="A1:K19" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:J19" totalsRowShown="0">
+  <autoFilter ref="A1:J19" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85B37DB0-31A5-490F-B932-C71BE32FE704}" name="ItemID"/>
-    <tableColumn id="3" xr3:uid="{8A7F82E4-FAD6-4D40-A292-389A7FE3BE0E}" name="Type"/>
     <tableColumn id="4" xr3:uid="{0CB139D8-B91B-4491-8E08-E77189119C85}" name="Cost1"/>
     <tableColumn id="5" xr3:uid="{06E6B05B-2C7D-47AF-A3A5-BCE8C4A00835}" name="Cost1Count"/>
     <tableColumn id="6" xr3:uid="{5E236F15-7227-4E41-8227-8E13C8BC80C7}" name="Cost2"/>
@@ -452,25 +447,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,34 +473,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -513,16 +505,13 @@
         <v>101</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D2">
-        <v>1003</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -530,16 +519,13 @@
         <v>102</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D3">
-        <v>1001</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -547,22 +533,19 @@
         <v>103</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D4">
-        <v>1001</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1008</v>
       </c>
       <c r="F4">
-        <v>1008</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -570,22 +553,19 @@
         <v>104</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D5">
-        <v>1001</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1009</v>
       </c>
       <c r="F5">
-        <v>1009</v>
-      </c>
-      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -593,22 +573,19 @@
         <v>105</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="D6">
-        <v>1012</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="F6">
-        <v>1003</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -616,28 +593,25 @@
         <v>106</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="D7">
-        <v>1012</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="F7">
-        <v>1002</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="H7">
-        <v>1003</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -645,28 +619,25 @@
         <v>107</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D8">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1008</v>
       </c>
       <c r="F8">
-        <v>1008</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1009</v>
       </c>
       <c r="H8">
-        <v>1009</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -674,16 +645,13 @@
         <v>108</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="D9">
-        <v>1013</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -691,22 +659,19 @@
         <v>109</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="D10">
-        <v>1008</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1009</v>
       </c>
       <c r="F10">
-        <v>1009</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -714,22 +679,19 @@
         <v>110</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D11">
-        <v>1010</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1009</v>
       </c>
       <c r="F11">
-        <v>1009</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -737,22 +699,19 @@
         <v>111</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="D12">
-        <v>1011</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1009</v>
       </c>
       <c r="F12">
-        <v>1009</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -760,16 +719,13 @@
         <v>112</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D13">
-        <v>1002</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -777,28 +733,25 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D14">
-        <v>1001</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>1003</v>
       </c>
       <c r="F14">
-        <v>1003</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>1009</v>
       </c>
       <c r="H14">
-        <v>1009</v>
-      </c>
-      <c r="I14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -806,28 +759,25 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D15">
-        <v>1003</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>1012</v>
       </c>
       <c r="F15">
-        <v>1012</v>
+        <v>50</v>
       </c>
       <c r="G15">
+        <v>1004</v>
+      </c>
+      <c r="H15">
         <v>50</v>
       </c>
-      <c r="H15">
-        <v>1004</v>
-      </c>
-      <c r="I15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -835,28 +785,25 @@
         <v>1008</v>
       </c>
       <c r="C16">
+        <v>1004</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1005</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
         <v>1001</v>
       </c>
-      <c r="D16">
-        <v>1004</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>1005</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
       <c r="H16">
-        <v>1001</v>
-      </c>
-      <c r="I16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -864,22 +811,19 @@
         <v>1009</v>
       </c>
       <c r="C17">
+        <v>1005</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
         <v>1001</v>
       </c>
-      <c r="D17">
-        <v>1005</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
       <c r="F17">
-        <v>1001</v>
-      </c>
-      <c r="G17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -887,28 +831,25 @@
         <v>1010</v>
       </c>
       <c r="C18">
+        <v>1006</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1005</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
         <v>1001</v>
       </c>
-      <c r="D18">
-        <v>1006</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>1005</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
       <c r="H18">
-        <v>1001</v>
-      </c>
-      <c r="I18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -916,24 +857,21 @@
         <v>1011</v>
       </c>
       <c r="C19">
+        <v>1007</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1005</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
         <v>1001</v>
       </c>
-      <c r="D19">
-        <v>1007</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>1005</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
       <c r="H19">
-        <v>1001</v>
-      </c>
-      <c r="I19">
         <v>8</v>
       </c>
     </row>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E4D6A4-F26C-4EEF-8E73-EA97A1BDDE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F4D273-2AFD-44A6-9E15-53C0B4C7C573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="-22005" yWindow="2835" windowWidth="21600" windowHeight="11325" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,8 +136,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:K19" totalsRowShown="0">
-  <autoFilter ref="A1:K19" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:K24" totalsRowShown="0">
+  <autoFilter ref="A1:K24" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85B37DB0-31A5-490F-B932-C71BE32FE704}" name="ItemID"/>
@@ -452,25 +452,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,7 +522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -683,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -827,7 +827,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -856,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -908,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -935,6 +935,127 @@
       </c>
       <c r="I19">
         <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>113</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20">
+        <v>1013</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>1001</v>
+      </c>
+      <c r="D21">
+        <v>1013</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1001</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>1001</v>
+      </c>
+      <c r="D22">
+        <v>1013</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1001</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>1002</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>116</v>
+      </c>
+      <c r="C23">
+        <v>1001</v>
+      </c>
+      <c r="D23">
+        <v>1013</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1001</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>1011</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>117</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24">
+        <v>1005</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>1002</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F4D273-2AFD-44A6-9E15-53C0B4C7C573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D531863-FA9A-40DE-99E6-CCA265048ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22005" yWindow="2835" windowWidth="21600" windowHeight="11325" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1046,7 +1046,7 @@
         <v>1000</v>
       </c>
       <c r="D24">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="E24">
         <v>5</v>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D531863-FA9A-40DE-99E6-CCA265048ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36F18FE-A43E-4563-A088-D7EE6240A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1049,7 +1049,7 @@
         <v>1009</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1002</v>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36F18FE-A43E-4563-A088-D7EE6240A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9CCE35-44D8-4626-AF82-4AEF5550C76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,8 +136,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:K24" totalsRowShown="0">
-  <autoFilter ref="A1:K24" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:K27" totalsRowShown="0">
+  <autoFilter ref="A1:K27" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85B37DB0-31A5-490F-B932-C71BE32FE704}" name="ItemID"/>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1058,6 +1058,69 @@
         <v>3</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25">
+        <v>1001</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1009</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>1001</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>1009</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27">
+        <v>1001</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9CCE35-44D8-4626-AF82-4AEF5550C76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3306E7C5-71B3-4692-8E2B-BED38227D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="4845" yWindow="2850" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -68,6 +69,76 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この設定ファイルはクラフトの設定です。</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item設定ファイルの唯一のID</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフト種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業台</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かまど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cost1~4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消耗する素材（ItemID)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウモウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CostCount1~4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消耗する素材の数</t>
+    <rPh sb="7" eb="8">
+      <t>カズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -454,23 +525,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,7 +593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -539,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -562,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -585,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -608,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -637,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -666,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -683,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -706,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -729,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -752,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -769,7 +840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -798,7 +869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -827,7 +898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -856,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -879,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -908,7 +979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -937,7 +1008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -954,7 +1025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -977,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1006,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1035,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1058,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1081,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1104,7 +1175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1129,4 +1200,92 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DF915C-1871-42C5-95D0-D0AF3AF774B2}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3306E7C5-71B3-4692-8E2B-BED38227D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E540E13-746A-43BB-9570-9A5210B67F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="2850" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,14 +131,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CostCount1~4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>消耗する素材の数</t>
     <rPh sb="7" eb="8">
       <t>カズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cost1~4Count</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,21 +162,60 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -185,8 +224,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,7 +571,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1207,10 +1252,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1218,7 +1266,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1228,7 +1276,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1286,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1264,7 +1312,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1274,13 +1322,13 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>19</v>
+      <c r="A14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E540E13-746A-43BB-9570-9A5210B67F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4820DF81-25AD-4DE3-A6CF-F0FEE9B13F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="8565" yWindow="2415" windowWidth="24525" windowHeight="12975" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,8 +252,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:K27" totalsRowShown="0">
-  <autoFilter ref="A1:K27" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:K29" totalsRowShown="0">
+  <autoFilter ref="A1:K29" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85B37DB0-31A5-490F-B932-C71BE32FE704}" name="ItemID"/>
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1237,6 +1237,40 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>128</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28">
+        <v>1002</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>129</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+      <c r="D29">
+        <v>1002</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1251,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DF915C-1871-42C5-95D0-D0AF3AF774B2}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4820DF81-25AD-4DE3-A6CF-F0FEE9B13F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0628F7E1-6A64-47C3-A254-FD85AD329703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="2415" windowWidth="24525" windowHeight="12975" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -139,6 +139,17 @@
   </si>
   <si>
     <t>Cost1~4Count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recommendation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめのフラグ（ソート優先）</t>
+    <rPh sb="12" eb="14">
+      <t>ユウセン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -186,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -218,13 +229,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +256,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -252,9 +279,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:K29" totalsRowShown="0">
-  <autoFilter ref="A1:K29" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:L30" totalsRowShown="0">
+  <autoFilter ref="A1:L30" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85B37DB0-31A5-490F-B932-C71BE32FE704}" name="ItemID"/>
     <tableColumn id="3" xr3:uid="{8A7F82E4-FAD6-4D40-A292-389A7FE3BE0E}" name="Type"/>
@@ -266,6 +293,7 @@
     <tableColumn id="9" xr3:uid="{AAD920BD-EC17-4809-B42D-D0B22E74A79F}" name="Cost3Count"/>
     <tableColumn id="10" xr3:uid="{B721966D-35E3-457B-98E8-BB1391AB7E5A}" name="Cost4"/>
     <tableColumn id="11" xr3:uid="{E2F7DF04-1C2A-4E89-9AD6-9A9BCF890269}" name="Cost4Count"/>
+    <tableColumn id="12" xr3:uid="{52FEEA3D-8270-4BF5-9AF1-068C2C63A9D8}" name="Recommendation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,10 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -584,9 +615,10 @@
     <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,8 +652,11 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -638,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -655,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -678,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -701,7 +736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -724,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -753,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -782,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -799,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -822,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -845,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -868,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -885,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -914,7 +949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -943,7 +978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -972,7 +1007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -995,7 +1030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1024,7 +1059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1053,7 +1088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1070,7 +1105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1093,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1122,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1151,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1174,7 +1209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1197,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1220,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1237,7 +1272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1254,7 +1289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1269,6 +1304,26 @@
       </c>
       <c r="E29">
         <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3003</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30">
+        <v>1001</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1283,15 +1338,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DF915C-1871-42C5-95D0-D0AF3AF774B2}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -1363,6 +1418,16 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0628F7E1-6A64-47C3-A254-FD85AD329703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6B76AF-8989-4DA3-8159-ACE7AD389D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,8 +279,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:L30" totalsRowShown="0">
-  <autoFilter ref="A1:L30" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:L33" totalsRowShown="0">
+  <autoFilter ref="A1:L33" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85B37DB0-31A5-490F-B932-C71BE32FE704}" name="ItemID"/>
@@ -596,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1324,6 +1324,75 @@
       </c>
       <c r="L30">
         <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>10001</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31">
+        <v>1001</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>1002</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>10002</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32">
+        <v>1001</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>1002</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>10003</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33">
+        <v>1001</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>1002</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6B76AF-8989-4DA3-8159-ACE7AD389D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB98AEE8-7D28-4E21-BC91-4C5D4D59FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -279,8 +279,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:L33" totalsRowShown="0">
-  <autoFilter ref="A1:L33" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:L43" totalsRowShown="0">
+  <autoFilter ref="A1:L43" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85B37DB0-31A5-490F-B932-C71BE32FE704}" name="ItemID"/>
@@ -596,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1395,6 +1395,236 @@
         <v>30</v>
       </c>
     </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34">
+        <v>1001</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>1018</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>201</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35">
+        <v>1001</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>1018</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>202</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36">
+        <v>1001</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>1018</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>203</v>
+      </c>
+      <c r="C37">
+        <v>1000</v>
+      </c>
+      <c r="D37">
+        <v>1001</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>1018</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>204</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+      <c r="D38">
+        <v>1001</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>1018</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>205</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39">
+        <v>1001</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>1018</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>206</v>
+      </c>
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40">
+        <v>1001</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>1018</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>207</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+      <c r="D41">
+        <v>1001</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>1018</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>208</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>1001</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>1018</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>209</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+      <c r="D43">
+        <v>1001</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <v>1018</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1410,7 +1640,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB98AEE8-7D28-4E21-BC91-4C5D4D59FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A0AE47-2875-4A7D-A28A-27FCDAECD8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="6105" yWindow="3075" windowWidth="21690" windowHeight="12525" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,8 +279,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:L43" totalsRowShown="0">
-  <autoFilter ref="A1:L43" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:L58" totalsRowShown="0">
+  <autoFilter ref="A1:L58" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{85B37DB0-31A5-490F-B932-C71BE32FE704}" name="ItemID"/>
@@ -596,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1623,6 +1623,261 @@
       </c>
       <c r="G43">
         <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>278</v>
+      </c>
+      <c r="C44">
+        <v>1000</v>
+      </c>
+      <c r="D44">
+        <v>1001</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>279</v>
+      </c>
+      <c r="C45">
+        <v>1000</v>
+      </c>
+      <c r="D45">
+        <v>1001</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>280</v>
+      </c>
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="D46">
+        <v>1001</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>281</v>
+      </c>
+      <c r="C47">
+        <v>1000</v>
+      </c>
+      <c r="D47">
+        <v>1001</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>282</v>
+      </c>
+      <c r="C48">
+        <v>1000</v>
+      </c>
+      <c r="D48">
+        <v>1001</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>283</v>
+      </c>
+      <c r="C49">
+        <v>1000</v>
+      </c>
+      <c r="D49">
+        <v>1001</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>284</v>
+      </c>
+      <c r="C50">
+        <v>1000</v>
+      </c>
+      <c r="D50">
+        <v>1001</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>285</v>
+      </c>
+      <c r="C51">
+        <v>1000</v>
+      </c>
+      <c r="D51">
+        <v>1001</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>287</v>
+      </c>
+      <c r="C52">
+        <v>1000</v>
+      </c>
+      <c r="D52">
+        <v>1001</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>288</v>
+      </c>
+      <c r="C53">
+        <v>1000</v>
+      </c>
+      <c r="D53">
+        <v>1001</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>289</v>
+      </c>
+      <c r="C54">
+        <v>1000</v>
+      </c>
+      <c r="D54">
+        <v>1001</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>290</v>
+      </c>
+      <c r="C55">
+        <v>1000</v>
+      </c>
+      <c r="D55">
+        <v>1001</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>291</v>
+      </c>
+      <c r="C56">
+        <v>1000</v>
+      </c>
+      <c r="D56">
+        <v>1001</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>292</v>
+      </c>
+      <c r="C57">
+        <v>1000</v>
+      </c>
+      <c r="D57">
+        <v>1001</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>293</v>
+      </c>
+      <c r="C58">
+        <v>1000</v>
+      </c>
+      <c r="D58">
+        <v>1001</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A0AE47-2875-4A7D-A28A-27FCDAECD8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F60A5AF-BBB1-4CCC-A4E1-67860495BC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="3075" windowWidth="21690" windowHeight="12525" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21690" windowHeight="12525" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -150,6 +150,10 @@
     <rPh sb="12" eb="14">
       <t>ユウセン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Memo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -279,10 +283,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:L58" totalsRowShown="0">
-  <autoFilter ref="A1:L58" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:M58" totalsRowShown="0">
+  <autoFilter ref="A1:M58" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
+    <tableColumn id="13" xr3:uid="{1B508EC4-3DA0-440B-861E-5BF70535F509}" name="Memo"/>
     <tableColumn id="2" xr3:uid="{85B37DB0-31A5-490F-B932-C71BE32FE704}" name="ItemID"/>
     <tableColumn id="3" xr3:uid="{8A7F82E4-FAD6-4D40-A292-389A7FE3BE0E}" name="Type"/>
     <tableColumn id="4" xr3:uid="{0CB139D8-B91B-4491-8E08-E77189119C85}" name="Cost1"/>
@@ -596,1287 +601,1291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>101</v>
       </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
       <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
         <v>1003</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>102</v>
       </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
       <c r="D3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>103</v>
       </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
       <c r="D4">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>1008</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>104</v>
       </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
       <c r="D5">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>1009</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>105</v>
       </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
       <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
         <v>1012</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
       <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>1003</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>106</v>
       </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
       <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
         <v>1012</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
       <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
         <v>1002</v>
       </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>1003</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>107</v>
       </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
       <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
         <v>1003</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
       <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
         <v>1008</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1009</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>108</v>
       </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
       <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
         <v>1013</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>109</v>
       </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
       <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
         <v>1008</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
       <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
         <v>1009</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>110</v>
       </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
       <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
         <v>1010</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
       <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
         <v>1009</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>111</v>
       </c>
-      <c r="C12">
-        <v>1000</v>
-      </c>
       <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
         <v>1011</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
       <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
         <v>1009</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>112</v>
       </c>
-      <c r="C13">
-        <v>1000</v>
-      </c>
       <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
         <v>1002</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>1000</v>
-      </c>
       <c r="D14">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E14">
+        <v>1001</v>
+      </c>
+      <c r="F14">
         <v>50</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1003</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>20</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1009</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>1000</v>
-      </c>
       <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
         <v>1003</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>100</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1012</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>50</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1004</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1008</v>
       </c>
-      <c r="C16">
-        <v>1001</v>
-      </c>
       <c r="D16">
+        <v>1001</v>
+      </c>
+      <c r="E16">
         <v>1004</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1005</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="H16">
-        <v>1001</v>
-      </c>
       <c r="I16">
+        <v>1001</v>
+      </c>
+      <c r="J16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1009</v>
       </c>
-      <c r="C17">
-        <v>1001</v>
-      </c>
       <c r="D17">
+        <v>1001</v>
+      </c>
+      <c r="E17">
         <v>1005</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>7</v>
       </c>
-      <c r="F17">
-        <v>1001</v>
-      </c>
       <c r="G17">
+        <v>1001</v>
+      </c>
+      <c r="H17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1010</v>
       </c>
-      <c r="C18">
-        <v>1001</v>
-      </c>
       <c r="D18">
+        <v>1001</v>
+      </c>
+      <c r="E18">
         <v>1006</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1005</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="H18">
-        <v>1001</v>
-      </c>
       <c r="I18">
+        <v>1001</v>
+      </c>
+      <c r="J18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>1011</v>
       </c>
-      <c r="C19">
-        <v>1001</v>
-      </c>
       <c r="D19">
+        <v>1001</v>
+      </c>
+      <c r="E19">
         <v>1007</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1005</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="H19">
-        <v>1001</v>
-      </c>
       <c r="I19">
+        <v>1001</v>
+      </c>
+      <c r="J19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>113</v>
       </c>
-      <c r="C20">
-        <v>1000</v>
-      </c>
       <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
         <v>1013</v>
       </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>114</v>
       </c>
-      <c r="C21">
-        <v>1001</v>
-      </c>
       <c r="D21">
+        <v>1001</v>
+      </c>
+      <c r="E21">
         <v>1013</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
       <c r="F21">
-        <v>1001</v>
+        <v>3</v>
       </c>
       <c r="G21">
+        <v>1001</v>
+      </c>
+      <c r="H21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>115</v>
       </c>
-      <c r="C22">
-        <v>1001</v>
-      </c>
       <c r="D22">
+        <v>1001</v>
+      </c>
+      <c r="E22">
         <v>1013</v>
       </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
       <c r="F22">
-        <v>1001</v>
+        <v>3</v>
       </c>
       <c r="G22">
+        <v>1001</v>
+      </c>
+      <c r="H22">
         <v>5</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1002</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>116</v>
       </c>
-      <c r="C23">
-        <v>1001</v>
-      </c>
       <c r="D23">
+        <v>1001</v>
+      </c>
+      <c r="E23">
         <v>1013</v>
       </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
       <c r="F23">
-        <v>1001</v>
+        <v>3</v>
       </c>
       <c r="G23">
+        <v>1001</v>
+      </c>
+      <c r="H23">
         <v>5</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1011</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>117</v>
       </c>
-      <c r="C24">
-        <v>1000</v>
-      </c>
       <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
         <v>1009</v>
       </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
       <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
         <v>1002</v>
       </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
       <c r="C25">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E25">
+        <v>1001</v>
+      </c>
+      <c r="F25">
         <v>5</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1009</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="C26">
-        <v>1000</v>
-      </c>
       <c r="D26">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E26">
+        <v>1001</v>
+      </c>
+      <c r="F26">
         <v>10</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1009</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>5</v>
       </c>
-      <c r="C27">
-        <v>1000</v>
-      </c>
       <c r="D27">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E27">
+        <v>1001</v>
+      </c>
+      <c r="F27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>128</v>
       </c>
-      <c r="C28">
-        <v>1000</v>
-      </c>
       <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28">
         <v>1002</v>
       </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>129</v>
       </c>
-      <c r="C29">
-        <v>1000</v>
-      </c>
       <c r="D29">
+        <v>1000</v>
+      </c>
+      <c r="E29">
         <v>1002</v>
       </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>3003</v>
       </c>
-      <c r="C30">
-        <v>1000</v>
-      </c>
       <c r="D30">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E30">
+        <v>1001</v>
+      </c>
+      <c r="F30">
         <v>100</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>10001</v>
       </c>
-      <c r="C31">
-        <v>1000</v>
-      </c>
       <c r="D31">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E31">
+        <v>1001</v>
+      </c>
+      <c r="F31">
         <v>50</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1002</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>10002</v>
       </c>
-      <c r="C32">
-        <v>1000</v>
-      </c>
       <c r="D32">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E32">
+        <v>1001</v>
+      </c>
+      <c r="F32">
         <v>50</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1002</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>10003</v>
       </c>
-      <c r="C33">
-        <v>1000</v>
-      </c>
       <c r="D33">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E33">
+        <v>1001</v>
+      </c>
+      <c r="F33">
         <v>50</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1002</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>200</v>
       </c>
-      <c r="C34">
-        <v>1000</v>
-      </c>
       <c r="D34">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E34">
+        <v>1001</v>
+      </c>
+      <c r="F34">
         <v>30</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1018</v>
       </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>201</v>
       </c>
-      <c r="C35">
-        <v>1000</v>
-      </c>
       <c r="D35">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E35">
+        <v>1001</v>
+      </c>
+      <c r="F35">
         <v>30</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1018</v>
       </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>202</v>
       </c>
-      <c r="C36">
-        <v>1000</v>
-      </c>
       <c r="D36">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E36">
+        <v>1001</v>
+      </c>
+      <c r="F36">
         <v>30</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1018</v>
       </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>203</v>
       </c>
-      <c r="C37">
-        <v>1000</v>
-      </c>
       <c r="D37">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E37">
+        <v>1001</v>
+      </c>
+      <c r="F37">
         <v>30</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1018</v>
       </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>204</v>
       </c>
-      <c r="C38">
-        <v>1000</v>
-      </c>
       <c r="D38">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E38">
+        <v>1001</v>
+      </c>
+      <c r="F38">
         <v>30</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1018</v>
       </c>
-      <c r="G38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>205</v>
       </c>
-      <c r="C39">
-        <v>1000</v>
-      </c>
       <c r="D39">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E39">
+        <v>1001</v>
+      </c>
+      <c r="F39">
         <v>30</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1018</v>
       </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>206</v>
       </c>
-      <c r="C40">
-        <v>1000</v>
-      </c>
       <c r="D40">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E40">
+        <v>1001</v>
+      </c>
+      <c r="F40">
         <v>30</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1018</v>
       </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>207</v>
       </c>
-      <c r="C41">
-        <v>1000</v>
-      </c>
       <c r="D41">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E41">
+        <v>1001</v>
+      </c>
+      <c r="F41">
         <v>30</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1018</v>
       </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>208</v>
       </c>
-      <c r="C42">
-        <v>1000</v>
-      </c>
       <c r="D42">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E42">
+        <v>1001</v>
+      </c>
+      <c r="F42">
         <v>30</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>1018</v>
       </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>209</v>
       </c>
-      <c r="C43">
-        <v>1000</v>
-      </c>
       <c r="D43">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E43">
+        <v>1001</v>
+      </c>
+      <c r="F43">
         <v>30</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1018</v>
       </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>278</v>
       </c>
-      <c r="C44">
-        <v>1000</v>
-      </c>
       <c r="D44">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E44">
+        <v>1001</v>
+      </c>
+      <c r="F44">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>279</v>
       </c>
-      <c r="C45">
-        <v>1000</v>
-      </c>
       <c r="D45">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E45">
+        <v>1001</v>
+      </c>
+      <c r="F45">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>280</v>
       </c>
-      <c r="C46">
-        <v>1000</v>
-      </c>
       <c r="D46">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E46">
+        <v>1001</v>
+      </c>
+      <c r="F46">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>281</v>
       </c>
-      <c r="C47">
-        <v>1000</v>
-      </c>
       <c r="D47">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E47">
+        <v>1001</v>
+      </c>
+      <c r="F47">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>282</v>
       </c>
-      <c r="C48">
-        <v>1000</v>
-      </c>
       <c r="D48">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E48">
+        <v>1001</v>
+      </c>
+      <c r="F48">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>283</v>
       </c>
-      <c r="C49">
-        <v>1000</v>
-      </c>
       <c r="D49">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E49">
+        <v>1001</v>
+      </c>
+      <c r="F49">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>284</v>
       </c>
-      <c r="C50">
-        <v>1000</v>
-      </c>
       <c r="D50">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E50">
+        <v>1001</v>
+      </c>
+      <c r="F50">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>285</v>
       </c>
-      <c r="C51">
-        <v>1000</v>
-      </c>
       <c r="D51">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E51">
+        <v>1001</v>
+      </c>
+      <c r="F51">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>287</v>
       </c>
-      <c r="C52">
-        <v>1000</v>
-      </c>
       <c r="D52">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E52">
+        <v>1001</v>
+      </c>
+      <c r="F52">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>288</v>
       </c>
-      <c r="C53">
-        <v>1000</v>
-      </c>
       <c r="D53">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E53">
+        <v>1001</v>
+      </c>
+      <c r="F53">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>289</v>
       </c>
-      <c r="C54">
-        <v>1000</v>
-      </c>
       <c r="D54">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E54">
+        <v>1001</v>
+      </c>
+      <c r="F54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>290</v>
       </c>
-      <c r="C55">
-        <v>1000</v>
-      </c>
       <c r="D55">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E55">
+        <v>1001</v>
+      </c>
+      <c r="F55">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>291</v>
       </c>
-      <c r="C56">
-        <v>1000</v>
-      </c>
       <c r="D56">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E56">
+        <v>1001</v>
+      </c>
+      <c r="F56">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>292</v>
       </c>
-      <c r="C57">
-        <v>1000</v>
-      </c>
       <c r="D57">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E57">
+        <v>1001</v>
+      </c>
+      <c r="F57">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>293</v>
       </c>
-      <c r="C58">
-        <v>1000</v>
-      </c>
       <c r="D58">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E58">
+        <v>1001</v>
+      </c>
+      <c r="F58">
         <v>10</v>
       </c>
     </row>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F60A5AF-BBB1-4CCC-A4E1-67860495BC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CEEC33-8E22-482E-A4B6-56EB416D3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21690" windowHeight="12525" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="2715" yWindow="8040" windowWidth="21690" windowHeight="7410" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -156,12 +156,88 @@
     <t>Memo</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>木の屋根</t>
+  </si>
+  <si>
+    <t>木の屋根・角</t>
+  </si>
+  <si>
+    <t>木の屋根・天板</t>
+  </si>
+  <si>
+    <t>木の柵</t>
+  </si>
+  <si>
+    <t>木の柵・十字</t>
+  </si>
+  <si>
+    <t>木の階段</t>
+  </si>
+  <si>
+    <t>木の階段・角</t>
+  </si>
+  <si>
+    <t>青石の屋根</t>
+  </si>
+  <si>
+    <t>青石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>木の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>青石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>青石の屋根・天板</t>
+  </si>
+  <si>
+    <t>木の屋根・かざり</t>
+  </si>
+  <si>
+    <t>青石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>木の柵・でっぱり角</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>城壁のブロック</t>
+  </si>
+  <si>
+    <t>城壁のブロックA</t>
+  </si>
+  <si>
+    <t>城壁のブロックB</t>
+  </si>
+  <si>
+    <t>城壁のブロックC</t>
+  </si>
+  <si>
+    <t>薪のブロック</t>
+  </si>
+  <si>
+    <t>石積みのブロック</t>
+  </si>
+  <si>
+    <t>乱雑な石積みのブロック</t>
+  </si>
+  <si>
+    <t>城壁のブロックD</t>
+  </si>
+  <si>
+    <t>城壁のブロックE</t>
+  </si>
+  <si>
+    <t>大理石のブロック</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +261,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -252,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,6 +346,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -283,8 +369,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:M58" totalsRowShown="0">
-  <autoFilter ref="A1:M58" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:M68" totalsRowShown="0">
+  <autoFilter ref="A1:M68" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="13" xr3:uid="{1B508EC4-3DA0-440B-861E-5BF70535F509}" name="Memo"/>
@@ -601,18 +687,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
@@ -1638,6 +1724,9 @@
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="C44">
         <v>278</v>
       </c>
@@ -1648,13 +1737,16 @@
         <v>1001</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C45">
         <v>279</v>
       </c>
@@ -1665,13 +1757,16 @@
         <v>1001</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C46">
         <v>280</v>
       </c>
@@ -1682,13 +1777,16 @@
         <v>1001</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C47">
         <v>281</v>
       </c>
@@ -1699,13 +1797,16 @@
         <v>1001</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C48">
         <v>282</v>
       </c>
@@ -1716,13 +1817,16 @@
         <v>1001</v>
       </c>
       <c r="F48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C49">
         <v>283</v>
       </c>
@@ -1733,13 +1837,16 @@
         <v>1001</v>
       </c>
       <c r="F49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C50">
         <v>284</v>
       </c>
@@ -1750,13 +1857,16 @@
         <v>1001</v>
       </c>
       <c r="F50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C51">
         <v>285</v>
       </c>
@@ -1767,13 +1877,16 @@
         <v>1001</v>
       </c>
       <c r="F51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C52">
         <v>287</v>
       </c>
@@ -1781,16 +1894,25 @@
         <v>1000</v>
       </c>
       <c r="E52">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>1020</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C53">
         <v>288</v>
       </c>
@@ -1798,16 +1920,25 @@
         <v>1000</v>
       </c>
       <c r="E53">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>1020</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C54">
         <v>289</v>
       </c>
@@ -1818,13 +1949,16 @@
         <v>1001</v>
       </c>
       <c r="F54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C55">
         <v>290</v>
       </c>
@@ -1832,16 +1966,25 @@
         <v>1000</v>
       </c>
       <c r="E55">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>1020</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
+      <c r="B56" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C56">
         <v>291</v>
       </c>
@@ -1849,16 +1992,25 @@
         <v>1000</v>
       </c>
       <c r="E56">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>1020</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C57">
         <v>292</v>
       </c>
@@ -1869,13 +2021,16 @@
         <v>1001</v>
       </c>
       <c r="F57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C58">
         <v>293</v>
       </c>
@@ -1883,10 +2038,258 @@
         <v>1000</v>
       </c>
       <c r="E58">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>1020</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59">
+        <v>230</v>
+      </c>
+      <c r="D59">
+        <v>1000</v>
+      </c>
+      <c r="E59">
+        <v>1026</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1027</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>231</v>
+      </c>
+      <c r="D60">
+        <v>1000</v>
+      </c>
+      <c r="E60">
+        <v>1026</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1027</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61">
+        <v>232</v>
+      </c>
+      <c r="D61">
+        <v>1000</v>
+      </c>
+      <c r="E61">
+        <v>1026</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>1027</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62">
+        <v>233</v>
+      </c>
+      <c r="D62">
+        <v>1000</v>
+      </c>
+      <c r="E62">
+        <v>1026</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>1027</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63">
+        <v>234</v>
+      </c>
+      <c r="D63">
+        <v>1000</v>
+      </c>
+      <c r="E63">
+        <v>1001</v>
+      </c>
+      <c r="F63">
         <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64">
+        <v>235</v>
+      </c>
+      <c r="D64">
+        <v>1000</v>
+      </c>
+      <c r="E64">
+        <v>1003</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65">
+        <v>236</v>
+      </c>
+      <c r="D65">
+        <v>1000</v>
+      </c>
+      <c r="E65">
+        <v>1003</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66">
+        <v>237</v>
+      </c>
+      <c r="D66">
+        <v>1000</v>
+      </c>
+      <c r="E66">
+        <v>1026</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1027</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67">
+        <v>238</v>
+      </c>
+      <c r="D67">
+        <v>1000</v>
+      </c>
+      <c r="E67">
+        <v>1026</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>1027</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68">
+        <v>239</v>
+      </c>
+      <c r="D68">
+        <v>1000</v>
+      </c>
+      <c r="E68">
+        <v>1026</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>1027</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CEEC33-8E22-482E-A4B6-56EB416D3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384766C3-0D6D-42C7-AD5E-A04FA910ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="8040" windowWidth="21690" windowHeight="7410" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -231,6 +231,13 @@
   </si>
   <si>
     <t>大理石のブロック</t>
+  </si>
+  <si>
+    <t>爆弾１</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -369,8 +376,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:M68" totalsRowShown="0">
-  <autoFilter ref="A1:M68" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:M69" totalsRowShown="0">
+  <autoFilter ref="A1:M69" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="13" xr3:uid="{1B508EC4-3DA0-440B-861E-5BF70535F509}" name="Memo"/>
@@ -687,13 +694,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J65" sqref="J65"/>
+      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2290,6 +2297,26 @@
       </c>
       <c r="H68">
         <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69">
+        <v>4000</v>
+      </c>
+      <c r="D69">
+        <v>1000</v>
+      </c>
+      <c r="E69">
+        <v>1001</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384766C3-0D6D-42C7-AD5E-A04FA910ED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B14056-4E56-4F62-BAE3-05CFA0A879B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -234,6 +234,13 @@
   </si>
   <si>
     <t>爆弾１</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾2</t>
     <rPh sb="0" eb="2">
       <t>バクダン</t>
     </rPh>
@@ -342,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,8 +386,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:M69" totalsRowShown="0">
-  <autoFilter ref="A1:M69" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:M70" totalsRowShown="0">
+  <autoFilter ref="A1:M70" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="13" xr3:uid="{1B508EC4-3DA0-440B-861E-5BF70535F509}" name="Memo"/>
@@ -694,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
+      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2201,7 +2211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2221,7 +2231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2247,7 +2257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2273,7 +2283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2299,7 +2309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2318,6 +2328,33 @@
       <c r="F69">
         <v>1</v>
       </c>
+    </row>
+    <row r="70" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>4001</v>
+      </c>
+      <c r="D70">
+        <v>1000</v>
+      </c>
+      <c r="E70">
+        <v>1001</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B14056-4E56-4F62-BAE3-05CFA0A879B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934BF8B3-ECD3-4C9B-9297-2B3FF02CB322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -244,6 +244,10 @@
     <rPh sb="0" eb="2">
       <t>バクダン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sort</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -386,10 +390,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:M70" totalsRowShown="0">
-  <autoFilter ref="A1:M70" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N70" totalsRowShown="0">
+  <autoFilter ref="A1:N70" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
+    <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
     <tableColumn id="13" xr3:uid="{1B508EC4-3DA0-440B-861E-5BF70535F509}" name="Memo"/>
     <tableColumn id="2" xr3:uid="{85B37DB0-31A5-490F-B932-C71BE32FE704}" name="ItemID"/>
     <tableColumn id="3" xr3:uid="{8A7F82E4-FAD6-4D40-A292-389A7FE3BE0E}" name="Type"/>
@@ -704,1657 +709,1867 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>101</v>
       </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
       <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
         <v>1003</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>102</v>
       </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
       <c r="E3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>103</v>
       </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
       <c r="E4">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>1008</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>104</v>
       </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
       <c r="E5">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
         <v>1009</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>105</v>
       </c>
-      <c r="D6">
-        <v>1000</v>
-      </c>
       <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
         <v>1012</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
       <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
         <v>1003</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>106</v>
       </c>
-      <c r="D7">
-        <v>1000</v>
-      </c>
       <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
         <v>1012</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>1002</v>
       </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
       <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>1003</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>107</v>
       </c>
-      <c r="D8">
-        <v>1000</v>
-      </c>
       <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
         <v>1003</v>
       </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
       <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
         <v>1008</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1009</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>108</v>
       </c>
-      <c r="D9">
-        <v>1000</v>
-      </c>
       <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
         <v>1013</v>
       </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>109</v>
       </c>
-      <c r="D10">
-        <v>1000</v>
-      </c>
       <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
         <v>1008</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
       <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
         <v>1009</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>110</v>
       </c>
-      <c r="D11">
-        <v>1000</v>
-      </c>
       <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
         <v>1010</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
       <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>1009</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>111</v>
       </c>
-      <c r="D12">
-        <v>1000</v>
-      </c>
       <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12">
         <v>1011</v>
       </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
       <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
         <v>1009</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>112</v>
       </c>
-      <c r="D13">
-        <v>1000</v>
-      </c>
       <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
         <v>1002</v>
       </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F14">
+        <v>1001</v>
+      </c>
+      <c r="G14">
         <v>50</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1003</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>20</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1009</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>1000</v>
-      </c>
       <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
         <v>1003</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>100</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1012</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>50</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1004</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>1008</v>
       </c>
-      <c r="D16">
-        <v>1001</v>
-      </c>
       <c r="E16">
+        <v>1001</v>
+      </c>
+      <c r="F16">
         <v>1004</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1005</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>1001</v>
-      </c>
       <c r="J16">
+        <v>1001</v>
+      </c>
+      <c r="K16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>1009</v>
       </c>
-      <c r="D17">
-        <v>1001</v>
-      </c>
       <c r="E17">
+        <v>1001</v>
+      </c>
+      <c r="F17">
         <v>1005</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>7</v>
       </c>
-      <c r="G17">
-        <v>1001</v>
-      </c>
       <c r="H17">
+        <v>1001</v>
+      </c>
+      <c r="I17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>1010</v>
       </c>
-      <c r="D18">
-        <v>1001</v>
-      </c>
       <c r="E18">
+        <v>1001</v>
+      </c>
+      <c r="F18">
         <v>1006</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>5</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1005</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>1001</v>
-      </c>
       <c r="J18">
+        <v>1001</v>
+      </c>
+      <c r="K18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>1011</v>
       </c>
-      <c r="D19">
-        <v>1001</v>
-      </c>
       <c r="E19">
+        <v>1001</v>
+      </c>
+      <c r="F19">
         <v>1007</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>5</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1005</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="I19">
-        <v>1001</v>
-      </c>
       <c r="J19">
+        <v>1001</v>
+      </c>
+      <c r="K19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>113</v>
       </c>
-      <c r="D20">
-        <v>1000</v>
-      </c>
       <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
         <v>1013</v>
       </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>114</v>
       </c>
-      <c r="D21">
-        <v>1001</v>
-      </c>
       <c r="E21">
+        <v>1001</v>
+      </c>
+      <c r="F21">
         <v>1013</v>
       </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
       <c r="G21">
-        <v>1001</v>
+        <v>3</v>
       </c>
       <c r="H21">
+        <v>1001</v>
+      </c>
+      <c r="I21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>115</v>
       </c>
-      <c r="D22">
-        <v>1001</v>
-      </c>
       <c r="E22">
+        <v>1001</v>
+      </c>
+      <c r="F22">
         <v>1013</v>
       </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
       <c r="G22">
-        <v>1001</v>
+        <v>3</v>
       </c>
       <c r="H22">
+        <v>1001</v>
+      </c>
+      <c r="I22">
         <v>5</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1002</v>
       </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>116</v>
       </c>
-      <c r="D23">
-        <v>1001</v>
-      </c>
       <c r="E23">
+        <v>1001</v>
+      </c>
+      <c r="F23">
         <v>1013</v>
       </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
       <c r="G23">
-        <v>1001</v>
+        <v>3</v>
       </c>
       <c r="H23">
+        <v>1001</v>
+      </c>
+      <c r="I23">
         <v>5</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1011</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>117</v>
       </c>
-      <c r="D24">
-        <v>1000</v>
-      </c>
       <c r="E24">
+        <v>1000</v>
+      </c>
+      <c r="F24">
         <v>1009</v>
       </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
       <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
         <v>1002</v>
       </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25">
-        <v>3</v>
+      <c r="B25">
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F25">
+        <v>1001</v>
+      </c>
+      <c r="G25">
         <v>5</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1009</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="D26">
-        <v>1000</v>
-      </c>
       <c r="E26">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F26">
+        <v>1001</v>
+      </c>
+      <c r="G26">
         <v>10</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1009</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="D27">
-        <v>1000</v>
-      </c>
       <c r="E27">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F27">
+        <v>1001</v>
+      </c>
+      <c r="G27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>128</v>
       </c>
-      <c r="D28">
-        <v>1000</v>
-      </c>
       <c r="E28">
+        <v>1000</v>
+      </c>
+      <c r="F28">
         <v>1002</v>
       </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>129</v>
       </c>
-      <c r="D29">
-        <v>1000</v>
-      </c>
       <c r="E29">
+        <v>1000</v>
+      </c>
+      <c r="F29">
         <v>1002</v>
       </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>3003</v>
       </c>
-      <c r="D30">
-        <v>1000</v>
-      </c>
       <c r="E30">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F30">
+        <v>1001</v>
+      </c>
+      <c r="G30">
         <v>100</v>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>10001</v>
       </c>
-      <c r="D31">
-        <v>1000</v>
-      </c>
       <c r="E31">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F31">
+        <v>1001</v>
+      </c>
+      <c r="G31">
         <v>50</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1002</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>10002</v>
       </c>
-      <c r="D32">
-        <v>1000</v>
-      </c>
       <c r="E32">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F32">
+        <v>1001</v>
+      </c>
+      <c r="G32">
         <v>50</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1002</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>10003</v>
       </c>
-      <c r="D33">
-        <v>1000</v>
-      </c>
       <c r="E33">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F33">
+        <v>1001</v>
+      </c>
+      <c r="G33">
         <v>50</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1002</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>200</v>
       </c>
-      <c r="D34">
-        <v>1000</v>
-      </c>
       <c r="E34">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F34">
+        <v>1001</v>
+      </c>
+      <c r="G34">
         <v>30</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1018</v>
       </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>201</v>
       </c>
-      <c r="D35">
-        <v>1000</v>
-      </c>
       <c r="E35">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F35">
+        <v>1001</v>
+      </c>
+      <c r="G35">
         <v>30</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1018</v>
       </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>202</v>
       </c>
-      <c r="D36">
-        <v>1000</v>
-      </c>
       <c r="E36">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F36">
+        <v>1001</v>
+      </c>
+      <c r="G36">
         <v>30</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1018</v>
       </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>203</v>
       </c>
-      <c r="D37">
-        <v>1000</v>
-      </c>
       <c r="E37">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F37">
+        <v>1001</v>
+      </c>
+      <c r="G37">
         <v>30</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1018</v>
       </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>204</v>
       </c>
-      <c r="D38">
-        <v>1000</v>
-      </c>
       <c r="E38">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F38">
+        <v>1001</v>
+      </c>
+      <c r="G38">
         <v>30</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1018</v>
       </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="D39">
         <v>205</v>
       </c>
-      <c r="D39">
-        <v>1000</v>
-      </c>
       <c r="E39">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F39">
+        <v>1001</v>
+      </c>
+      <c r="G39">
         <v>30</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1018</v>
       </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="D40">
         <v>206</v>
       </c>
-      <c r="D40">
-        <v>1000</v>
-      </c>
       <c r="E40">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F40">
+        <v>1001</v>
+      </c>
+      <c r="G40">
         <v>30</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1018</v>
       </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41">
         <v>207</v>
       </c>
-      <c r="D41">
-        <v>1000</v>
-      </c>
       <c r="E41">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F41">
+        <v>1001</v>
+      </c>
+      <c r="G41">
         <v>30</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>1018</v>
       </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="D42">
         <v>208</v>
       </c>
-      <c r="D42">
-        <v>1000</v>
-      </c>
       <c r="E42">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F42">
+        <v>1001</v>
+      </c>
+      <c r="G42">
         <v>30</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>1018</v>
       </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="D43">
         <v>209</v>
       </c>
-      <c r="D43">
-        <v>1000</v>
-      </c>
       <c r="E43">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F43">
+        <v>1001</v>
+      </c>
+      <c r="G43">
         <v>30</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>1018</v>
       </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>278</v>
       </c>
-      <c r="D44">
-        <v>1000</v>
-      </c>
       <c r="E44">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>279</v>
       </c>
-      <c r="D45">
-        <v>1000</v>
-      </c>
       <c r="E45">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>280</v>
       </c>
-      <c r="D46">
-        <v>1000</v>
-      </c>
       <c r="E46">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>281</v>
       </c>
-      <c r="D47">
-        <v>1000</v>
-      </c>
       <c r="E47">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>282</v>
       </c>
-      <c r="D48">
-        <v>1000</v>
-      </c>
       <c r="E48">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>283</v>
       </c>
-      <c r="D49">
-        <v>1000</v>
-      </c>
       <c r="E49">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>284</v>
       </c>
-      <c r="D50">
-        <v>1000</v>
-      </c>
       <c r="E50">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>285</v>
       </c>
-      <c r="D51">
-        <v>1000</v>
-      </c>
       <c r="E51">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>287</v>
       </c>
-      <c r="D52">
-        <v>1000</v>
-      </c>
       <c r="E52">
+        <v>1000</v>
+      </c>
+      <c r="F52">
         <v>1003</v>
       </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
       <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
         <v>1020</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>288</v>
       </c>
-      <c r="D53">
-        <v>1000</v>
-      </c>
       <c r="E53">
+        <v>1000</v>
+      </c>
+      <c r="F53">
         <v>1003</v>
       </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
       <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
         <v>1020</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>289</v>
       </c>
-      <c r="D54">
-        <v>1000</v>
-      </c>
       <c r="E54">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>290</v>
       </c>
-      <c r="D55">
-        <v>1000</v>
-      </c>
       <c r="E55">
+        <v>1000</v>
+      </c>
+      <c r="F55">
         <v>1003</v>
       </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
       <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
         <v>1020</v>
       </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>291</v>
       </c>
-      <c r="D56">
-        <v>1000</v>
-      </c>
       <c r="E56">
+        <v>1000</v>
+      </c>
+      <c r="F56">
         <v>1003</v>
       </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
       <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
         <v>1020</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>292</v>
       </c>
-      <c r="D57">
-        <v>1000</v>
-      </c>
       <c r="E57">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>293</v>
       </c>
-      <c r="D58">
-        <v>1000</v>
-      </c>
       <c r="E58">
+        <v>1000</v>
+      </c>
+      <c r="F58">
         <v>1003</v>
       </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
       <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
         <v>1020</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>230</v>
       </c>
-      <c r="D59">
-        <v>1000</v>
-      </c>
       <c r="E59">
+        <v>1000</v>
+      </c>
+      <c r="F59">
         <v>1026</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>2</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>1027</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>231</v>
       </c>
-      <c r="D60">
-        <v>1000</v>
-      </c>
       <c r="E60">
+        <v>1000</v>
+      </c>
+      <c r="F60">
         <v>1026</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>2</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>1027</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>232</v>
       </c>
-      <c r="D61">
-        <v>1000</v>
-      </c>
       <c r="E61">
+        <v>1000</v>
+      </c>
+      <c r="F61">
         <v>1026</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>2</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>1027</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>233</v>
       </c>
-      <c r="D62">
-        <v>1000</v>
-      </c>
       <c r="E62">
+        <v>1000</v>
+      </c>
+      <c r="F62">
         <v>1026</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>2</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>1027</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>234</v>
       </c>
-      <c r="D63">
-        <v>1000</v>
-      </c>
       <c r="E63">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F63">
+        <v>1001</v>
+      </c>
+      <c r="G63">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>235</v>
       </c>
-      <c r="D64">
-        <v>1000</v>
-      </c>
       <c r="E64">
+        <v>1000</v>
+      </c>
+      <c r="F64">
         <v>1003</v>
       </c>
-      <c r="F64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>236</v>
       </c>
-      <c r="D65">
-        <v>1000</v>
-      </c>
       <c r="E65">
+        <v>1000</v>
+      </c>
+      <c r="F65">
         <v>1003</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>237</v>
       </c>
-      <c r="D66">
-        <v>1000</v>
-      </c>
       <c r="E66">
+        <v>1000</v>
+      </c>
+      <c r="F66">
         <v>1026</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>2</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>1027</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>238</v>
       </c>
-      <c r="D67">
-        <v>1000</v>
-      </c>
       <c r="E67">
+        <v>1000</v>
+      </c>
+      <c r="F67">
         <v>1026</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>2</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>1027</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>239</v>
       </c>
-      <c r="D68">
-        <v>1000</v>
-      </c>
       <c r="E68">
+        <v>1000</v>
+      </c>
+      <c r="F68">
         <v>1026</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>2</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>1027</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
         <v>49</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>4000</v>
       </c>
-      <c r="D69">
-        <v>1000</v>
-      </c>
       <c r="E69">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>1001</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
         <v>50</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>4001</v>
       </c>
-      <c r="D70">
-        <v>1000</v>
-      </c>
       <c r="E70">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70"/>
+        <v>1001</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
+      <c r="N70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934BF8B3-ECD3-4C9B-9297-2B3FF02CB322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5740BC-E449-45FB-9745-7A00A2D9ECEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -712,10 +712,10 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>101</v>
@@ -801,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>102</v>
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>103</v>
@@ -847,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>104</v>
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>105</v>
@@ -899,7 +899,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>106</v>
@@ -931,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>107</v>
@@ -963,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>108</v>
@@ -983,7 +983,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>109</v>
@@ -1009,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>110</v>
@@ -1035,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>111</v>
@@ -1061,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <v>112</v>
@@ -1081,7 +1081,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>1008</v>
@@ -1177,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>1009</v>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>1010</v>
@@ -1235,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>1011</v>
@@ -1267,7 +1267,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>113</v>
@@ -1287,7 +1287,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>114</v>
@@ -1313,7 +1313,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>115</v>
@@ -1345,7 +1345,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>116</v>
@@ -1377,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D24">
         <v>117</v>
@@ -1403,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1429,7 +1429,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1455,7 +1455,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1475,7 +1475,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D28">
         <v>128</v>
@@ -1495,7 +1495,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>129</v>
@@ -1515,7 +1515,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D30">
         <v>3003</v>
@@ -1538,7 +1538,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D31">
         <v>10001</v>
@@ -1564,7 +1564,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>10002</v>
@@ -1590,7 +1590,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D33">
         <v>10003</v>
@@ -1616,7 +1616,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <v>200</v>
@@ -1642,7 +1642,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>201</v>
@@ -1668,7 +1668,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D36">
         <v>202</v>
@@ -1694,7 +1694,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D37">
         <v>203</v>
@@ -1720,7 +1720,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>204</v>
@@ -1746,7 +1746,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D39">
         <v>205</v>
@@ -1772,7 +1772,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D40">
         <v>206</v>
@@ -1798,7 +1798,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D41">
         <v>207</v>
@@ -1824,7 +1824,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D42">
         <v>208</v>
@@ -1850,7 +1850,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D43">
         <v>209</v>
@@ -1876,7 +1876,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>24</v>
@@ -1899,7 +1899,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>25</v>
@@ -1922,7 +1922,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>26</v>
@@ -1945,7 +1945,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>27</v>
@@ -1968,7 +1968,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>28</v>
@@ -1991,7 +1991,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>38</v>
@@ -2014,7 +2014,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>29</v>
@@ -2037,7 +2037,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>30</v>
@@ -2060,7 +2060,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>31</v>
@@ -2089,7 +2089,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>32</v>
@@ -2118,7 +2118,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>33</v>
@@ -2141,7 +2141,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>34</v>
@@ -2170,7 +2170,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>35</v>
@@ -2199,7 +2199,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>36</v>
@@ -2222,7 +2222,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>37</v>
@@ -2251,7 +2251,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>39</v>
@@ -2280,7 +2280,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>40</v>
@@ -2309,7 +2309,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>41</v>
@@ -2338,7 +2338,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>42</v>
@@ -2367,7 +2367,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>43</v>
@@ -2390,7 +2390,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>44</v>
@@ -2413,7 +2413,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>45</v>
@@ -2436,7 +2436,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>46</v>
@@ -2465,7 +2465,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>47</v>
@@ -2494,7 +2494,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>48</v>
@@ -2523,7 +2523,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
         <v>49</v>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5740BC-E449-45FB-9745-7A00A2D9ECEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694AE4FF-C7D0-4B1E-968C-40CEC7BDA9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>103</v>
@@ -847,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>104</v>
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>105</v>
@@ -899,7 +899,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>106</v>
@@ -931,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>107</v>
@@ -963,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>108</v>
@@ -983,7 +983,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>109</v>
@@ -1009,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>110</v>
@@ -1035,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>111</v>
@@ -1061,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>112</v>
@@ -1081,7 +1081,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>1008</v>
@@ -1177,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>1009</v>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>1010</v>
@@ -1235,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>1011</v>
@@ -1267,7 +1267,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>113</v>
@@ -1287,7 +1287,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>114</v>
@@ -1313,7 +1313,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>115</v>
@@ -1345,7 +1345,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>116</v>
@@ -1377,7 +1377,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>117</v>
@@ -1403,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1429,7 +1429,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1455,7 +1455,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1475,7 +1475,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>128</v>
@@ -1495,7 +1495,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D29">
         <v>129</v>
@@ -1515,7 +1515,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>3003</v>
@@ -1538,7 +1538,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D31">
         <v>10001</v>
@@ -1564,7 +1564,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>10002</v>
@@ -1590,7 +1590,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>10003</v>
@@ -1616,7 +1616,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <v>200</v>
@@ -1642,7 +1642,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D35">
         <v>201</v>
@@ -1668,7 +1668,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>202</v>
@@ -1720,7 +1720,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D38">
         <v>204</v>
@@ -1746,7 +1746,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D39">
         <v>205</v>
@@ -1772,7 +1772,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D40">
         <v>206</v>
@@ -1798,7 +1798,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D41">
         <v>207</v>
@@ -1824,7 +1824,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D42">
         <v>208</v>
@@ -1850,7 +1850,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D43">
         <v>209</v>
@@ -1876,7 +1876,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>24</v>
@@ -1899,7 +1899,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>25</v>
@@ -1922,7 +1922,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>26</v>
@@ -1945,7 +1945,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>27</v>
@@ -1968,7 +1968,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>28</v>
@@ -1991,7 +1991,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>38</v>
@@ -2014,7 +2014,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>29</v>
@@ -2037,7 +2037,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>30</v>
@@ -2060,7 +2060,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>31</v>
@@ -2089,7 +2089,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>32</v>
@@ -2118,7 +2118,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>33</v>
@@ -2141,7 +2141,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>34</v>
@@ -2170,7 +2170,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>35</v>
@@ -2199,7 +2199,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>36</v>
@@ -2222,7 +2222,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>37</v>
@@ -2251,7 +2251,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>39</v>
@@ -2280,7 +2280,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>40</v>
@@ -2309,7 +2309,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>41</v>
@@ -2338,7 +2338,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>42</v>
@@ -2367,7 +2367,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>43</v>
@@ -2390,7 +2390,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>44</v>
@@ -2413,7 +2413,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>45</v>
@@ -2436,7 +2436,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>46</v>
@@ -2465,7 +2465,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>47</v>
@@ -2494,7 +2494,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>48</v>
@@ -2523,7 +2523,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
         <v>49</v>
@@ -2546,7 +2546,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
         <v>50</v>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694AE4FF-C7D0-4B1E-968C-40CEC7BDA9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FECD59-B439-48B6-B3B6-15E06138C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -231,20 +231,6 @@
   </si>
   <si>
     <t>大理石のブロック</t>
-  </si>
-  <si>
-    <t>爆弾１</t>
-    <rPh sb="0" eb="2">
-      <t>バクダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>爆弾2</t>
-    <rPh sb="0" eb="2">
-      <t>バクダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Sort</t>
@@ -353,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,9 +354,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,8 +373,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N70" totalsRowShown="0">
-  <autoFilter ref="A1:N70" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N68" totalsRowShown="0">
+  <autoFilter ref="A1:N68" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -709,13 +692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -737,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -2408,7 +2391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2431,7 +2414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2460,7 +2443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2489,7 +2472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2517,59 +2500,6 @@
       <c r="I68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>66</v>
-      </c>
-      <c r="C69" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69">
-        <v>4000</v>
-      </c>
-      <c r="E69">
-        <v>1000</v>
-      </c>
-      <c r="F69">
-        <v>1001</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>67</v>
-      </c>
-      <c r="C70" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70">
-        <v>4001</v>
-      </c>
-      <c r="E70">
-        <v>1000</v>
-      </c>
-      <c r="F70">
-        <v>1001</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FECD59-B439-48B6-B3B6-15E06138C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED11919-511C-427C-B71A-A910DDEFCCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -234,6 +234,20 @@
   </si>
   <si>
     <t>Sort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾１</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾2</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -373,8 +387,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N68" totalsRowShown="0">
-  <autoFilter ref="A1:N68" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N70" totalsRowShown="0">
+  <autoFilter ref="A1:N70" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -692,13 +706,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69:N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2499,6 +2513,52 @@
       </c>
       <c r="I68">
         <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69">
+        <v>4000</v>
+      </c>
+      <c r="E69">
+        <v>1000</v>
+      </c>
+      <c r="F69">
+        <v>1001</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70">
+        <v>4001</v>
+      </c>
+      <c r="E70">
+        <v>1000</v>
+      </c>
+      <c r="F70">
+        <v>1001</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED11919-511C-427C-B71A-A910DDEFCCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7ADAF-CBC9-42ED-BC50-16DDB218C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -247,6 +247,13 @@
     <t>爆弾2</t>
     <rPh sb="0" eb="2">
       <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>錆びたクワ</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,8 +394,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N70" totalsRowShown="0">
-  <autoFilter ref="A1:N70" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N71" totalsRowShown="0">
+  <autoFilter ref="A1:N71" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -706,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69:N70"/>
+      <selection pane="bottomRight" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2558,6 +2565,35 @@
         <v>1001</v>
       </c>
       <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>9999</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71">
+        <v>5000</v>
+      </c>
+      <c r="E71">
+        <v>1000</v>
+      </c>
+      <c r="F71">
+        <v>1001</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1009</v>
+      </c>
+      <c r="I71">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7ADAF-CBC9-42ED-BC50-16DDB218C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE73047-EED2-4394-9C2D-05941C1FE4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -234,20 +234,6 @@
   </si>
   <si>
     <t>Sort</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>爆弾１</t>
-    <rPh sb="0" eb="2">
-      <t>バクダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>爆弾2</t>
-    <rPh sb="0" eb="2">
-      <t>バクダン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -394,8 +380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N71" totalsRowShown="0">
-  <autoFilter ref="A1:N71" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N75" totalsRowShown="0">
+  <autoFilter ref="A1:N75" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -713,13 +699,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2529,11 +2515,8 @@
       <c r="B69">
         <v>66</v>
       </c>
-      <c r="C69" t="s">
-        <v>50</v>
-      </c>
       <c r="D69">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="E69">
         <v>1000</v>
@@ -2552,11 +2535,8 @@
       <c r="B70">
         <v>67</v>
       </c>
-      <c r="C70" t="s">
-        <v>51</v>
-      </c>
       <c r="D70">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="E70">
         <v>1000</v>
@@ -2573,13 +2553,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>9999</v>
-      </c>
-      <c r="C71" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D71">
-        <v>5000</v>
+        <v>4003</v>
       </c>
       <c r="E71">
         <v>1000</v>
@@ -2590,10 +2567,93 @@
       <c r="G71">
         <v>1</v>
       </c>
-      <c r="H71">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="D72">
+        <v>4004</v>
+      </c>
+      <c r="E72">
+        <v>1000</v>
+      </c>
+      <c r="F72">
+        <v>1001</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="D73">
+        <v>4005</v>
+      </c>
+      <c r="E73">
+        <v>1000</v>
+      </c>
+      <c r="F73">
+        <v>1001</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="D74">
+        <v>4006</v>
+      </c>
+      <c r="E74">
+        <v>1000</v>
+      </c>
+      <c r="F74">
+        <v>1001</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>70</v>
+      </c>
+      <c r="B75">
+        <v>9999</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>5000</v>
+      </c>
+      <c r="E75">
+        <v>1000</v>
+      </c>
+      <c r="F75">
+        <v>1001</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
         <v>1009</v>
       </c>
-      <c r="I71">
+      <c r="I75">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE73047-EED2-4394-9C2D-05941C1FE4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F186AB-9480-42F3-A80D-264D762A2664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -702,10 +702,10 @@
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2513,7 +2513,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D69">
         <v>4001</v>
@@ -2533,7 +2533,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D70">
         <v>4002</v>
@@ -2553,7 +2553,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D71">
         <v>4003</v>
@@ -2573,7 +2573,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D72">
         <v>4004</v>
@@ -2593,7 +2593,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D73">
         <v>4005</v>
@@ -2613,7 +2613,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D74">
         <v>4006</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>9999</v>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F186AB-9480-42F3-A80D-264D762A2664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F3D30-7D4B-4163-B339-CA7C8BB5DB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -380,8 +380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N75" totalsRowShown="0">
-  <autoFilter ref="A1:N75" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N77" totalsRowShown="0">
+  <autoFilter ref="A1:N77" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -699,13 +699,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2654,6 +2654,46 @@
         <v>1009</v>
       </c>
       <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1044</v>
+      </c>
+      <c r="D76">
+        <v>7031</v>
+      </c>
+      <c r="E76">
+        <v>1000</v>
+      </c>
+      <c r="F76">
+        <v>1001</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1045</v>
+      </c>
+      <c r="D77">
+        <v>7032</v>
+      </c>
+      <c r="E77">
+        <v>1000</v>
+      </c>
+      <c r="F77">
+        <v>1001</v>
+      </c>
+      <c r="G77">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F3D30-7D4B-4163-B339-CA7C8BB5DB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083E8100-291E-4B89-AF8F-A90727FDA9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="26580" windowHeight="15285" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -702,10 +711,10 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H78" sqref="H78"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -771,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>101</v>
@@ -791,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>102</v>
@@ -811,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>103</v>
@@ -837,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>104</v>
@@ -863,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>105</v>
@@ -889,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="D7">
         <v>106</v>
@@ -921,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="D8">
         <v>107</v>
@@ -953,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="D9">
         <v>108</v>
@@ -973,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="D10">
         <v>109</v>
@@ -999,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="D11">
         <v>110</v>
@@ -1025,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D12">
         <v>111</v>
@@ -1051,7 +1060,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D13">
         <v>112</v>
@@ -1071,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1103,7 +1112,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1135,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>5007</v>
       </c>
       <c r="D16">
         <v>1008</v>
@@ -1167,7 +1176,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>5008</v>
       </c>
       <c r="D17">
         <v>1009</v>
@@ -1193,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>5009</v>
       </c>
       <c r="D18">
         <v>1010</v>
@@ -1225,7 +1234,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>5010</v>
       </c>
       <c r="D19">
         <v>1011</v>
@@ -1257,7 +1266,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="D20">
         <v>113</v>
@@ -1277,7 +1286,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="D21">
         <v>114</v>
@@ -1303,7 +1312,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="D22">
         <v>115</v>
@@ -1335,7 +1344,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D23">
         <v>116</v>
@@ -1367,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="D24">
         <v>117</v>
@@ -1393,7 +1402,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1419,7 +1428,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>1001</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1445,7 +1454,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>1002</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1465,7 +1474,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="D28">
         <v>128</v>
@@ -1485,7 +1494,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D29">
         <v>129</v>
@@ -1505,7 +1514,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>1021</v>
       </c>
       <c r="D30">
         <v>3003</v>
@@ -1528,7 +1537,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>20000</v>
       </c>
       <c r="D31">
         <v>10001</v>
@@ -1554,7 +1563,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>20001</v>
       </c>
       <c r="D32">
         <v>10002</v>
@@ -1580,7 +1589,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>20002</v>
       </c>
       <c r="D33">
         <v>10003</v>
@@ -1606,7 +1615,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>31</v>
+        <v>1006</v>
       </c>
       <c r="D34">
         <v>200</v>
@@ -1632,7 +1641,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>32</v>
+        <v>1007</v>
       </c>
       <c r="D35">
         <v>201</v>
@@ -1658,7 +1667,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>33</v>
+        <v>1008</v>
       </c>
       <c r="D36">
         <v>202</v>
@@ -1684,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>34</v>
+        <v>1009</v>
       </c>
       <c r="D37">
         <v>203</v>
@@ -1710,7 +1719,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>35</v>
+        <v>1010</v>
       </c>
       <c r="D38">
         <v>204</v>
@@ -1736,7 +1745,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>36</v>
+        <v>1011</v>
       </c>
       <c r="D39">
         <v>205</v>
@@ -1762,7 +1771,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>37</v>
+        <v>1012</v>
       </c>
       <c r="D40">
         <v>206</v>
@@ -1788,7 +1797,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>38</v>
+        <v>1013</v>
       </c>
       <c r="D41">
         <v>207</v>
@@ -1814,7 +1823,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>39</v>
+        <v>1014</v>
       </c>
       <c r="D42">
         <v>208</v>
@@ -1840,7 +1849,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>1015</v>
       </c>
       <c r="D43">
         <v>209</v>
@@ -1866,7 +1875,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>41</v>
+        <v>2000</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>24</v>
@@ -1889,7 +1898,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>42</v>
+        <v>2001</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>25</v>
@@ -1912,7 +1921,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>43</v>
+        <v>2002</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>26</v>
@@ -1935,7 +1944,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>44</v>
+        <v>1016</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>27</v>
@@ -1958,7 +1967,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>1017</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>28</v>
@@ -1981,7 +1990,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>46</v>
+        <v>1018</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>38</v>
@@ -2004,7 +2013,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>47</v>
+        <v>1019</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>29</v>
@@ -2027,7 +2036,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>48</v>
+        <v>1020</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>30</v>
@@ -2050,7 +2059,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>49</v>
+        <v>2003</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>31</v>
@@ -2079,7 +2088,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>50</v>
+        <v>2004</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>32</v>
@@ -2108,7 +2117,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>51</v>
+        <v>2005</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>33</v>
@@ -2131,7 +2140,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>52</v>
+        <v>2006</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>34</v>
@@ -2160,7 +2169,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>53</v>
+        <v>2007</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>35</v>
@@ -2189,7 +2198,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>54</v>
+        <v>2008</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>36</v>
@@ -2212,7 +2221,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>55</v>
+        <v>2009</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>37</v>
@@ -2241,7 +2250,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>39</v>
@@ -2270,7 +2279,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>40</v>
@@ -2299,7 +2308,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>41</v>
@@ -2328,7 +2337,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>42</v>
@@ -2357,7 +2366,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>43</v>
@@ -2380,7 +2389,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>44</v>
@@ -2403,7 +2412,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>45</v>
@@ -2426,7 +2435,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>46</v>
@@ -2455,7 +2464,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>47</v>
@@ -2484,7 +2493,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>48</v>
@@ -2513,7 +2522,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>100</v>
+        <v>1022</v>
       </c>
       <c r="D69">
         <v>4001</v>
@@ -2533,7 +2542,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>101</v>
+        <v>1023</v>
       </c>
       <c r="D70">
         <v>4002</v>
@@ -2553,7 +2562,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>102</v>
+        <v>1024</v>
       </c>
       <c r="D71">
         <v>4003</v>
@@ -2573,7 +2582,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>103</v>
+        <v>1025</v>
       </c>
       <c r="D72">
         <v>4004</v>
@@ -2593,7 +2602,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>104</v>
+        <v>1026</v>
       </c>
       <c r="D73">
         <v>4005</v>
@@ -2613,7 +2622,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>105</v>
+        <v>1027</v>
       </c>
       <c r="D74">
         <v>4006</v>
@@ -2633,7 +2642,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>9999</v>
+        <v>1028</v>
       </c>
       <c r="C75" t="s">
         <v>50</v>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083E8100-291E-4B89-AF8F-A90727FDA9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0A09DC-253D-4AA3-A097-6A19B04CDD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="26580" windowHeight="15285" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -355,7 +354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +368,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,8 +391,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N77" totalsRowShown="0">
-  <autoFilter ref="A1:N77" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N204" totalsRowShown="0">
+  <autoFilter ref="A1:N204" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -708,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2522,19 +2524,19 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1022</v>
+        <v>141</v>
       </c>
       <c r="D69">
-        <v>4001</v>
+        <v>389</v>
       </c>
       <c r="E69">
         <v>1000</v>
       </c>
       <c r="F69">
-        <v>1001</v>
+        <v>1035</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -2542,10 +2544,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1023</v>
+        <v>1028</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
       </c>
       <c r="D70">
-        <v>4002</v>
+        <v>5000</v>
       </c>
       <c r="E70">
         <v>1000</v>
@@ -2554,6 +2559,12 @@
         <v>1001</v>
       </c>
       <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1009</v>
+      </c>
+      <c r="I70">
         <v>1</v>
       </c>
     </row>
@@ -2562,18 +2573,24 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1024</v>
+        <v>2010</v>
       </c>
       <c r="D71">
-        <v>4003</v>
+        <v>294</v>
       </c>
       <c r="E71">
         <v>1000</v>
       </c>
       <c r="F71">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>1011</v>
+      </c>
+      <c r="I71">
         <v>1</v>
       </c>
     </row>
@@ -2582,18 +2599,24 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1025</v>
+        <v>2011</v>
       </c>
       <c r="D72">
-        <v>4004</v>
+        <v>295</v>
       </c>
       <c r="E72">
         <v>1000</v>
       </c>
       <c r="F72">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>1011</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
     </row>
@@ -2602,18 +2625,24 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1026</v>
+        <v>2012</v>
       </c>
       <c r="D73">
-        <v>4005</v>
+        <v>296</v>
       </c>
       <c r="E73">
         <v>1000</v>
       </c>
       <c r="F73">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>1011</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
     </row>
@@ -2622,18 +2651,24 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1027</v>
+        <v>2013</v>
       </c>
       <c r="D74">
-        <v>4006</v>
+        <v>297</v>
       </c>
       <c r="E74">
         <v>1000</v>
       </c>
       <c r="F74">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>1011</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
     </row>
@@ -2642,25 +2677,22 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1028</v>
-      </c>
-      <c r="C75" t="s">
-        <v>50</v>
+        <v>2014</v>
       </c>
       <c r="D75">
-        <v>5000</v>
+        <v>298</v>
       </c>
       <c r="E75">
         <v>1000</v>
       </c>
       <c r="F75">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -2671,18 +2703,24 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1044</v>
+        <v>2015</v>
       </c>
       <c r="D76">
-        <v>7031</v>
+        <v>299</v>
       </c>
       <c r="E76">
         <v>1000</v>
       </c>
       <c r="F76">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>1014</v>
+      </c>
+      <c r="I76">
         <v>1</v>
       </c>
     </row>
@@ -2691,18 +2729,3374 @@
         <v>76</v>
       </c>
       <c r="B77">
+        <v>2016</v>
+      </c>
+      <c r="D77">
+        <v>300</v>
+      </c>
+      <c r="E77">
+        <v>1000</v>
+      </c>
+      <c r="F77">
+        <v>1003</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>1014</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2017</v>
+      </c>
+      <c r="D78">
+        <v>301</v>
+      </c>
+      <c r="E78">
+        <v>1000</v>
+      </c>
+      <c r="F78">
+        <v>1003</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>1014</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2018</v>
+      </c>
+      <c r="D79">
+        <v>302</v>
+      </c>
+      <c r="E79">
+        <v>1000</v>
+      </c>
+      <c r="F79">
+        <v>1003</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>1014</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2019</v>
+      </c>
+      <c r="D80">
+        <v>303</v>
+      </c>
+      <c r="E80">
+        <v>1000</v>
+      </c>
+      <c r="F80">
+        <v>1003</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>1014</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2020</v>
+      </c>
+      <c r="D81">
+        <v>304</v>
+      </c>
+      <c r="E81">
+        <v>1000</v>
+      </c>
+      <c r="F81">
+        <v>1003</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>1026</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1027</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2021</v>
+      </c>
+      <c r="D82">
+        <v>305</v>
+      </c>
+      <c r="E82">
+        <v>1000</v>
+      </c>
+      <c r="F82">
+        <v>1003</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>1026</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1027</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2022</v>
+      </c>
+      <c r="D83">
+        <v>306</v>
+      </c>
+      <c r="E83">
+        <v>1000</v>
+      </c>
+      <c r="F83">
+        <v>1003</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>1026</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1027</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2023</v>
+      </c>
+      <c r="D84">
+        <v>307</v>
+      </c>
+      <c r="E84">
+        <v>1000</v>
+      </c>
+      <c r="F84">
+        <v>1003</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>1026</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1027</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2024</v>
+      </c>
+      <c r="D85">
+        <v>308</v>
+      </c>
+      <c r="E85">
+        <v>1000</v>
+      </c>
+      <c r="F85">
+        <v>1003</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>1026</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1027</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2025</v>
+      </c>
+      <c r="D86">
+        <v>309</v>
+      </c>
+      <c r="E86">
+        <v>1000</v>
+      </c>
+      <c r="F86">
+        <v>1003</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>1018</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>2026</v>
+      </c>
+      <c r="D87">
+        <v>310</v>
+      </c>
+      <c r="E87">
+        <v>1000</v>
+      </c>
+      <c r="F87">
+        <v>1003</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>1018</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>2027</v>
+      </c>
+      <c r="D88">
+        <v>311</v>
+      </c>
+      <c r="E88">
+        <v>1000</v>
+      </c>
+      <c r="F88">
+        <v>1003</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>1018</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2028</v>
+      </c>
+      <c r="D89">
+        <v>312</v>
+      </c>
+      <c r="E89">
+        <v>1000</v>
+      </c>
+      <c r="F89">
+        <v>1003</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>1018</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>2029</v>
+      </c>
+      <c r="D90">
+        <v>313</v>
+      </c>
+      <c r="E90">
+        <v>1000</v>
+      </c>
+      <c r="F90">
+        <v>1003</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>1018</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>2030</v>
+      </c>
+      <c r="D91">
+        <v>314</v>
+      </c>
+      <c r="E91">
+        <v>1000</v>
+      </c>
+      <c r="F91">
+        <v>1003</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>1024</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>2031</v>
+      </c>
+      <c r="D92">
+        <v>315</v>
+      </c>
+      <c r="E92">
+        <v>1000</v>
+      </c>
+      <c r="F92">
+        <v>1003</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>1024</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>2032</v>
+      </c>
+      <c r="D93">
+        <v>316</v>
+      </c>
+      <c r="E93">
+        <v>1000</v>
+      </c>
+      <c r="F93">
+        <v>1003</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>1024</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>2033</v>
+      </c>
+      <c r="D94">
+        <v>317</v>
+      </c>
+      <c r="E94">
+        <v>1000</v>
+      </c>
+      <c r="F94">
+        <v>1003</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>1024</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>2034</v>
+      </c>
+      <c r="D95">
+        <v>318</v>
+      </c>
+      <c r="E95">
+        <v>1000</v>
+      </c>
+      <c r="F95">
+        <v>1003</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>1024</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2035</v>
+      </c>
+      <c r="D96">
+        <v>319</v>
+      </c>
+      <c r="E96">
+        <v>1000</v>
+      </c>
+      <c r="F96">
+        <v>1003</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>1025</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>2036</v>
+      </c>
+      <c r="D97">
+        <v>320</v>
+      </c>
+      <c r="E97">
+        <v>1000</v>
+      </c>
+      <c r="F97">
+        <v>1003</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>1025</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>2037</v>
+      </c>
+      <c r="D98">
+        <v>321</v>
+      </c>
+      <c r="E98">
+        <v>1000</v>
+      </c>
+      <c r="F98">
+        <v>1003</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>1025</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>2038</v>
+      </c>
+      <c r="D99">
+        <v>322</v>
+      </c>
+      <c r="E99">
+        <v>1000</v>
+      </c>
+      <c r="F99">
+        <v>1003</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>1025</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>2039</v>
+      </c>
+      <c r="D100">
+        <v>323</v>
+      </c>
+      <c r="E100">
+        <v>1000</v>
+      </c>
+      <c r="F100">
+        <v>1003</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>1025</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2040</v>
+      </c>
+      <c r="D101">
+        <v>324</v>
+      </c>
+      <c r="E101">
+        <v>1000</v>
+      </c>
+      <c r="F101">
+        <v>1003</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>1020</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>2041</v>
+      </c>
+      <c r="D102">
+        <v>325</v>
+      </c>
+      <c r="E102">
+        <v>1000</v>
+      </c>
+      <c r="F102">
+        <v>1003</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>1020</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2042</v>
+      </c>
+      <c r="D103">
+        <v>326</v>
+      </c>
+      <c r="E103">
+        <v>1000</v>
+      </c>
+      <c r="F103">
+        <v>1003</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>1020</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2043</v>
+      </c>
+      <c r="D104">
+        <v>327</v>
+      </c>
+      <c r="E104">
+        <v>1000</v>
+      </c>
+      <c r="F104">
+        <v>1003</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>1020</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2044</v>
+      </c>
+      <c r="D105">
+        <v>328</v>
+      </c>
+      <c r="E105">
+        <v>1000</v>
+      </c>
+      <c r="F105">
+        <v>1003</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>1020</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2045</v>
+      </c>
+      <c r="D106">
+        <v>329</v>
+      </c>
+      <c r="E106">
+        <v>1000</v>
+      </c>
+      <c r="F106">
+        <v>1003</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>1022</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>2046</v>
+      </c>
+      <c r="D107">
+        <v>330</v>
+      </c>
+      <c r="E107">
+        <v>1000</v>
+      </c>
+      <c r="F107">
+        <v>1003</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>1022</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>2047</v>
+      </c>
+      <c r="D108">
+        <v>331</v>
+      </c>
+      <c r="E108">
+        <v>1000</v>
+      </c>
+      <c r="F108">
+        <v>1003</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>1022</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2048</v>
+      </c>
+      <c r="D109">
+        <v>332</v>
+      </c>
+      <c r="E109">
+        <v>1000</v>
+      </c>
+      <c r="F109">
+        <v>1003</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>1022</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2049</v>
+      </c>
+      <c r="D110">
+        <v>333</v>
+      </c>
+      <c r="E110">
+        <v>1000</v>
+      </c>
+      <c r="F110">
+        <v>1003</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>1022</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2050</v>
+      </c>
+      <c r="D111">
+        <v>334</v>
+      </c>
+      <c r="E111">
+        <v>1000</v>
+      </c>
+      <c r="F111">
+        <v>1003</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111">
+        <v>1016</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2051</v>
+      </c>
+      <c r="D112">
+        <v>335</v>
+      </c>
+      <c r="E112">
+        <v>1000</v>
+      </c>
+      <c r="F112">
+        <v>1003</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>1016</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2052</v>
+      </c>
+      <c r="D113">
+        <v>336</v>
+      </c>
+      <c r="E113">
+        <v>1000</v>
+      </c>
+      <c r="F113">
+        <v>1003</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>1016</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2053</v>
+      </c>
+      <c r="D114">
+        <v>337</v>
+      </c>
+      <c r="E114">
+        <v>1000</v>
+      </c>
+      <c r="F114">
+        <v>1003</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>1016</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2054</v>
+      </c>
+      <c r="D115">
+        <v>338</v>
+      </c>
+      <c r="E115">
+        <v>1000</v>
+      </c>
+      <c r="F115">
+        <v>1003</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <v>1016</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2055</v>
+      </c>
+      <c r="D116">
+        <v>339</v>
+      </c>
+      <c r="E116">
+        <v>1000</v>
+      </c>
+      <c r="F116">
+        <v>1003</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>1020</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2056</v>
+      </c>
+      <c r="D117">
+        <v>340</v>
+      </c>
+      <c r="E117">
+        <v>1000</v>
+      </c>
+      <c r="F117">
+        <v>1003</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="H117">
+        <v>1020</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2057</v>
+      </c>
+      <c r="D118">
+        <v>341</v>
+      </c>
+      <c r="E118">
+        <v>1000</v>
+      </c>
+      <c r="F118">
+        <v>1003</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>1020</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2058</v>
+      </c>
+      <c r="D119">
+        <v>342</v>
+      </c>
+      <c r="E119">
+        <v>1000</v>
+      </c>
+      <c r="F119">
+        <v>1003</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119">
+        <v>1020</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2059</v>
+      </c>
+      <c r="D120">
+        <v>343</v>
+      </c>
+      <c r="E120">
+        <v>1000</v>
+      </c>
+      <c r="F120">
+        <v>1003</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <v>1020</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2060</v>
+      </c>
+      <c r="D121">
+        <v>344</v>
+      </c>
+      <c r="E121">
+        <v>1000</v>
+      </c>
+      <c r="F121">
+        <v>1003</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>1022</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2061</v>
+      </c>
+      <c r="D122">
+        <v>345</v>
+      </c>
+      <c r="E122">
+        <v>1000</v>
+      </c>
+      <c r="F122">
+        <v>1003</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <v>1022</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2062</v>
+      </c>
+      <c r="D123">
+        <v>346</v>
+      </c>
+      <c r="E123">
+        <v>1000</v>
+      </c>
+      <c r="F123">
+        <v>1003</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123">
+        <v>1022</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2063</v>
+      </c>
+      <c r="D124">
+        <v>347</v>
+      </c>
+      <c r="E124">
+        <v>1000</v>
+      </c>
+      <c r="F124">
+        <v>1003</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124">
+        <v>1022</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2064</v>
+      </c>
+      <c r="D125">
+        <v>348</v>
+      </c>
+      <c r="E125">
+        <v>1000</v>
+      </c>
+      <c r="F125">
+        <v>1003</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="H125">
+        <v>1022</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2065</v>
+      </c>
+      <c r="D126">
+        <v>349</v>
+      </c>
+      <c r="E126">
+        <v>1000</v>
+      </c>
+      <c r="F126">
+        <v>1003</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126">
+        <v>1014</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2066</v>
+      </c>
+      <c r="D127">
+        <v>350</v>
+      </c>
+      <c r="E127">
+        <v>1000</v>
+      </c>
+      <c r="F127">
+        <v>1003</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127">
+        <v>1014</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2067</v>
+      </c>
+      <c r="D128">
+        <v>351</v>
+      </c>
+      <c r="E128">
+        <v>1000</v>
+      </c>
+      <c r="F128">
+        <v>1003</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+      <c r="H128">
+        <v>1014</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2068</v>
+      </c>
+      <c r="D129">
+        <v>352</v>
+      </c>
+      <c r="E129">
+        <v>1000</v>
+      </c>
+      <c r="F129">
+        <v>1003</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129">
+        <v>1014</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2069</v>
+      </c>
+      <c r="D130">
+        <v>353</v>
+      </c>
+      <c r="E130">
+        <v>1000</v>
+      </c>
+      <c r="F130">
+        <v>1003</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>1014</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2070</v>
+      </c>
+      <c r="D131">
+        <v>354</v>
+      </c>
+      <c r="E131">
+        <v>1000</v>
+      </c>
+      <c r="F131">
+        <v>1003</v>
+      </c>
+      <c r="G131">
+        <v>3</v>
+      </c>
+      <c r="H131">
+        <v>1026</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <v>1027</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2071</v>
+      </c>
+      <c r="D132">
+        <v>355</v>
+      </c>
+      <c r="E132">
+        <v>1000</v>
+      </c>
+      <c r="F132">
+        <v>1003</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <v>1026</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>1027</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2072</v>
+      </c>
+      <c r="D133">
+        <v>356</v>
+      </c>
+      <c r="E133">
+        <v>1000</v>
+      </c>
+      <c r="F133">
+        <v>1003</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>1026</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>1027</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2073</v>
+      </c>
+      <c r="D134">
+        <v>357</v>
+      </c>
+      <c r="E134">
+        <v>1000</v>
+      </c>
+      <c r="F134">
+        <v>1003</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+      <c r="H134">
+        <v>1026</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>1027</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2074</v>
+      </c>
+      <c r="D135">
+        <v>358</v>
+      </c>
+      <c r="E135">
+        <v>1000</v>
+      </c>
+      <c r="F135">
+        <v>1003</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
+        <v>1026</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>1027</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2075</v>
+      </c>
+      <c r="D136">
+        <v>359</v>
+      </c>
+      <c r="E136">
+        <v>1000</v>
+      </c>
+      <c r="F136">
+        <v>1003</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+      <c r="H136">
+        <v>1018</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2076</v>
+      </c>
+      <c r="D137">
+        <v>360</v>
+      </c>
+      <c r="E137">
+        <v>1000</v>
+      </c>
+      <c r="F137">
+        <v>1003</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+      <c r="H137">
+        <v>1018</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2077</v>
+      </c>
+      <c r="D138">
+        <v>361</v>
+      </c>
+      <c r="E138">
+        <v>1000</v>
+      </c>
+      <c r="F138">
+        <v>1003</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+      <c r="H138">
+        <v>1018</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2078</v>
+      </c>
+      <c r="D139">
+        <v>362</v>
+      </c>
+      <c r="E139">
+        <v>1000</v>
+      </c>
+      <c r="F139">
+        <v>1003</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
+        <v>1018</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2079</v>
+      </c>
+      <c r="D140">
+        <v>363</v>
+      </c>
+      <c r="E140">
+        <v>1000</v>
+      </c>
+      <c r="F140">
+        <v>1003</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+      <c r="H140">
+        <v>1018</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2080</v>
+      </c>
+      <c r="D141">
+        <v>364</v>
+      </c>
+      <c r="E141">
+        <v>1000</v>
+      </c>
+      <c r="F141">
+        <v>1003</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+      <c r="H141">
+        <v>1024</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2081</v>
+      </c>
+      <c r="D142">
+        <v>365</v>
+      </c>
+      <c r="E142">
+        <v>1000</v>
+      </c>
+      <c r="F142">
+        <v>1003</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
+        <v>1024</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2082</v>
+      </c>
+      <c r="D143">
+        <v>366</v>
+      </c>
+      <c r="E143">
+        <v>1000</v>
+      </c>
+      <c r="F143">
+        <v>1003</v>
+      </c>
+      <c r="G143">
+        <v>3</v>
+      </c>
+      <c r="H143">
+        <v>1024</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2083</v>
+      </c>
+      <c r="D144">
+        <v>367</v>
+      </c>
+      <c r="E144">
+        <v>1000</v>
+      </c>
+      <c r="F144">
+        <v>1003</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="H144">
+        <v>1024</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2084</v>
+      </c>
+      <c r="D145">
+        <v>368</v>
+      </c>
+      <c r="E145">
+        <v>1000</v>
+      </c>
+      <c r="F145">
+        <v>1003</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+      <c r="H145">
+        <v>1024</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2085</v>
+      </c>
+      <c r="D146">
+        <v>369</v>
+      </c>
+      <c r="E146">
+        <v>1000</v>
+      </c>
+      <c r="F146">
+        <v>1003</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+      <c r="H146">
+        <v>1025</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2086</v>
+      </c>
+      <c r="D147">
+        <v>370</v>
+      </c>
+      <c r="E147">
+        <v>1000</v>
+      </c>
+      <c r="F147">
+        <v>1003</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147">
+        <v>1025</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2087</v>
+      </c>
+      <c r="D148">
+        <v>371</v>
+      </c>
+      <c r="E148">
+        <v>1000</v>
+      </c>
+      <c r="F148">
+        <v>1003</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>1025</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2088</v>
+      </c>
+      <c r="D149">
+        <v>372</v>
+      </c>
+      <c r="E149">
+        <v>1000</v>
+      </c>
+      <c r="F149">
+        <v>1003</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>1025</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2089</v>
+      </c>
+      <c r="D150">
+        <v>373</v>
+      </c>
+      <c r="E150">
+        <v>1000</v>
+      </c>
+      <c r="F150">
+        <v>1003</v>
+      </c>
+      <c r="G150">
+        <v>3</v>
+      </c>
+      <c r="H150">
+        <v>1025</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2090</v>
+      </c>
+      <c r="D151">
+        <v>374</v>
+      </c>
+      <c r="E151">
+        <v>1000</v>
+      </c>
+      <c r="F151">
+        <v>1003</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+      <c r="H151">
+        <v>1020</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2091</v>
+      </c>
+      <c r="D152">
+        <v>375</v>
+      </c>
+      <c r="E152">
+        <v>1000</v>
+      </c>
+      <c r="F152">
+        <v>1003</v>
+      </c>
+      <c r="G152">
+        <v>3</v>
+      </c>
+      <c r="H152">
+        <v>1020</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2092</v>
+      </c>
+      <c r="D153">
+        <v>376</v>
+      </c>
+      <c r="E153">
+        <v>1000</v>
+      </c>
+      <c r="F153">
+        <v>1003</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153">
+        <v>1020</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2093</v>
+      </c>
+      <c r="D154">
+        <v>377</v>
+      </c>
+      <c r="E154">
+        <v>1000</v>
+      </c>
+      <c r="F154">
+        <v>1003</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <v>1020</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2094</v>
+      </c>
+      <c r="D155">
+        <v>378</v>
+      </c>
+      <c r="E155">
+        <v>1000</v>
+      </c>
+      <c r="F155">
+        <v>1003</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+      <c r="H155">
+        <v>1020</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>2095</v>
+      </c>
+      <c r="D156">
+        <v>379</v>
+      </c>
+      <c r="E156">
+        <v>1000</v>
+      </c>
+      <c r="F156">
+        <v>1003</v>
+      </c>
+      <c r="G156">
+        <v>3</v>
+      </c>
+      <c r="H156">
+        <v>1022</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>2096</v>
+      </c>
+      <c r="D157">
+        <v>380</v>
+      </c>
+      <c r="E157">
+        <v>1000</v>
+      </c>
+      <c r="F157">
+        <v>1003</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
+      </c>
+      <c r="H157">
+        <v>1022</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>2097</v>
+      </c>
+      <c r="D158">
+        <v>381</v>
+      </c>
+      <c r="E158">
+        <v>1000</v>
+      </c>
+      <c r="F158">
+        <v>1003</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+      <c r="H158">
+        <v>1022</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>2098</v>
+      </c>
+      <c r="D159">
+        <v>382</v>
+      </c>
+      <c r="E159">
+        <v>1000</v>
+      </c>
+      <c r="F159">
+        <v>1003</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+      <c r="H159">
+        <v>1022</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>2099</v>
+      </c>
+      <c r="D160">
+        <v>383</v>
+      </c>
+      <c r="E160">
+        <v>1000</v>
+      </c>
+      <c r="F160">
+        <v>1003</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160">
+        <v>1022</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>2100</v>
+      </c>
+      <c r="D161">
+        <v>384</v>
+      </c>
+      <c r="E161">
+        <v>1000</v>
+      </c>
+      <c r="F161">
+        <v>1003</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+      <c r="H161">
+        <v>1016</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>2101</v>
+      </c>
+      <c r="D162">
+        <v>385</v>
+      </c>
+      <c r="E162">
+        <v>1000</v>
+      </c>
+      <c r="F162">
+        <v>1003</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+      <c r="H162">
+        <v>1016</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>2102</v>
+      </c>
+      <c r="D163">
+        <v>386</v>
+      </c>
+      <c r="E163">
+        <v>1000</v>
+      </c>
+      <c r="F163">
+        <v>1003</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <v>1016</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>2103</v>
+      </c>
+      <c r="D164">
+        <v>387</v>
+      </c>
+      <c r="E164">
+        <v>1000</v>
+      </c>
+      <c r="F164">
+        <v>1003</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>1016</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>2104</v>
+      </c>
+      <c r="D165">
+        <v>388</v>
+      </c>
+      <c r="E165">
+        <v>1000</v>
+      </c>
+      <c r="F165">
+        <v>1003</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>1016</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>1022</v>
+      </c>
+      <c r="D166">
+        <v>4001</v>
+      </c>
+      <c r="E166">
+        <v>1000</v>
+      </c>
+      <c r="F166">
+        <v>1013</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>1017</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>1023</v>
+      </c>
+      <c r="D167">
+        <v>4002</v>
+      </c>
+      <c r="E167">
+        <v>1000</v>
+      </c>
+      <c r="F167">
+        <v>1013</v>
+      </c>
+      <c r="G167">
+        <v>5</v>
+      </c>
+      <c r="H167">
+        <v>1017</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>1024</v>
+      </c>
+      <c r="D168">
+        <v>4003</v>
+      </c>
+      <c r="E168">
+        <v>1000</v>
+      </c>
+      <c r="F168">
+        <v>1013</v>
+      </c>
+      <c r="G168">
+        <v>10</v>
+      </c>
+      <c r="H168">
+        <v>1017</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>1025</v>
+      </c>
+      <c r="D169">
+        <v>4004</v>
+      </c>
+      <c r="E169">
+        <v>1000</v>
+      </c>
+      <c r="F169">
+        <v>1013</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169">
+        <v>1017</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>1026</v>
+      </c>
+      <c r="D170">
+        <v>4005</v>
+      </c>
+      <c r="E170">
+        <v>1000</v>
+      </c>
+      <c r="F170">
+        <v>1013</v>
+      </c>
+      <c r="G170">
+        <v>5</v>
+      </c>
+      <c r="H170">
+        <v>1017</v>
+      </c>
+      <c r="I170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>1027</v>
+      </c>
+      <c r="D171">
+        <v>4006</v>
+      </c>
+      <c r="E171">
+        <v>1000</v>
+      </c>
+      <c r="F171">
+        <v>1013</v>
+      </c>
+      <c r="G171">
+        <v>10</v>
+      </c>
+      <c r="H171">
+        <v>1017</v>
+      </c>
+      <c r="I171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1003</v>
+      </c>
+      <c r="D172">
+        <v>6</v>
+      </c>
+      <c r="E172">
+        <v>1000</v>
+      </c>
+      <c r="F172">
+        <v>1034</v>
+      </c>
+      <c r="G172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>1004</v>
+      </c>
+      <c r="D173">
+        <v>7</v>
+      </c>
+      <c r="E173">
+        <v>1000</v>
+      </c>
+      <c r="F173">
+        <v>1034</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1005</v>
+      </c>
+      <c r="D174">
+        <v>8</v>
+      </c>
+      <c r="E174">
+        <v>1000</v>
+      </c>
+      <c r="F174">
+        <v>1034</v>
+      </c>
+      <c r="G174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>117</v>
+      </c>
+      <c r="D175">
+        <v>123</v>
+      </c>
+      <c r="E175">
+        <v>1000</v>
+      </c>
+      <c r="F175">
+        <v>1038</v>
+      </c>
+      <c r="G175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>118</v>
+      </c>
+      <c r="D176">
+        <v>124</v>
+      </c>
+      <c r="E176">
+        <v>1000</v>
+      </c>
+      <c r="F176">
+        <v>1038</v>
+      </c>
+      <c r="G176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>119</v>
+      </c>
+      <c r="D177">
+        <v>125</v>
+      </c>
+      <c r="E177">
+        <v>1000</v>
+      </c>
+      <c r="F177">
+        <v>1038</v>
+      </c>
+      <c r="G177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>120</v>
+      </c>
+      <c r="D178">
+        <v>126</v>
+      </c>
+      <c r="E178">
+        <v>1000</v>
+      </c>
+      <c r="F178">
+        <v>1038</v>
+      </c>
+      <c r="G178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>121</v>
+      </c>
+      <c r="D179">
+        <v>127</v>
+      </c>
+      <c r="E179">
+        <v>1000</v>
+      </c>
+      <c r="F179">
+        <v>1038</v>
+      </c>
+      <c r="G179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>124</v>
+      </c>
+      <c r="D180">
+        <v>134</v>
+      </c>
+      <c r="E180">
+        <v>1000</v>
+      </c>
+      <c r="F180">
+        <v>1034</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>125</v>
+      </c>
+      <c r="D181">
+        <v>135</v>
+      </c>
+      <c r="E181">
+        <v>1000</v>
+      </c>
+      <c r="F181">
+        <v>1034</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>126</v>
+      </c>
+      <c r="D182">
+        <v>136</v>
+      </c>
+      <c r="E182">
+        <v>1000</v>
+      </c>
+      <c r="F182">
+        <v>1034</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>127</v>
+      </c>
+      <c r="D183">
+        <v>137</v>
+      </c>
+      <c r="E183">
+        <v>1000</v>
+      </c>
+      <c r="F183">
+        <v>1034</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>128</v>
+      </c>
+      <c r="D184">
+        <v>138</v>
+      </c>
+      <c r="E184">
+        <v>1000</v>
+      </c>
+      <c r="F184">
+        <v>1034</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>129</v>
+      </c>
+      <c r="D185">
+        <v>139</v>
+      </c>
+      <c r="E185">
+        <v>1000</v>
+      </c>
+      <c r="F185">
+        <v>1034</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>1044</v>
+      </c>
+      <c r="D186">
+        <v>7031</v>
+      </c>
+      <c r="E186">
+        <v>1000</v>
+      </c>
+      <c r="F186">
+        <v>1035</v>
+      </c>
+      <c r="G186">
+        <v>10</v>
+      </c>
+      <c r="H186">
+        <v>1001</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>1046</v>
+      </c>
+      <c r="D187">
+        <v>7033</v>
+      </c>
+      <c r="E187">
+        <v>1000</v>
+      </c>
+      <c r="F187">
+        <v>1029</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>1047</v>
+      </c>
+      <c r="D188">
+        <v>7034</v>
+      </c>
+      <c r="E188">
+        <v>1000</v>
+      </c>
+      <c r="F188">
+        <v>1030</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>1031</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>1032</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1036</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
         <v>1045</v>
       </c>
-      <c r="D77">
+      <c r="D189">
         <v>7032</v>
       </c>
-      <c r="E77">
-        <v>1000</v>
-      </c>
-      <c r="F77">
+      <c r="E189">
+        <v>1000</v>
+      </c>
+      <c r="F189">
+        <v>1035</v>
+      </c>
+      <c r="G189">
+        <v>4</v>
+      </c>
+      <c r="H189">
         <v>1001</v>
       </c>
-      <c r="G77">
+      <c r="I189">
+        <v>10</v>
+      </c>
+      <c r="J189">
+        <v>1002</v>
+      </c>
+      <c r="K189">
+        <v>20</v>
+      </c>
+      <c r="L189">
+        <v>1037</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>1029</v>
+      </c>
+      <c r="D190">
+        <v>7016</v>
+      </c>
+      <c r="E190">
+        <v>1000</v>
+      </c>
+      <c r="F190">
+        <v>1029</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>1016</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>1030</v>
+      </c>
+      <c r="D191">
+        <v>7017</v>
+      </c>
+      <c r="E191">
+        <v>1000</v>
+      </c>
+      <c r="F191">
+        <v>1030</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>1031</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>1032</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1016</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>1031</v>
+      </c>
+      <c r="D192">
+        <v>7018</v>
+      </c>
+      <c r="E192">
+        <v>1000</v>
+      </c>
+      <c r="F192">
+        <v>1001</v>
+      </c>
+      <c r="G192">
+        <v>10</v>
+      </c>
+      <c r="H192">
+        <v>1014</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1019</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>1032</v>
+      </c>
+      <c r="D193">
+        <v>7019</v>
+      </c>
+      <c r="E193">
+        <v>1000</v>
+      </c>
+      <c r="F193">
+        <v>1033</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>1001</v>
+      </c>
+      <c r="I193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>1033</v>
+      </c>
+      <c r="D194">
+        <v>7020</v>
+      </c>
+      <c r="E194">
+        <v>1000</v>
+      </c>
+      <c r="F194">
+        <v>1033</v>
+      </c>
+      <c r="G194">
+        <v>2</v>
+      </c>
+      <c r="H194">
+        <v>1001</v>
+      </c>
+      <c r="I194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>1034</v>
+      </c>
+      <c r="D195">
+        <v>7021</v>
+      </c>
+      <c r="E195">
+        <v>1000</v>
+      </c>
+      <c r="F195">
+        <v>1033</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>1001</v>
+      </c>
+      <c r="I195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>1035</v>
+      </c>
+      <c r="D196">
+        <v>7022</v>
+      </c>
+      <c r="E196">
+        <v>1000</v>
+      </c>
+      <c r="F196">
+        <v>1033</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>1001</v>
+      </c>
+      <c r="I196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>1036</v>
+      </c>
+      <c r="D197">
+        <v>7023</v>
+      </c>
+      <c r="E197">
+        <v>1000</v>
+      </c>
+      <c r="F197">
+        <v>1033</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>1001</v>
+      </c>
+      <c r="I197">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>1037</v>
+      </c>
+      <c r="D198">
+        <v>7024</v>
+      </c>
+      <c r="E198">
+        <v>1000</v>
+      </c>
+      <c r="F198">
+        <v>1033</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>1001</v>
+      </c>
+      <c r="I198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>1038</v>
+      </c>
+      <c r="D199">
+        <v>7025</v>
+      </c>
+      <c r="E199">
+        <v>1000</v>
+      </c>
+      <c r="F199">
+        <v>1033</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>1001</v>
+      </c>
+      <c r="I199">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>1039</v>
+      </c>
+      <c r="D200">
+        <v>7026</v>
+      </c>
+      <c r="E200">
+        <v>1000</v>
+      </c>
+      <c r="F200">
+        <v>1033</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>1001</v>
+      </c>
+      <c r="I200">
+        <v>10</v>
+      </c>
+      <c r="J200">
+        <v>1016</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>1040</v>
+      </c>
+      <c r="D201">
+        <v>7027</v>
+      </c>
+      <c r="E201">
+        <v>1000</v>
+      </c>
+      <c r="F201">
+        <v>1033</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>1001</v>
+      </c>
+      <c r="I201">
+        <v>10</v>
+      </c>
+      <c r="J201">
+        <v>1016</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>1041</v>
+      </c>
+      <c r="D202">
+        <v>7028</v>
+      </c>
+      <c r="E202">
+        <v>1000</v>
+      </c>
+      <c r="F202">
+        <v>1033</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>1001</v>
+      </c>
+      <c r="I202">
+        <v>10</v>
+      </c>
+      <c r="J202">
+        <v>1016</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>1042</v>
+      </c>
+      <c r="D203">
+        <v>7029</v>
+      </c>
+      <c r="E203">
+        <v>1000</v>
+      </c>
+      <c r="F203">
+        <v>1033</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>1001</v>
+      </c>
+      <c r="I203">
+        <v>10</v>
+      </c>
+      <c r="J203">
+        <v>1016</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>1043</v>
+      </c>
+      <c r="D204">
+        <v>7030</v>
+      </c>
+      <c r="E204">
+        <v>1000</v>
+      </c>
+      <c r="F204">
+        <v>1033</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>1001</v>
+      </c>
+      <c r="I204">
+        <v>10</v>
+      </c>
+      <c r="J204">
+        <v>1016</v>
+      </c>
+      <c r="K204">
         <v>1</v>
       </c>
     </row>
@@ -2815,4 +6209,2388 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F35A559-70DB-42E3-B832-950C89CA9C4E}">
+  <dimension ref="A1:B296"/>
+  <sheetViews>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>102</v>
+      </c>
+      <c r="B10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>103</v>
+      </c>
+      <c r="B11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>104</v>
+      </c>
+      <c r="B12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>105</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>106</v>
+      </c>
+      <c r="B14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>107</v>
+      </c>
+      <c r="B15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>108</v>
+      </c>
+      <c r="B16">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>109</v>
+      </c>
+      <c r="B17">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>110</v>
+      </c>
+      <c r="B18">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>111</v>
+      </c>
+      <c r="B19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>112</v>
+      </c>
+      <c r="B20">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>113</v>
+      </c>
+      <c r="B21">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>114</v>
+      </c>
+      <c r="B22">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>115</v>
+      </c>
+      <c r="B23">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>116</v>
+      </c>
+      <c r="B24">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>117</v>
+      </c>
+      <c r="B25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>118</v>
+      </c>
+      <c r="B26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>123</v>
+      </c>
+      <c r="B27">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>124</v>
+      </c>
+      <c r="B28">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>125</v>
+      </c>
+      <c r="B29">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>126</v>
+      </c>
+      <c r="B30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>127</v>
+      </c>
+      <c r="B31">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>128</v>
+      </c>
+      <c r="B32">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>129</v>
+      </c>
+      <c r="B33">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>134</v>
+      </c>
+      <c r="B34">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>135</v>
+      </c>
+      <c r="B35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>136</v>
+      </c>
+      <c r="B36">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>137</v>
+      </c>
+      <c r="B37">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>138</v>
+      </c>
+      <c r="B38">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>139</v>
+      </c>
+      <c r="B39">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>200</v>
+      </c>
+      <c r="B40">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>201</v>
+      </c>
+      <c r="B41">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>202</v>
+      </c>
+      <c r="B42">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>203</v>
+      </c>
+      <c r="B43">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>204</v>
+      </c>
+      <c r="B44">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>205</v>
+      </c>
+      <c r="B45">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>206</v>
+      </c>
+      <c r="B46">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>207</v>
+      </c>
+      <c r="B47">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>208</v>
+      </c>
+      <c r="B48">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>209</v>
+      </c>
+      <c r="B49">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>230</v>
+      </c>
+      <c r="B50">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>231</v>
+      </c>
+      <c r="B51">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>232</v>
+      </c>
+      <c r="B52">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>233</v>
+      </c>
+      <c r="B53">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>234</v>
+      </c>
+      <c r="B54">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>235</v>
+      </c>
+      <c r="B55">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>236</v>
+      </c>
+      <c r="B56">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>237</v>
+      </c>
+      <c r="B57">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>238</v>
+      </c>
+      <c r="B58">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>239</v>
+      </c>
+      <c r="B59">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>278</v>
+      </c>
+      <c r="B60">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>279</v>
+      </c>
+      <c r="B61">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>280</v>
+      </c>
+      <c r="B62">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>281</v>
+      </c>
+      <c r="B63">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>282</v>
+      </c>
+      <c r="B64">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>283</v>
+      </c>
+      <c r="B65">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>284</v>
+      </c>
+      <c r="B66">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>285</v>
+      </c>
+      <c r="B67">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>287</v>
+      </c>
+      <c r="B68">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>288</v>
+      </c>
+      <c r="B69">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>289</v>
+      </c>
+      <c r="B70">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>290</v>
+      </c>
+      <c r="B71">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>291</v>
+      </c>
+      <c r="B72">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>292</v>
+      </c>
+      <c r="B73">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>293</v>
+      </c>
+      <c r="B74">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>294</v>
+      </c>
+      <c r="B75">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>295</v>
+      </c>
+      <c r="B76">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>296</v>
+      </c>
+      <c r="B77">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>297</v>
+      </c>
+      <c r="B78">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>298</v>
+      </c>
+      <c r="B79">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>299</v>
+      </c>
+      <c r="B80">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>300</v>
+      </c>
+      <c r="B81">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>301</v>
+      </c>
+      <c r="B82">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>302</v>
+      </c>
+      <c r="B83">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>303</v>
+      </c>
+      <c r="B84">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>304</v>
+      </c>
+      <c r="B85">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>305</v>
+      </c>
+      <c r="B86">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>306</v>
+      </c>
+      <c r="B87">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>307</v>
+      </c>
+      <c r="B88">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>308</v>
+      </c>
+      <c r="B89">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>309</v>
+      </c>
+      <c r="B90">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>310</v>
+      </c>
+      <c r="B91">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>311</v>
+      </c>
+      <c r="B92">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>312</v>
+      </c>
+      <c r="B93">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>313</v>
+      </c>
+      <c r="B94">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>314</v>
+      </c>
+      <c r="B95">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>315</v>
+      </c>
+      <c r="B96">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>316</v>
+      </c>
+      <c r="B97">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>317</v>
+      </c>
+      <c r="B98">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>318</v>
+      </c>
+      <c r="B99">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>319</v>
+      </c>
+      <c r="B100">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>320</v>
+      </c>
+      <c r="B101">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>321</v>
+      </c>
+      <c r="B102">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>322</v>
+      </c>
+      <c r="B103">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>323</v>
+      </c>
+      <c r="B104">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>324</v>
+      </c>
+      <c r="B105">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>325</v>
+      </c>
+      <c r="B106">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>326</v>
+      </c>
+      <c r="B107">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>327</v>
+      </c>
+      <c r="B108">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>328</v>
+      </c>
+      <c r="B109">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>329</v>
+      </c>
+      <c r="B110">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>330</v>
+      </c>
+      <c r="B111">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>331</v>
+      </c>
+      <c r="B112">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>332</v>
+      </c>
+      <c r="B113">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>333</v>
+      </c>
+      <c r="B114">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>334</v>
+      </c>
+      <c r="B115">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>335</v>
+      </c>
+      <c r="B116">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>336</v>
+      </c>
+      <c r="B117">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>337</v>
+      </c>
+      <c r="B118">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>338</v>
+      </c>
+      <c r="B119">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>339</v>
+      </c>
+      <c r="B120">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>340</v>
+      </c>
+      <c r="B121">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>341</v>
+      </c>
+      <c r="B122">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>342</v>
+      </c>
+      <c r="B123">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>343</v>
+      </c>
+      <c r="B124">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>344</v>
+      </c>
+      <c r="B125">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>345</v>
+      </c>
+      <c r="B126">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>346</v>
+      </c>
+      <c r="B127">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>347</v>
+      </c>
+      <c r="B128">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>348</v>
+      </c>
+      <c r="B129">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>349</v>
+      </c>
+      <c r="B130">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>350</v>
+      </c>
+      <c r="B131">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>351</v>
+      </c>
+      <c r="B132">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>352</v>
+      </c>
+      <c r="B133">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>353</v>
+      </c>
+      <c r="B134">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>354</v>
+      </c>
+      <c r="B135">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>355</v>
+      </c>
+      <c r="B136">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>356</v>
+      </c>
+      <c r="B137">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>357</v>
+      </c>
+      <c r="B138">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>358</v>
+      </c>
+      <c r="B139">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>359</v>
+      </c>
+      <c r="B140">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>360</v>
+      </c>
+      <c r="B141">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>361</v>
+      </c>
+      <c r="B142">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>362</v>
+      </c>
+      <c r="B143">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>363</v>
+      </c>
+      <c r="B144">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>364</v>
+      </c>
+      <c r="B145">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>365</v>
+      </c>
+      <c r="B146">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>366</v>
+      </c>
+      <c r="B147">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>367</v>
+      </c>
+      <c r="B148">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>368</v>
+      </c>
+      <c r="B149">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>369</v>
+      </c>
+      <c r="B150">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>370</v>
+      </c>
+      <c r="B151">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>371</v>
+      </c>
+      <c r="B152">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>372</v>
+      </c>
+      <c r="B153">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>373</v>
+      </c>
+      <c r="B154">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>374</v>
+      </c>
+      <c r="B155">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>375</v>
+      </c>
+      <c r="B156">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>376</v>
+      </c>
+      <c r="B157">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>377</v>
+      </c>
+      <c r="B158">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>378</v>
+      </c>
+      <c r="B159">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>379</v>
+      </c>
+      <c r="B160">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>380</v>
+      </c>
+      <c r="B161">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>381</v>
+      </c>
+      <c r="B162">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>382</v>
+      </c>
+      <c r="B163">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>383</v>
+      </c>
+      <c r="B164">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>384</v>
+      </c>
+      <c r="B165">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>385</v>
+      </c>
+      <c r="B166">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>386</v>
+      </c>
+      <c r="B167">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>387</v>
+      </c>
+      <c r="B168">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>388</v>
+      </c>
+      <c r="B169">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>389</v>
+      </c>
+      <c r="B170">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>500</v>
+      </c>
+      <c r="B171">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>501</v>
+      </c>
+      <c r="B172">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>502</v>
+      </c>
+      <c r="B173">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>503</v>
+      </c>
+      <c r="B174">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>504</v>
+      </c>
+      <c r="B175">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>505</v>
+      </c>
+      <c r="B176">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>506</v>
+      </c>
+      <c r="B177">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>507</v>
+      </c>
+      <c r="B178">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>508</v>
+      </c>
+      <c r="B179">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>509</v>
+      </c>
+      <c r="B180">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>550</v>
+      </c>
+      <c r="B181">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>551</v>
+      </c>
+      <c r="B182">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>552</v>
+      </c>
+      <c r="B183">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>553</v>
+      </c>
+      <c r="B184">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>554</v>
+      </c>
+      <c r="B185">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>555</v>
+      </c>
+      <c r="B186">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>556</v>
+      </c>
+      <c r="B187">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>557</v>
+      </c>
+      <c r="B188">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>558</v>
+      </c>
+      <c r="B189">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>559</v>
+      </c>
+      <c r="B190">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>600</v>
+      </c>
+      <c r="B191">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>700</v>
+      </c>
+      <c r="B192">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>1001</v>
+      </c>
+      <c r="B193">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>1002</v>
+      </c>
+      <c r="B194">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>1003</v>
+      </c>
+      <c r="B195">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>1004</v>
+      </c>
+      <c r="B196">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>1005</v>
+      </c>
+      <c r="B197">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>1006</v>
+      </c>
+      <c r="B198">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>1007</v>
+      </c>
+      <c r="B199">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>1008</v>
+      </c>
+      <c r="B200">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>1009</v>
+      </c>
+      <c r="B201">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>1010</v>
+      </c>
+      <c r="B202">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>1011</v>
+      </c>
+      <c r="B203">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>1012</v>
+      </c>
+      <c r="B204">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>1013</v>
+      </c>
+      <c r="B205">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>1014</v>
+      </c>
+      <c r="B206">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>1015</v>
+      </c>
+      <c r="B207">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>1016</v>
+      </c>
+      <c r="B208">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>1017</v>
+      </c>
+      <c r="B209">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>1018</v>
+      </c>
+      <c r="B210">
+        <v>5017</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>1019</v>
+      </c>
+      <c r="B211">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>1020</v>
+      </c>
+      <c r="B212">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>1021</v>
+      </c>
+      <c r="B213">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>1022</v>
+      </c>
+      <c r="B214">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>1023</v>
+      </c>
+      <c r="B215">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>1024</v>
+      </c>
+      <c r="B216">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>1025</v>
+      </c>
+      <c r="B217">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>1026</v>
+      </c>
+      <c r="B218">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>1027</v>
+      </c>
+      <c r="B219">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>1029</v>
+      </c>
+      <c r="B220">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>1030</v>
+      </c>
+      <c r="B221">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>1031</v>
+      </c>
+      <c r="B222">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>1032</v>
+      </c>
+      <c r="B223">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>1033</v>
+      </c>
+      <c r="B224">
+        <v>5031</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>1034</v>
+      </c>
+      <c r="B225">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>1035</v>
+      </c>
+      <c r="B226">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>1036</v>
+      </c>
+      <c r="B227">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>1037</v>
+      </c>
+      <c r="B228">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>1038</v>
+      </c>
+      <c r="B229">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>2000</v>
+      </c>
+      <c r="B230">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>2001</v>
+      </c>
+      <c r="B231">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>2002</v>
+      </c>
+      <c r="B232">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>2500</v>
+      </c>
+      <c r="B233">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>2501</v>
+      </c>
+      <c r="B234">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>2502</v>
+      </c>
+      <c r="B235">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>3000</v>
+      </c>
+      <c r="B236">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>3001</v>
+      </c>
+      <c r="B237">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>3002</v>
+      </c>
+      <c r="B238">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>3003</v>
+      </c>
+      <c r="B239">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>4001</v>
+      </c>
+      <c r="B240">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241">
+        <v>4002</v>
+      </c>
+      <c r="B241">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A242">
+        <v>4003</v>
+      </c>
+      <c r="B242">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A243">
+        <v>4004</v>
+      </c>
+      <c r="B243">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A244">
+        <v>4005</v>
+      </c>
+      <c r="B244">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A245">
+        <v>4006</v>
+      </c>
+      <c r="B245">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A246">
+        <v>5000</v>
+      </c>
+      <c r="B246">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A247">
+        <v>7016</v>
+      </c>
+      <c r="B247">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A248">
+        <v>7017</v>
+      </c>
+      <c r="B248">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A249">
+        <v>7018</v>
+      </c>
+      <c r="B249">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A250">
+        <v>7019</v>
+      </c>
+      <c r="B250">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A251">
+        <v>7020</v>
+      </c>
+      <c r="B251">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A252">
+        <v>7021</v>
+      </c>
+      <c r="B252">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A253">
+        <v>7022</v>
+      </c>
+      <c r="B253">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A254">
+        <v>7023</v>
+      </c>
+      <c r="B254">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A255">
+        <v>7024</v>
+      </c>
+      <c r="B255">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A256">
+        <v>7025</v>
+      </c>
+      <c r="B256">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A257">
+        <v>7026</v>
+      </c>
+      <c r="B257">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A258">
+        <v>7027</v>
+      </c>
+      <c r="B258">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A259">
+        <v>7028</v>
+      </c>
+      <c r="B259">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A260">
+        <v>7029</v>
+      </c>
+      <c r="B260">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A261">
+        <v>7030</v>
+      </c>
+      <c r="B261">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A262">
+        <v>7031</v>
+      </c>
+      <c r="B262">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A263">
+        <v>7032</v>
+      </c>
+      <c r="B263">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A264">
+        <v>7033</v>
+      </c>
+      <c r="B264">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A265">
+        <v>7034</v>
+      </c>
+      <c r="B265">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A266">
+        <v>9000</v>
+      </c>
+      <c r="B266">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A267">
+        <v>9001</v>
+      </c>
+      <c r="B267">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A268">
+        <v>9002</v>
+      </c>
+      <c r="B268">
+        <v>9002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A269">
+        <v>9003</v>
+      </c>
+      <c r="B269">
+        <v>9003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A270">
+        <v>9004</v>
+      </c>
+      <c r="B270">
+        <v>9004</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A271">
+        <v>9005</v>
+      </c>
+      <c r="B271">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A272" s="5">
+        <v>10001</v>
+      </c>
+      <c r="B272">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A273" s="5">
+        <v>10002</v>
+      </c>
+      <c r="B273">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A274" s="5">
+        <v>10003</v>
+      </c>
+      <c r="B274">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A275" s="5">
+        <v>10004</v>
+      </c>
+      <c r="B275">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A276" s="5">
+        <v>10005</v>
+      </c>
+      <c r="B276">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A277" s="5">
+        <v>10006</v>
+      </c>
+      <c r="B277">
+        <v>20005</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A278" s="5">
+        <v>10007</v>
+      </c>
+      <c r="B278">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A279" s="5">
+        <v>10008</v>
+      </c>
+      <c r="B279">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A280" s="5">
+        <v>10009</v>
+      </c>
+      <c r="B280">
+        <v>20008</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A281" s="5">
+        <v>10010</v>
+      </c>
+      <c r="B281">
+        <v>20009</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A282" s="5">
+        <v>10011</v>
+      </c>
+      <c r="B282">
+        <v>20010</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A283" s="5">
+        <v>10012</v>
+      </c>
+      <c r="B283">
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A284">
+        <v>10013</v>
+      </c>
+      <c r="B284">
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A285">
+        <v>10014</v>
+      </c>
+      <c r="B285">
+        <v>20013</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A286">
+        <v>10015</v>
+      </c>
+      <c r="B286">
+        <v>20014</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A287">
+        <v>10016</v>
+      </c>
+      <c r="B287">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A288">
+        <v>10017</v>
+      </c>
+      <c r="B288">
+        <v>20016</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A289">
+        <v>10018</v>
+      </c>
+      <c r="B289">
+        <v>20017</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A290">
+        <v>10019</v>
+      </c>
+      <c r="B290">
+        <v>20018</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A291">
+        <v>10020</v>
+      </c>
+      <c r="B291">
+        <v>20019</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A292">
+        <v>10021</v>
+      </c>
+      <c r="B292">
+        <v>20020</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A293">
+        <v>10022</v>
+      </c>
+      <c r="B293">
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A294">
+        <v>10023</v>
+      </c>
+      <c r="B294">
+        <v>20022</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A295">
+        <v>10024</v>
+      </c>
+      <c r="B295">
+        <v>20023</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A296">
+        <v>11001</v>
+      </c>
+      <c r="B296">
+        <v>10002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0A09DC-253D-4AA3-A097-6A19B04CDD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270B9F4C-89DE-43F7-8B21-D68EAD50088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -716,7 +716,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomRight" activeCell="N195" sqref="N195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5562,6 +5562,9 @@
       <c r="J186">
         <v>1015</v>
       </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187">
@@ -5584,6 +5587,9 @@
       </c>
       <c r="H187">
         <v>1036</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270B9F4C-89DE-43F7-8B21-D68EAD50088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ED58EF-0FDC-4D78-B441-BAD9EA2DC7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="11010" yWindow="0" windowWidth="17745" windowHeight="15285" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="228">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -168,9 +168,6 @@
     <t>木の屋根</t>
   </si>
   <si>
-    <t>木の屋根・角</t>
-  </si>
-  <si>
     <t>木の屋根・天板</t>
   </si>
   <si>
@@ -205,10 +202,6 @@
   </si>
   <si>
     <t>青石の屋根・かざり</t>
-  </si>
-  <si>
-    <t>木の柵・でっぱり角</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>城壁のブロック</t>
@@ -245,11 +238,544 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>石のブロック</t>
+  </si>
+  <si>
+    <t>木のブロックA</t>
+  </si>
+  <si>
+    <t>木のブロックB</t>
+  </si>
+  <si>
+    <t>木のブロックC</t>
+  </si>
+  <si>
+    <t>土のブロック</t>
+  </si>
+  <si>
+    <t>草土のブロック</t>
+  </si>
+  <si>
+    <t>石レンガのブロック</t>
+  </si>
+  <si>
+    <t>砂のブロック</t>
+  </si>
+  <si>
+    <t>銅のブロック</t>
+  </si>
+  <si>
+    <t>銀のブロック</t>
+  </si>
+  <si>
+    <t>金のブロック</t>
+  </si>
+  <si>
+    <t>葉のブロック</t>
+  </si>
+  <si>
+    <t>作業台</t>
+  </si>
+  <si>
+    <t>かまど</t>
+  </si>
+  <si>
+    <t>銅の延棒</t>
+  </si>
+  <si>
+    <t>鉄の延棒</t>
+  </si>
+  <si>
+    <t>銀の延棒</t>
+  </si>
+  <si>
+    <t>金の延棒</t>
+  </si>
+  <si>
+    <t>白砂のブロック</t>
+  </si>
+  <si>
+    <t>ガラスブロック</t>
+  </si>
+  <si>
+    <t>緑のガラスブロック</t>
+  </si>
+  <si>
+    <t>金のガラスブロック</t>
+  </si>
+  <si>
+    <t>緑鉄のブロック</t>
+  </si>
+  <si>
+    <t>ドア</t>
+  </si>
+  <si>
+    <t>両空きドア</t>
+  </si>
+  <si>
+    <t>たいまつ</t>
+  </si>
+  <si>
+    <t>黄緑の葉ブロック</t>
+  </si>
+  <si>
+    <t>エメグリの葉ブロック</t>
+  </si>
+  <si>
+    <t>掲示板</t>
+  </si>
+  <si>
+    <t>木の剣</t>
+  </si>
+  <si>
+    <t>木の杖</t>
+  </si>
+  <si>
+    <t>木の弓</t>
+  </si>
+  <si>
+    <t>白の木製ベット</t>
+  </si>
+  <si>
+    <t>黄色の木製ベット</t>
+  </si>
+  <si>
+    <t>ピンクの木製ベット</t>
+  </si>
+  <si>
+    <t>オレンジの木製ベット</t>
+  </si>
+  <si>
+    <t>赤の木製ベット</t>
+  </si>
+  <si>
+    <t>紫の木製ベット</t>
+  </si>
+  <si>
+    <t>青の木製ベット</t>
+  </si>
+  <si>
+    <t>水色の木製ベット</t>
+  </si>
+  <si>
+    <t>緑の木製ベット</t>
+  </si>
+  <si>
+    <t>黒の木製ベット</t>
+  </si>
+  <si>
+    <t>木の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>木の柵・でっぱり角</t>
+  </si>
+  <si>
+    <t>雪ブロック</t>
+  </si>
+  <si>
     <t>錆びたクワ</t>
-    <rPh sb="0" eb="1">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色石の屋根</t>
+  </si>
+  <si>
+    <t>黄色石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>黄色石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>黄色石の屋根・天板</t>
+  </si>
+  <si>
+    <t>黄色石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>桃色石の屋根</t>
+  </si>
+  <si>
+    <t>桃色石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>桃色石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>桃色石の屋根・天板</t>
+  </si>
+  <si>
+    <t>桃色石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>白石の屋根</t>
+  </si>
+  <si>
+    <t>白石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>白石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>白石の屋根・天板</t>
+  </si>
+  <si>
+    <t>白石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>橙石の屋根</t>
+  </si>
+  <si>
+    <t>橙石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>橙石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>橙石の屋根・天板</t>
+  </si>
+  <si>
+    <t>橙石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>赤石の屋根</t>
+  </si>
+  <si>
+    <t>赤石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>赤石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>赤石の屋根・天板</t>
+  </si>
+  <si>
+    <t>赤石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>紫石の屋根</t>
+  </si>
+  <si>
+    <t>紫石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>紫石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>紫石の屋根・天板</t>
+  </si>
+  <si>
+    <t>紫石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>水色石の屋根</t>
+  </si>
+  <si>
+    <t>水色石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>水色石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>水色石の屋根・天板</t>
+  </si>
+  <si>
+    <t>水色石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>黄緑石の屋根</t>
+  </si>
+  <si>
+    <t>黄緑石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>黄緑石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>黄緑石の屋根・天板</t>
+  </si>
+  <si>
+    <t>黄緑石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>黒石の屋根</t>
+  </si>
+  <si>
+    <t>黒石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>黒石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>黒石の屋根・天板</t>
+  </si>
+  <si>
+    <t>黒石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>青系石の屋根</t>
+  </si>
+  <si>
+    <t>青系石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>青系石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>青系石の屋根・天板</t>
+  </si>
+  <si>
+    <t>青系石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>黄色系石の屋根</t>
+  </si>
+  <si>
+    <t>黄色系石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>黄色系石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>黄色系石の屋根・天板</t>
+  </si>
+  <si>
+    <t>黄色系石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>桃色系石の屋根</t>
+  </si>
+  <si>
+    <t>桃色系石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>桃色系石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>桃色系石の屋根・天板</t>
+  </si>
+  <si>
+    <t>桃色系石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>白系石の屋根</t>
+  </si>
+  <si>
+    <t>白系石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>白系石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>白系石の屋根・天板</t>
+  </si>
+  <si>
+    <t>白系石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>橙系石の屋根</t>
+  </si>
+  <si>
+    <t>橙系石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>橙系石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>橙系石の屋根・天板</t>
+  </si>
+  <si>
+    <t>橙系石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>赤系石の屋根</t>
+  </si>
+  <si>
+    <t>赤系石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>赤系石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>赤系石の屋根・天板</t>
+  </si>
+  <si>
+    <t>赤系石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>紫系石の屋根</t>
+  </si>
+  <si>
+    <t>紫系石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>紫系石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>紫系石の屋根・天板</t>
+  </si>
+  <si>
+    <t>紫系石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>水色系石の屋根</t>
+  </si>
+  <si>
+    <t>水色系石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>水色系石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>水色系石の屋根・天板</t>
+  </si>
+  <si>
+    <t>水色系石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>黄緑系石の屋根</t>
+  </si>
+  <si>
+    <t>黄緑系石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>黄緑系石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>黄緑系石の屋根・天板</t>
+  </si>
+  <si>
+    <t>黄緑系石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>黒系石の屋根</t>
+  </si>
+  <si>
+    <t>黒系石の屋根・でっぱり角</t>
+  </si>
+  <si>
+    <t>黒系石の屋根・ひっこみ角</t>
+  </si>
+  <si>
+    <t>黒系石の屋根・天板</t>
+  </si>
+  <si>
+    <t>黒系石の屋根・かざり</t>
+  </si>
+  <si>
+    <t>爆弾3・花火</t>
+  </si>
+  <si>
+    <t>爆弾5・花火</t>
+  </si>
+  <si>
+    <t>爆弾10・花火</t>
+  </si>
+  <si>
+    <t>爆弾3</t>
+  </si>
+  <si>
+    <t>爆弾5</t>
+  </si>
+  <si>
+    <t>爆弾10</t>
+  </si>
+  <si>
+    <t>月の灯り</t>
+  </si>
+  <si>
+    <t>あみあみライト</t>
+  </si>
+  <si>
+    <t>和紙ライト</t>
+  </si>
+  <si>
+    <t>赤の葉ブロック</t>
+  </si>
+  <si>
+    <t>オレンジの葉ブロック</t>
+  </si>
+  <si>
+    <t>黄色の葉ブロック</t>
+  </si>
+  <si>
+    <t>水色の葉ブロック</t>
+  </si>
+  <si>
+    <t>ピンク色の葉ブロック</t>
+  </si>
+  <si>
+    <t>黄色の灯ブロック</t>
+  </si>
+  <si>
+    <t>赤の灯ブロック</t>
+  </si>
+  <si>
+    <t>青の灯ブロック</t>
+  </si>
+  <si>
+    <t>橙の灯ブロック</t>
+  </si>
+  <si>
+    <t>紫の灯ブロック</t>
+  </si>
+  <si>
+    <t>白の灯ブロック</t>
+  </si>
+  <si>
+    <t>雪だるま</t>
+  </si>
+  <si>
+    <t>ぴーちゃんサンタ</t>
+  </si>
+  <si>
+    <t>ヒヨこっずトナカイ</t>
+  </si>
+  <si>
+    <t>ツリー</t>
+  </si>
+  <si>
+    <t>ぴーちゃんぬいぐるみ</t>
+  </si>
+  <si>
+    <t>ひよこっずぬいぐるみ</t>
+  </si>
+  <si>
+    <t>おしゃれな本棚</t>
+  </si>
+  <si>
+    <t>ローテーブル</t>
+  </si>
+  <si>
+    <t>回転ソファチェア</t>
+  </si>
+  <si>
+    <t>茶のデスク</t>
+  </si>
+  <si>
+    <t>白のデスク</t>
+  </si>
+  <si>
+    <t>黒のデスク</t>
+  </si>
+  <si>
+    <t>緑のデスク</t>
+  </si>
+  <si>
+    <t>黄色のデスク</t>
+  </si>
+  <si>
+    <t>茶のソファ</t>
+  </si>
+  <si>
+    <t>白のソファ</t>
+  </si>
+  <si>
+    <t>黒のソファ</t>
+  </si>
+  <si>
+    <t>緑のソファ</t>
+  </si>
+  <si>
+    <t>黄色のソファ</t>
   </si>
 </sst>
 </file>
@@ -713,10 +1239,10 @@
   <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N195" sqref="N195"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -738,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -783,6 +1309,9 @@
       </c>
       <c r="B2">
         <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
       </c>
       <c r="D2">
         <v>101</v>
@@ -802,7 +1331,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
       </c>
       <c r="D3">
         <v>102</v>
@@ -822,7 +1354,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>102</v>
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
       </c>
       <c r="D4">
         <v>103</v>
@@ -848,7 +1383,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>103</v>
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
       </c>
       <c r="D5">
         <v>104</v>
@@ -874,7 +1412,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>104</v>
+        <v>300</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
       </c>
       <c r="D6">
         <v>105</v>
@@ -900,7 +1441,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>105</v>
+        <v>301</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
       </c>
       <c r="D7">
         <v>106</v>
@@ -932,7 +1476,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
       </c>
       <c r="D8">
         <v>107</v>
@@ -964,7 +1511,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>107</v>
+        <v>250</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
       </c>
       <c r="D9">
         <v>108</v>
@@ -984,7 +1534,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>108</v>
+        <v>420</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
       </c>
       <c r="D10">
         <v>109</v>
@@ -1010,7 +1563,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>109</v>
+        <v>440</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
       </c>
       <c r="D11">
         <v>110</v>
@@ -1036,7 +1592,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>460</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
       </c>
       <c r="D12">
         <v>111</v>
@@ -1062,7 +1621,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>111</v>
+        <v>500</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
       </c>
       <c r="D13">
         <v>112</v>
@@ -1084,6 +1646,9 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -1116,6 +1681,9 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
       <c r="D15">
         <v>2</v>
       </c>
@@ -1148,6 +1716,9 @@
       <c r="B16">
         <v>5007</v>
       </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
       <c r="D16">
         <v>1008</v>
       </c>
@@ -1180,6 +1751,9 @@
       <c r="B17">
         <v>5008</v>
       </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
       <c r="D17">
         <v>1009</v>
       </c>
@@ -1206,6 +1780,9 @@
       <c r="B18">
         <v>5009</v>
       </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
       <c r="D18">
         <v>1010</v>
       </c>
@@ -1238,6 +1815,9 @@
       <c r="B19">
         <v>5010</v>
       </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
       <c r="D19">
         <v>1011</v>
       </c>
@@ -1268,7 +1848,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>251</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
       </c>
       <c r="D20">
         <v>113</v>
@@ -1288,7 +1871,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>600</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
       </c>
       <c r="D21">
         <v>114</v>
@@ -1314,7 +1900,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>601</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
       </c>
       <c r="D22">
         <v>115</v>
@@ -1346,7 +1935,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>602</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
       </c>
       <c r="D23">
         <v>116</v>
@@ -1378,7 +1970,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>116</v>
+        <v>400</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
       </c>
       <c r="D24">
         <v>117</v>
@@ -1406,6 +2001,9 @@
       <c r="B25">
         <v>1000</v>
       </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
       <c r="D25">
         <v>3</v>
       </c>
@@ -1432,6 +2030,9 @@
       <c r="B26">
         <v>1001</v>
       </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
       <c r="D26">
         <v>4</v>
       </c>
@@ -1458,6 +2059,9 @@
       <c r="B27">
         <v>1002</v>
       </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
       <c r="D27">
         <v>5</v>
       </c>
@@ -1476,7 +2080,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>506</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
       </c>
       <c r="D28">
         <v>128</v>
@@ -1496,7 +2103,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>507</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
       </c>
       <c r="D29">
         <v>129</v>
@@ -1518,6 +2128,9 @@
       <c r="B30">
         <v>1021</v>
       </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
       <c r="D30">
         <v>3003</v>
       </c>
@@ -1541,6 +2154,9 @@
       <c r="B31">
         <v>20000</v>
       </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
       <c r="D31">
         <v>10001</v>
       </c>
@@ -1567,6 +2183,9 @@
       <c r="B32">
         <v>20001</v>
       </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
       <c r="D32">
         <v>10002</v>
       </c>
@@ -1593,6 +2212,9 @@
       <c r="B33">
         <v>20002</v>
       </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
       <c r="D33">
         <v>10003</v>
       </c>
@@ -1619,6 +2241,9 @@
       <c r="B34">
         <v>1006</v>
       </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
       <c r="D34">
         <v>200</v>
       </c>
@@ -1645,6 +2270,9 @@
       <c r="B35">
         <v>1007</v>
       </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
       <c r="D35">
         <v>201</v>
       </c>
@@ -1671,6 +2299,9 @@
       <c r="B36">
         <v>1008</v>
       </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
       <c r="D36">
         <v>202</v>
       </c>
@@ -1697,6 +2328,9 @@
       <c r="B37">
         <v>1009</v>
       </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
       <c r="D37">
         <v>203</v>
       </c>
@@ -1723,6 +2357,9 @@
       <c r="B38">
         <v>1010</v>
       </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
       <c r="D38">
         <v>204</v>
       </c>
@@ -1749,6 +2386,9 @@
       <c r="B39">
         <v>1011</v>
       </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
       <c r="D39">
         <v>205</v>
       </c>
@@ -1775,6 +2415,9 @@
       <c r="B40">
         <v>1012</v>
       </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
       <c r="D40">
         <v>206</v>
       </c>
@@ -1801,6 +2444,9 @@
       <c r="B41">
         <v>1013</v>
       </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
       <c r="D41">
         <v>207</v>
       </c>
@@ -1827,6 +2473,9 @@
       <c r="B42">
         <v>1014</v>
       </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
       <c r="D42">
         <v>208</v>
       </c>
@@ -1853,6 +2502,9 @@
       <c r="B43">
         <v>1015</v>
       </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
       <c r="D43">
         <v>209</v>
       </c>
@@ -1877,7 +2529,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>24</v>
@@ -1900,10 +2552,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2001</v>
+        <v>2101</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <v>279</v>
@@ -1923,10 +2575,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2002</v>
+        <v>2103</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D46">
         <v>280</v>
@@ -1949,7 +2601,7 @@
         <v>1016</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47">
         <v>281</v>
@@ -1972,7 +2624,7 @@
         <v>1017</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48">
         <v>282</v>
@@ -1995,7 +2647,7 @@
         <v>1018</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D49">
         <v>283</v>
@@ -2018,7 +2670,7 @@
         <v>1019</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50">
         <v>284</v>
@@ -2041,7 +2693,7 @@
         <v>1020</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51">
         <v>285</v>
@@ -2061,10 +2713,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52">
         <v>287</v>
@@ -2090,10 +2742,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53">
         <v>288</v>
@@ -2119,10 +2771,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2005</v>
+        <v>2102</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54">
         <v>289</v>
@@ -2142,10 +2794,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <v>290</v>
@@ -2171,10 +2823,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56">
         <v>291</v>
@@ -2200,10 +2852,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2008</v>
+        <v>2104</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D57">
         <v>292</v>
@@ -2223,10 +2875,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58">
         <v>293</v>
@@ -2252,10 +2904,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D59">
         <v>230</v>
@@ -2281,10 +2933,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D60">
         <v>231</v>
@@ -2310,10 +2962,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D61">
         <v>232</v>
@@ -2339,10 +2991,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D62">
         <v>233</v>
@@ -2368,10 +3020,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D63">
         <v>234</v>
@@ -2391,10 +3043,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D64">
         <v>235</v>
@@ -2414,10 +3066,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D65">
         <v>236</v>
@@ -2437,10 +3089,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D66">
         <v>237</v>
@@ -2466,10 +3118,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D67">
         <v>238</v>
@@ -2495,10 +3147,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>139</v>
+        <v>900</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D68">
         <v>239</v>
@@ -2524,7 +3176,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>141</v>
+        <v>901</v>
+      </c>
+      <c r="C69" t="s">
+        <v>92</v>
       </c>
       <c r="D69">
         <v>389</v>
@@ -2547,7 +3202,7 @@
         <v>1028</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D70">
         <v>5000</v>
@@ -2573,7 +3228,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2010</v>
+        <v>2005</v>
+      </c>
+      <c r="C71" t="s">
+        <v>94</v>
       </c>
       <c r="D71">
         <v>294</v>
@@ -2599,7 +3257,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2011</v>
+        <v>2006</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
       </c>
       <c r="D72">
         <v>295</v>
@@ -2625,7 +3286,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2012</v>
+        <v>2007</v>
+      </c>
+      <c r="C73" t="s">
+        <v>96</v>
       </c>
       <c r="D73">
         <v>296</v>
@@ -2651,7 +3315,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2013</v>
+        <v>2008</v>
+      </c>
+      <c r="C74" t="s">
+        <v>97</v>
       </c>
       <c r="D74">
         <v>297</v>
@@ -2677,7 +3344,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2014</v>
+        <v>2009</v>
+      </c>
+      <c r="C75" t="s">
+        <v>98</v>
       </c>
       <c r="D75">
         <v>298</v>
@@ -2703,7 +3373,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2015</v>
+        <v>2010</v>
+      </c>
+      <c r="C76" t="s">
+        <v>99</v>
       </c>
       <c r="D76">
         <v>299</v>
@@ -2729,7 +3402,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2016</v>
+        <v>2011</v>
+      </c>
+      <c r="C77" t="s">
+        <v>100</v>
       </c>
       <c r="D77">
         <v>300</v>
@@ -2755,7 +3431,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2017</v>
+        <v>2012</v>
+      </c>
+      <c r="C78" t="s">
+        <v>101</v>
       </c>
       <c r="D78">
         <v>301</v>
@@ -2781,7 +3460,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2018</v>
+        <v>2013</v>
+      </c>
+      <c r="C79" t="s">
+        <v>102</v>
       </c>
       <c r="D79">
         <v>302</v>
@@ -2807,7 +3489,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2019</v>
+        <v>2014</v>
+      </c>
+      <c r="C80" t="s">
+        <v>103</v>
       </c>
       <c r="D80">
         <v>303</v>
@@ -2833,7 +3518,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2020</v>
+        <v>2015</v>
+      </c>
+      <c r="C81" t="s">
+        <v>104</v>
       </c>
       <c r="D81">
         <v>304</v>
@@ -2865,7 +3553,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2021</v>
+        <v>2016</v>
+      </c>
+      <c r="C82" t="s">
+        <v>105</v>
       </c>
       <c r="D82">
         <v>305</v>
@@ -2897,7 +3588,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2022</v>
+        <v>2017</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
       </c>
       <c r="D83">
         <v>306</v>
@@ -2929,7 +3623,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2023</v>
+        <v>2018</v>
+      </c>
+      <c r="C84" t="s">
+        <v>107</v>
       </c>
       <c r="D84">
         <v>307</v>
@@ -2961,7 +3658,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2024</v>
+        <v>2019</v>
+      </c>
+      <c r="C85" t="s">
+        <v>108</v>
       </c>
       <c r="D85">
         <v>308</v>
@@ -2993,7 +3693,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2025</v>
+        <v>2020</v>
+      </c>
+      <c r="C86" t="s">
+        <v>109</v>
       </c>
       <c r="D86">
         <v>309</v>
@@ -3019,7 +3722,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2026</v>
+        <v>2021</v>
+      </c>
+      <c r="C87" t="s">
+        <v>110</v>
       </c>
       <c r="D87">
         <v>310</v>
@@ -3045,7 +3751,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2027</v>
+        <v>2022</v>
+      </c>
+      <c r="C88" t="s">
+        <v>111</v>
       </c>
       <c r="D88">
         <v>311</v>
@@ -3071,7 +3780,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2028</v>
+        <v>2023</v>
+      </c>
+      <c r="C89" t="s">
+        <v>112</v>
       </c>
       <c r="D89">
         <v>312</v>
@@ -3097,7 +3809,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2029</v>
+        <v>2024</v>
+      </c>
+      <c r="C90" t="s">
+        <v>113</v>
       </c>
       <c r="D90">
         <v>313</v>
@@ -3123,7 +3838,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2030</v>
+        <v>2025</v>
+      </c>
+      <c r="C91" t="s">
+        <v>114</v>
       </c>
       <c r="D91">
         <v>314</v>
@@ -3149,7 +3867,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2031</v>
+        <v>2026</v>
+      </c>
+      <c r="C92" t="s">
+        <v>115</v>
       </c>
       <c r="D92">
         <v>315</v>
@@ -3175,7 +3896,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2032</v>
+        <v>2027</v>
+      </c>
+      <c r="C93" t="s">
+        <v>116</v>
       </c>
       <c r="D93">
         <v>316</v>
@@ -3201,7 +3925,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2033</v>
+        <v>2028</v>
+      </c>
+      <c r="C94" t="s">
+        <v>117</v>
       </c>
       <c r="D94">
         <v>317</v>
@@ -3227,7 +3954,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2034</v>
+        <v>2029</v>
+      </c>
+      <c r="C95" t="s">
+        <v>118</v>
       </c>
       <c r="D95">
         <v>318</v>
@@ -3253,7 +3983,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2035</v>
+        <v>2030</v>
+      </c>
+      <c r="C96" t="s">
+        <v>119</v>
       </c>
       <c r="D96">
         <v>319</v>
@@ -3279,7 +4012,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2036</v>
+        <v>2031</v>
+      </c>
+      <c r="C97" t="s">
+        <v>120</v>
       </c>
       <c r="D97">
         <v>320</v>
@@ -3305,7 +4041,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2037</v>
+        <v>2032</v>
+      </c>
+      <c r="C98" t="s">
+        <v>121</v>
       </c>
       <c r="D98">
         <v>321</v>
@@ -3331,7 +4070,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2038</v>
+        <v>2033</v>
+      </c>
+      <c r="C99" t="s">
+        <v>122</v>
       </c>
       <c r="D99">
         <v>322</v>
@@ -3357,7 +4099,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2039</v>
+        <v>2034</v>
+      </c>
+      <c r="C100" t="s">
+        <v>123</v>
       </c>
       <c r="D100">
         <v>323</v>
@@ -3383,7 +4128,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2040</v>
+        <v>2035</v>
+      </c>
+      <c r="C101" t="s">
+        <v>124</v>
       </c>
       <c r="D101">
         <v>324</v>
@@ -3409,7 +4157,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>2041</v>
+        <v>2036</v>
+      </c>
+      <c r="C102" t="s">
+        <v>125</v>
       </c>
       <c r="D102">
         <v>325</v>
@@ -3435,7 +4186,10 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2042</v>
+        <v>2037</v>
+      </c>
+      <c r="C103" t="s">
+        <v>126</v>
       </c>
       <c r="D103">
         <v>326</v>
@@ -3461,7 +4215,10 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2043</v>
+        <v>2038</v>
+      </c>
+      <c r="C104" t="s">
+        <v>127</v>
       </c>
       <c r="D104">
         <v>327</v>
@@ -3487,7 +4244,10 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>2044</v>
+        <v>2039</v>
+      </c>
+      <c r="C105" t="s">
+        <v>128</v>
       </c>
       <c r="D105">
         <v>328</v>
@@ -3513,7 +4273,10 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2045</v>
+        <v>2040</v>
+      </c>
+      <c r="C106" t="s">
+        <v>129</v>
       </c>
       <c r="D106">
         <v>329</v>
@@ -3539,7 +4302,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>2046</v>
+        <v>2041</v>
+      </c>
+      <c r="C107" t="s">
+        <v>130</v>
       </c>
       <c r="D107">
         <v>330</v>
@@ -3565,7 +4331,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>2047</v>
+        <v>2042</v>
+      </c>
+      <c r="C108" t="s">
+        <v>131</v>
       </c>
       <c r="D108">
         <v>331</v>
@@ -3591,7 +4360,10 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>2048</v>
+        <v>2043</v>
+      </c>
+      <c r="C109" t="s">
+        <v>132</v>
       </c>
       <c r="D109">
         <v>332</v>
@@ -3617,7 +4389,10 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2049</v>
+        <v>2044</v>
+      </c>
+      <c r="C110" t="s">
+        <v>133</v>
       </c>
       <c r="D110">
         <v>333</v>
@@ -3643,7 +4418,10 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>2050</v>
+        <v>2045</v>
+      </c>
+      <c r="C111" t="s">
+        <v>134</v>
       </c>
       <c r="D111">
         <v>334</v>
@@ -3669,7 +4447,10 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>2051</v>
+        <v>2046</v>
+      </c>
+      <c r="C112" t="s">
+        <v>135</v>
       </c>
       <c r="D112">
         <v>335</v>
@@ -3695,7 +4476,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2052</v>
+        <v>2047</v>
+      </c>
+      <c r="C113" t="s">
+        <v>136</v>
       </c>
       <c r="D113">
         <v>336</v>
@@ -3721,7 +4505,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2053</v>
+        <v>2048</v>
+      </c>
+      <c r="C114" t="s">
+        <v>137</v>
       </c>
       <c r="D114">
         <v>337</v>
@@ -3747,7 +4534,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2054</v>
+        <v>2049</v>
+      </c>
+      <c r="C115" t="s">
+        <v>138</v>
       </c>
       <c r="D115">
         <v>338</v>
@@ -3773,7 +4563,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2055</v>
+        <v>2050</v>
+      </c>
+      <c r="C116" t="s">
+        <v>139</v>
       </c>
       <c r="D116">
         <v>339</v>
@@ -3799,7 +4592,10 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>2056</v>
+        <v>2051</v>
+      </c>
+      <c r="C117" t="s">
+        <v>140</v>
       </c>
       <c r="D117">
         <v>340</v>
@@ -3825,7 +4621,10 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2057</v>
+        <v>2052</v>
+      </c>
+      <c r="C118" t="s">
+        <v>141</v>
       </c>
       <c r="D118">
         <v>341</v>
@@ -3851,7 +4650,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>2058</v>
+        <v>2053</v>
+      </c>
+      <c r="C119" t="s">
+        <v>142</v>
       </c>
       <c r="D119">
         <v>342</v>
@@ -3877,7 +4679,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>2059</v>
+        <v>2054</v>
+      </c>
+      <c r="C120" t="s">
+        <v>143</v>
       </c>
       <c r="D120">
         <v>343</v>
@@ -3903,7 +4708,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>2060</v>
+        <v>2055</v>
+      </c>
+      <c r="C121" t="s">
+        <v>144</v>
       </c>
       <c r="D121">
         <v>344</v>
@@ -3929,7 +4737,10 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2061</v>
+        <v>2056</v>
+      </c>
+      <c r="C122" t="s">
+        <v>145</v>
       </c>
       <c r="D122">
         <v>345</v>
@@ -3955,7 +4766,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2062</v>
+        <v>2057</v>
+      </c>
+      <c r="C123" t="s">
+        <v>146</v>
       </c>
       <c r="D123">
         <v>346</v>
@@ -3981,7 +4795,10 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2063</v>
+        <v>2058</v>
+      </c>
+      <c r="C124" t="s">
+        <v>147</v>
       </c>
       <c r="D124">
         <v>347</v>
@@ -4007,7 +4824,10 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>2064</v>
+        <v>2059</v>
+      </c>
+      <c r="C125" t="s">
+        <v>148</v>
       </c>
       <c r="D125">
         <v>348</v>
@@ -4033,7 +4853,10 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2065</v>
+        <v>2060</v>
+      </c>
+      <c r="C126" t="s">
+        <v>149</v>
       </c>
       <c r="D126">
         <v>349</v>
@@ -4059,7 +4882,10 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2066</v>
+        <v>2061</v>
+      </c>
+      <c r="C127" t="s">
+        <v>150</v>
       </c>
       <c r="D127">
         <v>350</v>
@@ -4085,7 +4911,10 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2067</v>
+        <v>2062</v>
+      </c>
+      <c r="C128" t="s">
+        <v>151</v>
       </c>
       <c r="D128">
         <v>351</v>
@@ -4111,7 +4940,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2068</v>
+        <v>2063</v>
+      </c>
+      <c r="C129" t="s">
+        <v>152</v>
       </c>
       <c r="D129">
         <v>352</v>
@@ -4137,7 +4969,10 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2069</v>
+        <v>2064</v>
+      </c>
+      <c r="C130" t="s">
+        <v>153</v>
       </c>
       <c r="D130">
         <v>353</v>
@@ -4163,7 +4998,10 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2070</v>
+        <v>2065</v>
+      </c>
+      <c r="C131" t="s">
+        <v>154</v>
       </c>
       <c r="D131">
         <v>354</v>
@@ -4195,7 +5033,10 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2071</v>
+        <v>2066</v>
+      </c>
+      <c r="C132" t="s">
+        <v>155</v>
       </c>
       <c r="D132">
         <v>355</v>
@@ -4227,7 +5068,10 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>2072</v>
+        <v>2067</v>
+      </c>
+      <c r="C133" t="s">
+        <v>156</v>
       </c>
       <c r="D133">
         <v>356</v>
@@ -4259,7 +5103,10 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2073</v>
+        <v>2068</v>
+      </c>
+      <c r="C134" t="s">
+        <v>157</v>
       </c>
       <c r="D134">
         <v>357</v>
@@ -4291,7 +5138,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2074</v>
+        <v>2069</v>
+      </c>
+      <c r="C135" t="s">
+        <v>158</v>
       </c>
       <c r="D135">
         <v>358</v>
@@ -4323,7 +5173,10 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2075</v>
+        <v>2070</v>
+      </c>
+      <c r="C136" t="s">
+        <v>159</v>
       </c>
       <c r="D136">
         <v>359</v>
@@ -4349,7 +5202,10 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2076</v>
+        <v>2071</v>
+      </c>
+      <c r="C137" t="s">
+        <v>160</v>
       </c>
       <c r="D137">
         <v>360</v>
@@ -4375,7 +5231,10 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2077</v>
+        <v>2072</v>
+      </c>
+      <c r="C138" t="s">
+        <v>161</v>
       </c>
       <c r="D138">
         <v>361</v>
@@ -4401,7 +5260,10 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2078</v>
+        <v>2073</v>
+      </c>
+      <c r="C139" t="s">
+        <v>162</v>
       </c>
       <c r="D139">
         <v>362</v>
@@ -4427,7 +5289,10 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2079</v>
+        <v>2074</v>
+      </c>
+      <c r="C140" t="s">
+        <v>163</v>
       </c>
       <c r="D140">
         <v>363</v>
@@ -4453,7 +5318,10 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2080</v>
+        <v>2075</v>
+      </c>
+      <c r="C141" t="s">
+        <v>164</v>
       </c>
       <c r="D141">
         <v>364</v>
@@ -4479,7 +5347,10 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2081</v>
+        <v>2076</v>
+      </c>
+      <c r="C142" t="s">
+        <v>165</v>
       </c>
       <c r="D142">
         <v>365</v>
@@ -4505,7 +5376,10 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2082</v>
+        <v>2077</v>
+      </c>
+      <c r="C143" t="s">
+        <v>166</v>
       </c>
       <c r="D143">
         <v>366</v>
@@ -4531,7 +5405,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>2083</v>
+        <v>2078</v>
+      </c>
+      <c r="C144" t="s">
+        <v>167</v>
       </c>
       <c r="D144">
         <v>367</v>
@@ -4557,7 +5434,10 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2084</v>
+        <v>2079</v>
+      </c>
+      <c r="C145" t="s">
+        <v>168</v>
       </c>
       <c r="D145">
         <v>368</v>
@@ -4583,7 +5463,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2085</v>
+        <v>2080</v>
+      </c>
+      <c r="C146" t="s">
+        <v>169</v>
       </c>
       <c r="D146">
         <v>369</v>
@@ -4609,7 +5492,10 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2086</v>
+        <v>2081</v>
+      </c>
+      <c r="C147" t="s">
+        <v>170</v>
       </c>
       <c r="D147">
         <v>370</v>
@@ -4635,7 +5521,10 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2087</v>
+        <v>2082</v>
+      </c>
+      <c r="C148" t="s">
+        <v>171</v>
       </c>
       <c r="D148">
         <v>371</v>
@@ -4661,7 +5550,10 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2088</v>
+        <v>2083</v>
+      </c>
+      <c r="C149" t="s">
+        <v>172</v>
       </c>
       <c r="D149">
         <v>372</v>
@@ -4687,7 +5579,10 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2089</v>
+        <v>2084</v>
+      </c>
+      <c r="C150" t="s">
+        <v>173</v>
       </c>
       <c r="D150">
         <v>373</v>
@@ -4713,7 +5608,10 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2090</v>
+        <v>2085</v>
+      </c>
+      <c r="C151" t="s">
+        <v>174</v>
       </c>
       <c r="D151">
         <v>374</v>
@@ -4739,7 +5637,10 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2091</v>
+        <v>2086</v>
+      </c>
+      <c r="C152" t="s">
+        <v>175</v>
       </c>
       <c r="D152">
         <v>375</v>
@@ -4765,7 +5666,10 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2092</v>
+        <v>2087</v>
+      </c>
+      <c r="C153" t="s">
+        <v>176</v>
       </c>
       <c r="D153">
         <v>376</v>
@@ -4791,7 +5695,10 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2093</v>
+        <v>2088</v>
+      </c>
+      <c r="C154" t="s">
+        <v>177</v>
       </c>
       <c r="D154">
         <v>377</v>
@@ -4817,7 +5724,10 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>2094</v>
+        <v>2089</v>
+      </c>
+      <c r="C155" t="s">
+        <v>178</v>
       </c>
       <c r="D155">
         <v>378</v>
@@ -4843,7 +5753,10 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>2095</v>
+        <v>2090</v>
+      </c>
+      <c r="C156" t="s">
+        <v>179</v>
       </c>
       <c r="D156">
         <v>379</v>
@@ -4869,7 +5782,10 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2096</v>
+        <v>2091</v>
+      </c>
+      <c r="C157" t="s">
+        <v>180</v>
       </c>
       <c r="D157">
         <v>380</v>
@@ -4895,7 +5811,10 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>2097</v>
+        <v>2092</v>
+      </c>
+      <c r="C158" t="s">
+        <v>181</v>
       </c>
       <c r="D158">
         <v>381</v>
@@ -4921,7 +5840,10 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2098</v>
+        <v>2093</v>
+      </c>
+      <c r="C159" t="s">
+        <v>182</v>
       </c>
       <c r="D159">
         <v>382</v>
@@ -4947,7 +5869,10 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2099</v>
+        <v>2094</v>
+      </c>
+      <c r="C160" t="s">
+        <v>183</v>
       </c>
       <c r="D160">
         <v>383</v>
@@ -4973,7 +5898,10 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2100</v>
+        <v>2095</v>
+      </c>
+      <c r="C161" t="s">
+        <v>184</v>
       </c>
       <c r="D161">
         <v>384</v>
@@ -4999,7 +5927,10 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>2101</v>
+        <v>2096</v>
+      </c>
+      <c r="C162" t="s">
+        <v>185</v>
       </c>
       <c r="D162">
         <v>385</v>
@@ -5025,7 +5956,10 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>2102</v>
+        <v>2097</v>
+      </c>
+      <c r="C163" t="s">
+        <v>186</v>
       </c>
       <c r="D163">
         <v>386</v>
@@ -5051,7 +5985,10 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2103</v>
+        <v>2098</v>
+      </c>
+      <c r="C164" t="s">
+        <v>187</v>
       </c>
       <c r="D164">
         <v>387</v>
@@ -5077,7 +6014,10 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2104</v>
+        <v>2099</v>
+      </c>
+      <c r="C165" t="s">
+        <v>188</v>
       </c>
       <c r="D165">
         <v>388</v>
@@ -5105,6 +6045,9 @@
       <c r="B166">
         <v>1022</v>
       </c>
+      <c r="C166" t="s">
+        <v>189</v>
+      </c>
       <c r="D166">
         <v>4001</v>
       </c>
@@ -5131,6 +6074,9 @@
       <c r="B167">
         <v>1023</v>
       </c>
+      <c r="C167" t="s">
+        <v>190</v>
+      </c>
       <c r="D167">
         <v>4002</v>
       </c>
@@ -5157,6 +6103,9 @@
       <c r="B168">
         <v>1024</v>
       </c>
+      <c r="C168" t="s">
+        <v>191</v>
+      </c>
       <c r="D168">
         <v>4003</v>
       </c>
@@ -5183,6 +6132,9 @@
       <c r="B169">
         <v>1025</v>
       </c>
+      <c r="C169" t="s">
+        <v>192</v>
+      </c>
       <c r="D169">
         <v>4004</v>
       </c>
@@ -5209,6 +6161,9 @@
       <c r="B170">
         <v>1026</v>
       </c>
+      <c r="C170" t="s">
+        <v>193</v>
+      </c>
       <c r="D170">
         <v>4005</v>
       </c>
@@ -5235,6 +6190,9 @@
       <c r="B171">
         <v>1027</v>
       </c>
+      <c r="C171" t="s">
+        <v>194</v>
+      </c>
       <c r="D171">
         <v>4006</v>
       </c>
@@ -5261,6 +6219,9 @@
       <c r="B172">
         <v>1003</v>
       </c>
+      <c r="C172" t="s">
+        <v>195</v>
+      </c>
       <c r="D172">
         <v>6</v>
       </c>
@@ -5281,6 +6242,9 @@
       <c r="B173">
         <v>1004</v>
       </c>
+      <c r="C173" t="s">
+        <v>196</v>
+      </c>
       <c r="D173">
         <v>7</v>
       </c>
@@ -5301,6 +6265,9 @@
       <c r="B174">
         <v>1005</v>
       </c>
+      <c r="C174" t="s">
+        <v>197</v>
+      </c>
       <c r="D174">
         <v>8</v>
       </c>
@@ -5319,7 +6286,10 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>117</v>
+        <v>501</v>
+      </c>
+      <c r="C175" t="s">
+        <v>198</v>
       </c>
       <c r="D175">
         <v>123</v>
@@ -5339,7 +6309,10 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>118</v>
+        <v>502</v>
+      </c>
+      <c r="C176" t="s">
+        <v>199</v>
       </c>
       <c r="D176">
         <v>124</v>
@@ -5359,7 +6332,10 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>119</v>
+        <v>503</v>
+      </c>
+      <c r="C177" t="s">
+        <v>200</v>
       </c>
       <c r="D177">
         <v>125</v>
@@ -5379,7 +6355,10 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>120</v>
+        <v>504</v>
+      </c>
+      <c r="C178" t="s">
+        <v>201</v>
       </c>
       <c r="D178">
         <v>126</v>
@@ -5399,7 +6378,10 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>121</v>
+        <v>505</v>
+      </c>
+      <c r="C179" t="s">
+        <v>202</v>
       </c>
       <c r="D179">
         <v>127</v>
@@ -5419,7 +6401,10 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>124</v>
+        <v>700</v>
+      </c>
+      <c r="C180" t="s">
+        <v>203</v>
       </c>
       <c r="D180">
         <v>134</v>
@@ -5439,7 +6424,10 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>125</v>
+        <v>701</v>
+      </c>
+      <c r="C181" t="s">
+        <v>204</v>
       </c>
       <c r="D181">
         <v>135</v>
@@ -5459,7 +6447,10 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>126</v>
+        <v>702</v>
+      </c>
+      <c r="C182" t="s">
+        <v>205</v>
       </c>
       <c r="D182">
         <v>136</v>
@@ -5479,7 +6470,10 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>127</v>
+        <v>703</v>
+      </c>
+      <c r="C183" t="s">
+        <v>206</v>
       </c>
       <c r="D183">
         <v>137</v>
@@ -5499,7 +6493,10 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>128</v>
+        <v>704</v>
+      </c>
+      <c r="C184" t="s">
+        <v>207</v>
       </c>
       <c r="D184">
         <v>138</v>
@@ -5519,7 +6516,10 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>129</v>
+        <v>705</v>
+      </c>
+      <c r="C185" t="s">
+        <v>208</v>
       </c>
       <c r="D185">
         <v>139</v>
@@ -5541,6 +6541,9 @@
       <c r="B186">
         <v>1044</v>
       </c>
+      <c r="C186" t="s">
+        <v>209</v>
+      </c>
       <c r="D186">
         <v>7031</v>
       </c>
@@ -5573,6 +6576,9 @@
       <c r="B187">
         <v>1046</v>
       </c>
+      <c r="C187" t="s">
+        <v>210</v>
+      </c>
       <c r="D187">
         <v>7033</v>
       </c>
@@ -5599,6 +6605,9 @@
       <c r="B188">
         <v>1047</v>
       </c>
+      <c r="C188" t="s">
+        <v>211</v>
+      </c>
       <c r="D188">
         <v>7034</v>
       </c>
@@ -5637,6 +6646,9 @@
       <c r="B189">
         <v>1045</v>
       </c>
+      <c r="C189" t="s">
+        <v>212</v>
+      </c>
       <c r="D189">
         <v>7032</v>
       </c>
@@ -5675,6 +6687,9 @@
       <c r="B190">
         <v>1029</v>
       </c>
+      <c r="C190" t="s">
+        <v>213</v>
+      </c>
       <c r="D190">
         <v>7016</v>
       </c>
@@ -5701,6 +6716,9 @@
       <c r="B191">
         <v>1030</v>
       </c>
+      <c r="C191" t="s">
+        <v>214</v>
+      </c>
       <c r="D191">
         <v>7017</v>
       </c>
@@ -5739,6 +6757,9 @@
       <c r="B192">
         <v>1031</v>
       </c>
+      <c r="C192" t="s">
+        <v>215</v>
+      </c>
       <c r="D192">
         <v>7018</v>
       </c>
@@ -5771,6 +6792,9 @@
       <c r="B193">
         <v>1032</v>
       </c>
+      <c r="C193" t="s">
+        <v>216</v>
+      </c>
       <c r="D193">
         <v>7019</v>
       </c>
@@ -5797,6 +6821,9 @@
       <c r="B194">
         <v>1033</v>
       </c>
+      <c r="C194" t="s">
+        <v>217</v>
+      </c>
       <c r="D194">
         <v>7020</v>
       </c>
@@ -5823,6 +6850,9 @@
       <c r="B195">
         <v>1034</v>
       </c>
+      <c r="C195" t="s">
+        <v>218</v>
+      </c>
       <c r="D195">
         <v>7021</v>
       </c>
@@ -5849,6 +6879,9 @@
       <c r="B196">
         <v>1035</v>
       </c>
+      <c r="C196" t="s">
+        <v>219</v>
+      </c>
       <c r="D196">
         <v>7022</v>
       </c>
@@ -5875,6 +6908,9 @@
       <c r="B197">
         <v>1036</v>
       </c>
+      <c r="C197" t="s">
+        <v>220</v>
+      </c>
       <c r="D197">
         <v>7023</v>
       </c>
@@ -5901,6 +6937,9 @@
       <c r="B198">
         <v>1037</v>
       </c>
+      <c r="C198" t="s">
+        <v>221</v>
+      </c>
       <c r="D198">
         <v>7024</v>
       </c>
@@ -5927,6 +6966,9 @@
       <c r="B199">
         <v>1038</v>
       </c>
+      <c r="C199" t="s">
+        <v>222</v>
+      </c>
       <c r="D199">
         <v>7025</v>
       </c>
@@ -5953,6 +6995,9 @@
       <c r="B200">
         <v>1039</v>
       </c>
+      <c r="C200" t="s">
+        <v>223</v>
+      </c>
       <c r="D200">
         <v>7026</v>
       </c>
@@ -5985,6 +7030,9 @@
       <c r="B201">
         <v>1040</v>
       </c>
+      <c r="C201" t="s">
+        <v>224</v>
+      </c>
       <c r="D201">
         <v>7027</v>
       </c>
@@ -6017,6 +7065,9 @@
       <c r="B202">
         <v>1041</v>
       </c>
+      <c r="C202" t="s">
+        <v>225</v>
+      </c>
       <c r="D202">
         <v>7028</v>
       </c>
@@ -6049,6 +7100,9 @@
       <c r="B203">
         <v>1042</v>
       </c>
+      <c r="C203" t="s">
+        <v>226</v>
+      </c>
       <c r="D203">
         <v>7029</v>
       </c>
@@ -6080,6 +7134,9 @@
       </c>
       <c r="B204">
         <v>1043</v>
+      </c>
+      <c r="C204" t="s">
+        <v>227</v>
       </c>
       <c r="D204">
         <v>7030</v>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ED58EF-0FDC-4D78-B441-BAD9EA2DC7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658DD67F-786F-42C9-91CF-1D30C95169BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="0" windowWidth="17745" windowHeight="15285" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Type" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="230">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -776,6 +776,20 @@
   </si>
   <si>
     <t>黄色のソファ</t>
+  </si>
+  <si>
+    <t>装備</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -880,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,9 +908,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,8 +928,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N204" totalsRowShown="0">
-  <autoFilter ref="A1:N204" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N205" totalsRowShown="0">
+  <autoFilter ref="A1:N205" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -1236,13 +1247,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:N205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:C204"/>
+      <selection pane="bottomRight" activeCell="H198" sqref="H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2161,7 +2172,7 @@
         <v>10001</v>
       </c>
       <c r="E31">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F31">
         <v>1001</v>
@@ -2190,7 +2201,7 @@
         <v>10002</v>
       </c>
       <c r="E32">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F32">
         <v>1001</v>
@@ -2219,7 +2230,7 @@
         <v>10003</v>
       </c>
       <c r="E33">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F33">
         <v>1001</v>
@@ -2239,28 +2250,28 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1006</v>
+        <v>21000</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="D34">
-        <v>200</v>
+        <v>11001</v>
       </c>
       <c r="E34">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F34">
         <v>1001</v>
       </c>
       <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="H34">
+        <v>1002</v>
+      </c>
+      <c r="I34">
         <v>30</v>
-      </c>
-      <c r="H34">
-        <v>1018</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
@@ -2268,13 +2279,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E35">
         <v>1000</v>
@@ -2297,13 +2308,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E36">
         <v>1000</v>
@@ -2326,13 +2337,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E37">
         <v>1000</v>
@@ -2355,13 +2366,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E38">
         <v>1000</v>
@@ -2384,13 +2395,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E39">
         <v>1000</v>
@@ -2413,13 +2424,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E40">
         <v>1000</v>
@@ -2442,13 +2453,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E41">
         <v>1000</v>
@@ -2471,13 +2482,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E42">
         <v>1000</v>
@@ -2500,13 +2511,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E43">
         <v>1000</v>
@@ -2529,13 +2540,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2100</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>24</v>
+        <v>1015</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
       </c>
       <c r="D44">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="E44">
         <v>1000</v>
@@ -2544,6 +2555,12 @@
         <v>1001</v>
       </c>
       <c r="G44">
+        <v>30</v>
+      </c>
+      <c r="H44">
+        <v>1018</v>
+      </c>
+      <c r="I44">
         <v>3</v>
       </c>
     </row>
@@ -2552,13 +2569,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D45">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E45">
         <v>1000</v>
@@ -2575,13 +2592,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D46">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E46">
         <v>1000</v>
@@ -2598,13 +2615,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1016</v>
+        <v>2103</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D47">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E47">
         <v>1000</v>
@@ -2621,13 +2638,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E48">
         <v>1000</v>
@@ -2644,13 +2661,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E49">
         <v>1000</v>
@@ -2667,13 +2684,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D50">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E50">
         <v>1000</v>
@@ -2690,13 +2707,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E51">
         <v>1000</v>
@@ -2713,28 +2730,22 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2000</v>
+        <v>1020</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E52">
         <v>1000</v>
       </c>
       <c r="F52">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G52">
         <v>3</v>
-      </c>
-      <c r="H52">
-        <v>1020</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -2742,13 +2753,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E53">
         <v>1000</v>
@@ -2771,22 +2782,28 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2102</v>
+        <v>2001</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E54">
         <v>1000</v>
       </c>
       <c r="F54">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G54">
         <v>3</v>
+      </c>
+      <c r="H54">
+        <v>1020</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -2794,28 +2811,22 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2002</v>
+        <v>2102</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E55">
         <v>1000</v>
       </c>
       <c r="F55">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G55">
         <v>3</v>
-      </c>
-      <c r="H55">
-        <v>1020</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -2823,13 +2834,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E56">
         <v>1000</v>
@@ -2852,22 +2863,28 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2104</v>
+        <v>2003</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E57">
         <v>1000</v>
       </c>
       <c r="F57">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G57">
         <v>3</v>
+      </c>
+      <c r="H57">
+        <v>1020</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
@@ -2875,28 +2892,22 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2004</v>
+        <v>2104</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D58">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E58">
         <v>1000</v>
       </c>
       <c r="F58">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G58">
         <v>3</v>
-      </c>
-      <c r="H58">
-        <v>1020</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -2904,28 +2915,28 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>102</v>
+        <v>2004</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="E59">
         <v>1000</v>
       </c>
       <c r="F59">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
@@ -2933,13 +2944,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E60">
         <v>1000</v>
@@ -2962,13 +2973,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E61">
         <v>1000</v>
@@ -2991,13 +3002,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D62">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E62">
         <v>1000</v>
@@ -3020,22 +3031,28 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D63">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E63">
         <v>1000</v>
       </c>
       <c r="F63">
-        <v>1001</v>
+        <v>1026</v>
       </c>
       <c r="G63">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>1027</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -3043,22 +3060,22 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D64">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E64">
         <v>1000</v>
       </c>
       <c r="F64">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
@@ -3066,13 +3083,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E65">
         <v>1000</v>
@@ -3081,7 +3098,7 @@
         <v>1003</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
@@ -3089,28 +3106,22 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D66">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E66">
         <v>1000</v>
       </c>
       <c r="F66">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="H66">
-        <v>1027</v>
-      </c>
-      <c r="I66">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -3118,13 +3129,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D67">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E67">
         <v>1000</v>
@@ -3147,13 +3158,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>900</v>
+        <v>107</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D68">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E68">
         <v>1000</v>
@@ -3176,22 +3187,28 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>901</v>
-      </c>
-      <c r="C69" t="s">
-        <v>92</v>
+        <v>900</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D69">
-        <v>389</v>
+        <v>239</v>
       </c>
       <c r="E69">
         <v>1000</v>
       </c>
       <c r="F69">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>1027</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -3199,28 +3216,22 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1028</v>
+        <v>901</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D70">
-        <v>5000</v>
+        <v>389</v>
       </c>
       <c r="E70">
         <v>1000</v>
       </c>
       <c r="F70">
-        <v>1001</v>
+        <v>1035</v>
       </c>
       <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>1009</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
@@ -3228,25 +3239,25 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2005</v>
+        <v>1028</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D71">
-        <v>294</v>
+        <v>5000</v>
       </c>
       <c r="E71">
         <v>1000</v>
       </c>
       <c r="F71">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -3257,13 +3268,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D72">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E72">
         <v>1000</v>
@@ -3286,13 +3297,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D73">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E73">
         <v>1000</v>
@@ -3315,13 +3326,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D74">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E74">
         <v>1000</v>
@@ -3344,13 +3355,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D75">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E75">
         <v>1000</v>
@@ -3373,13 +3384,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D76">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E76">
         <v>1000</v>
@@ -3391,7 +3402,7 @@
         <v>3</v>
       </c>
       <c r="H76">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -3402,13 +3413,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D77">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E77">
         <v>1000</v>
@@ -3431,13 +3442,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D78">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E78">
         <v>1000</v>
@@ -3460,13 +3471,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D79">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E79">
         <v>1000</v>
@@ -3489,13 +3500,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D80">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E80">
         <v>1000</v>
@@ -3518,13 +3529,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D81">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E81">
         <v>1000</v>
@@ -3536,15 +3547,9 @@
         <v>3</v>
       </c>
       <c r="H81">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <v>1027</v>
-      </c>
-      <c r="K81">
         <v>1</v>
       </c>
     </row>
@@ -3553,13 +3558,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E82">
         <v>1000</v>
@@ -3588,13 +3593,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D83">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E83">
         <v>1000</v>
@@ -3623,13 +3628,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D84">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E84">
         <v>1000</v>
@@ -3658,13 +3663,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D85">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E85">
         <v>1000</v>
@@ -3693,13 +3698,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D86">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E86">
         <v>1000</v>
@@ -3711,9 +3716,15 @@
         <v>3</v>
       </c>
       <c r="H86">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1027</v>
+      </c>
+      <c r="K86">
         <v>1</v>
       </c>
     </row>
@@ -3722,13 +3733,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D87">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E87">
         <v>1000</v>
@@ -3751,13 +3762,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D88">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E88">
         <v>1000</v>
@@ -3780,13 +3791,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D89">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E89">
         <v>1000</v>
@@ -3809,13 +3820,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D90">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E90">
         <v>1000</v>
@@ -3838,13 +3849,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D91">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E91">
         <v>1000</v>
@@ -3856,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="H91">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3867,13 +3878,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D92">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E92">
         <v>1000</v>
@@ -3896,13 +3907,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D93">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E93">
         <v>1000</v>
@@ -3925,13 +3936,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D94">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E94">
         <v>1000</v>
@@ -3954,13 +3965,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D95">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E95">
         <v>1000</v>
@@ -3983,13 +3994,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D96">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E96">
         <v>1000</v>
@@ -4001,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="H96">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -4012,13 +4023,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D97">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E97">
         <v>1000</v>
@@ -4041,13 +4052,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D98">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E98">
         <v>1000</v>
@@ -4070,13 +4081,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D99">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E99">
         <v>1000</v>
@@ -4099,13 +4110,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D100">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E100">
         <v>1000</v>
@@ -4128,13 +4139,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D101">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E101">
         <v>1000</v>
@@ -4146,7 +4157,7 @@
         <v>3</v>
       </c>
       <c r="H101">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -4157,13 +4168,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D102">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E102">
         <v>1000</v>
@@ -4186,13 +4197,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C103" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D103">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E103">
         <v>1000</v>
@@ -4215,13 +4226,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D104">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E104">
         <v>1000</v>
@@ -4244,13 +4255,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C105" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D105">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E105">
         <v>1000</v>
@@ -4273,13 +4284,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D106">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E106">
         <v>1000</v>
@@ -4291,7 +4302,7 @@
         <v>3</v>
       </c>
       <c r="H106">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -4302,13 +4313,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D107">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E107">
         <v>1000</v>
@@ -4331,13 +4342,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D108">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E108">
         <v>1000</v>
@@ -4360,13 +4371,13 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D109">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E109">
         <v>1000</v>
@@ -4389,13 +4400,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D110">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E110">
         <v>1000</v>
@@ -4418,13 +4429,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D111">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E111">
         <v>1000</v>
@@ -4436,7 +4447,7 @@
         <v>3</v>
       </c>
       <c r="H111">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -4447,13 +4458,13 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D112">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E112">
         <v>1000</v>
@@ -4476,13 +4487,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D113">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E113">
         <v>1000</v>
@@ -4505,13 +4516,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D114">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E114">
         <v>1000</v>
@@ -4534,13 +4545,13 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C115" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D115">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E115">
         <v>1000</v>
@@ -4563,13 +4574,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D116">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E116">
         <v>1000</v>
@@ -4581,10 +4592,10 @@
         <v>3</v>
       </c>
       <c r="H116">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.4">
@@ -4592,13 +4603,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C117" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D117">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E117">
         <v>1000</v>
@@ -4621,13 +4632,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D118">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E118">
         <v>1000</v>
@@ -4650,13 +4661,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C119" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D119">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E119">
         <v>1000</v>
@@ -4679,13 +4690,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C120" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D120">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E120">
         <v>1000</v>
@@ -4708,13 +4719,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D121">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E121">
         <v>1000</v>
@@ -4726,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="H121">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I121">
         <v>2</v>
@@ -4737,13 +4748,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C122" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D122">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E122">
         <v>1000</v>
@@ -4766,13 +4777,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C123" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D123">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E123">
         <v>1000</v>
@@ -4795,13 +4806,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C124" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D124">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E124">
         <v>1000</v>
@@ -4824,13 +4835,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C125" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D125">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E125">
         <v>1000</v>
@@ -4853,13 +4864,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C126" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D126">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E126">
         <v>1000</v>
@@ -4871,7 +4882,7 @@
         <v>3</v>
       </c>
       <c r="H126">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -4882,13 +4893,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D127">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E127">
         <v>1000</v>
@@ -4911,13 +4922,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C128" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D128">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E128">
         <v>1000</v>
@@ -4940,13 +4951,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D129">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E129">
         <v>1000</v>
@@ -4969,13 +4980,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D130">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E130">
         <v>1000</v>
@@ -4998,13 +5009,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C131" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D131">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E131">
         <v>1000</v>
@@ -5016,15 +5027,9 @@
         <v>3</v>
       </c>
       <c r="H131">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="I131">
-        <v>2</v>
-      </c>
-      <c r="J131">
-        <v>1027</v>
-      </c>
-      <c r="K131">
         <v>2</v>
       </c>
     </row>
@@ -5033,13 +5038,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D132">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E132">
         <v>1000</v>
@@ -5068,13 +5073,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D133">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E133">
         <v>1000</v>
@@ -5103,13 +5108,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C134" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D134">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E134">
         <v>1000</v>
@@ -5138,13 +5143,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D135">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E135">
         <v>1000</v>
@@ -5173,13 +5178,13 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D136">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E136">
         <v>1000</v>
@@ -5191,9 +5196,15 @@
         <v>3</v>
       </c>
       <c r="H136">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>1027</v>
+      </c>
+      <c r="K136">
         <v>2</v>
       </c>
     </row>
@@ -5202,13 +5213,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D137">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E137">
         <v>1000</v>
@@ -5231,13 +5242,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C138" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D138">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E138">
         <v>1000</v>
@@ -5260,13 +5271,13 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D139">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E139">
         <v>1000</v>
@@ -5289,13 +5300,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D140">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E140">
         <v>1000</v>
@@ -5318,13 +5329,13 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D141">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E141">
         <v>1000</v>
@@ -5336,7 +5347,7 @@
         <v>3</v>
       </c>
       <c r="H141">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="I141">
         <v>2</v>
@@ -5347,13 +5358,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D142">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E142">
         <v>1000</v>
@@ -5376,13 +5387,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D143">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E143">
         <v>1000</v>
@@ -5405,13 +5416,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D144">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E144">
         <v>1000</v>
@@ -5434,13 +5445,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D145">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E145">
         <v>1000</v>
@@ -5463,13 +5474,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C146" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D146">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E146">
         <v>1000</v>
@@ -5481,7 +5492,7 @@
         <v>3</v>
       </c>
       <c r="H146">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -5492,13 +5503,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C147" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D147">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E147">
         <v>1000</v>
@@ -5521,13 +5532,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D148">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E148">
         <v>1000</v>
@@ -5550,13 +5561,13 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C149" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D149">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E149">
         <v>1000</v>
@@ -5579,13 +5590,13 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C150" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D150">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E150">
         <v>1000</v>
@@ -5608,13 +5619,13 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C151" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D151">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E151">
         <v>1000</v>
@@ -5626,7 +5637,7 @@
         <v>3</v>
       </c>
       <c r="H151">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="I151">
         <v>2</v>
@@ -5637,13 +5648,13 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D152">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E152">
         <v>1000</v>
@@ -5666,13 +5677,13 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C153" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D153">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E153">
         <v>1000</v>
@@ -5695,13 +5706,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C154" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D154">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E154">
         <v>1000</v>
@@ -5724,13 +5735,13 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C155" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D155">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E155">
         <v>1000</v>
@@ -5753,13 +5764,13 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C156" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D156">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E156">
         <v>1000</v>
@@ -5771,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="H156">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -5782,13 +5793,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C157" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D157">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E157">
         <v>1000</v>
@@ -5811,13 +5822,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C158" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D158">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E158">
         <v>1000</v>
@@ -5840,13 +5851,13 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D159">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E159">
         <v>1000</v>
@@ -5869,13 +5880,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C160" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D160">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E160">
         <v>1000</v>
@@ -5898,13 +5909,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C161" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D161">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E161">
         <v>1000</v>
@@ -5916,7 +5927,7 @@
         <v>3</v>
       </c>
       <c r="H161">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -5927,13 +5938,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C162" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D162">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E162">
         <v>1000</v>
@@ -5956,13 +5967,13 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C163" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D163">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E163">
         <v>1000</v>
@@ -5985,13 +5996,13 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C164" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D164">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E164">
         <v>1000</v>
@@ -6014,13 +6025,13 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C165" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D165">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E165">
         <v>1000</v>
@@ -6043,28 +6054,28 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1022</v>
+        <v>2099</v>
       </c>
       <c r="C166" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D166">
-        <v>4001</v>
+        <v>388</v>
       </c>
       <c r="E166">
         <v>1000</v>
       </c>
       <c r="F166">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="G166">
         <v>3</v>
       </c>
       <c r="H166">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.4">
@@ -6072,13 +6083,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C167" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D167">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="E167">
         <v>1000</v>
@@ -6087,13 +6098,13 @@
         <v>1013</v>
       </c>
       <c r="G167">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H167">
         <v>1017</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.4">
@@ -6101,13 +6112,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C168" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D168">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="E168">
         <v>1000</v>
@@ -6116,13 +6127,13 @@
         <v>1013</v>
       </c>
       <c r="G168">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H168">
         <v>1017</v>
       </c>
       <c r="I168">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
@@ -6130,13 +6141,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C169" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D169">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="E169">
         <v>1000</v>
@@ -6145,13 +6156,13 @@
         <v>1013</v>
       </c>
       <c r="G169">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H169">
         <v>1017</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
@@ -6159,13 +6170,13 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C170" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D170">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="E170">
         <v>1000</v>
@@ -6174,13 +6185,13 @@
         <v>1013</v>
       </c>
       <c r="G170">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H170">
         <v>1017</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
@@ -6188,13 +6199,13 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C171" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D171">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="E171">
         <v>1000</v>
@@ -6203,13 +6214,13 @@
         <v>1013</v>
       </c>
       <c r="G171">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H171">
         <v>1017</v>
       </c>
       <c r="I171">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.4">
@@ -6217,22 +6228,28 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1003</v>
+        <v>1027</v>
       </c>
       <c r="C172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D172">
-        <v>6</v>
+        <v>4006</v>
       </c>
       <c r="E172">
         <v>1000</v>
       </c>
       <c r="F172">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="H172">
+        <v>1017</v>
+      </c>
+      <c r="I172">
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.4">
@@ -6240,13 +6257,13 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C173" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D173">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E173">
         <v>1000</v>
@@ -6263,13 +6280,13 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C174" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D174">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E174">
         <v>1000</v>
@@ -6286,19 +6303,19 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>501</v>
+        <v>1005</v>
       </c>
       <c r="C175" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D175">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="E175">
         <v>1000</v>
       </c>
       <c r="F175">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -6309,13 +6326,13 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C176" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D176">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E176">
         <v>1000</v>
@@ -6332,13 +6349,13 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C177" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D177">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E177">
         <v>1000</v>
@@ -6355,13 +6372,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C178" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D178">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E178">
         <v>1000</v>
@@ -6378,13 +6395,13 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C179" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D179">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E179">
         <v>1000</v>
@@ -6401,22 +6418,22 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>700</v>
+        <v>505</v>
       </c>
       <c r="C180" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D180">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E180">
         <v>1000</v>
       </c>
       <c r="F180">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
@@ -6424,13 +6441,13 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C181" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D181">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E181">
         <v>1000</v>
@@ -6447,13 +6464,13 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C182" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D182">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E182">
         <v>1000</v>
@@ -6470,13 +6487,13 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C183" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D183">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E183">
         <v>1000</v>
@@ -6493,13 +6510,13 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C184" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D184">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E184">
         <v>1000</v>
@@ -6516,13 +6533,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C185" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D185">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E185">
         <v>1000</v>
@@ -6539,33 +6556,21 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1044</v>
+        <v>705</v>
       </c>
       <c r="C186" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D186">
-        <v>7031</v>
+        <v>139</v>
       </c>
       <c r="E186">
         <v>1000</v>
       </c>
       <c r="F186">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G186">
-        <v>10</v>
-      </c>
-      <c r="H186">
-        <v>1001</v>
-      </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-      <c r="J186">
-        <v>1015</v>
-      </c>
-      <c r="K186">
         <v>1</v>
       </c>
     </row>
@@ -6574,27 +6579,33 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C187" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D187">
-        <v>7033</v>
+        <v>7031</v>
       </c>
       <c r="E187">
         <v>1000</v>
       </c>
       <c r="F187">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H187">
-        <v>1036</v>
+        <v>1001</v>
       </c>
       <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1015</v>
+      </c>
+      <c r="K187">
         <v>1</v>
       </c>
     </row>
@@ -6603,39 +6614,27 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C188" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D188">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="E188">
         <v>1000</v>
       </c>
       <c r="F188">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G188">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="I188">
-        <v>1</v>
-      </c>
-      <c r="J188">
-        <v>1032</v>
-      </c>
-      <c r="K188">
-        <v>1</v>
-      </c>
-      <c r="L188">
-        <v>1036</v>
-      </c>
-      <c r="M188">
         <v>1</v>
       </c>
     </row>
@@ -6644,37 +6643,37 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C189" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D189">
-        <v>7032</v>
+        <v>7034</v>
       </c>
       <c r="E189">
         <v>1000</v>
       </c>
       <c r="F189">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="G189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>1001</v>
+        <v>1031</v>
       </c>
       <c r="I189">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J189">
-        <v>1002</v>
+        <v>1032</v>
       </c>
       <c r="K189">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L189">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M189">
         <v>1</v>
@@ -6685,28 +6684,40 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1029</v>
+        <v>1045</v>
       </c>
       <c r="C190" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D190">
-        <v>7016</v>
+        <v>7032</v>
       </c>
       <c r="E190">
         <v>1000</v>
       </c>
       <c r="F190">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H190">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="J190">
+        <v>1002</v>
+      </c>
+      <c r="K190">
+        <v>20</v>
+      </c>
+      <c r="L190">
+        <v>1037</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
@@ -6714,40 +6725,28 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C191" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D191">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="E191">
         <v>1000</v>
       </c>
       <c r="F191">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="I191">
-        <v>1</v>
-      </c>
-      <c r="J191">
-        <v>1032</v>
-      </c>
-      <c r="K191">
-        <v>1</v>
-      </c>
-      <c r="L191">
-        <v>1016</v>
-      </c>
-      <c r="M191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
@@ -6755,33 +6754,39 @@
         <v>191</v>
       </c>
       <c r="B192">
+        <v>1030</v>
+      </c>
+      <c r="C192" t="s">
+        <v>214</v>
+      </c>
+      <c r="D192">
+        <v>7017</v>
+      </c>
+      <c r="E192">
+        <v>1000</v>
+      </c>
+      <c r="F192">
+        <v>1030</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
         <v>1031</v>
       </c>
-      <c r="C192" t="s">
-        <v>215</v>
-      </c>
-      <c r="D192">
-        <v>7018</v>
-      </c>
-      <c r="E192">
-        <v>1000</v>
-      </c>
-      <c r="F192">
-        <v>1001</v>
-      </c>
-      <c r="G192">
-        <v>10</v>
-      </c>
-      <c r="H192">
-        <v>1014</v>
-      </c>
       <c r="I192">
         <v>1</v>
       </c>
       <c r="J192">
-        <v>1019</v>
+        <v>1032</v>
       </c>
       <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1016</v>
+      </c>
+      <c r="M192">
         <v>1</v>
       </c>
     </row>
@@ -6790,28 +6795,34 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C193" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D193">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="E193">
         <v>1000</v>
       </c>
       <c r="F193">
-        <v>1033</v>
+        <v>1001</v>
       </c>
       <c r="G193">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H193">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="I193">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1019</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.4">
@@ -6819,13 +6830,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D194">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="E194">
         <v>1000</v>
@@ -6848,13 +6859,13 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C195" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D195">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="E195">
         <v>1000</v>
@@ -6863,7 +6874,7 @@
         <v>1033</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195">
         <v>1001</v>
@@ -6877,13 +6888,13 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C196" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D196">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="E196">
         <v>1000</v>
@@ -6906,13 +6917,13 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C197" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D197">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="E197">
         <v>1000</v>
@@ -6935,13 +6946,13 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C198" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D198">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="E198">
         <v>1000</v>
@@ -6964,13 +6975,13 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C199" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D199">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="E199">
         <v>1000</v>
@@ -6993,13 +7004,13 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C200" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D200">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="E200">
         <v>1000</v>
@@ -7015,12 +7026,6 @@
       </c>
       <c r="I200">
         <v>10</v>
-      </c>
-      <c r="J200">
-        <v>1016</v>
-      </c>
-      <c r="K200">
-        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.4">
@@ -7028,13 +7033,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C201" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D201">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="E201">
         <v>1000</v>
@@ -7063,13 +7068,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C202" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D202">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="E202">
         <v>1000</v>
@@ -7098,13 +7103,13 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C203" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D203">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="E203">
         <v>1000</v>
@@ -7133,13 +7138,13 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C204" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D204">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="E204">
         <v>1000</v>
@@ -7160,6 +7165,41 @@
         <v>1016</v>
       </c>
       <c r="K204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>1043</v>
+      </c>
+      <c r="C205" t="s">
+        <v>227</v>
+      </c>
+      <c r="D205">
+        <v>7030</v>
+      </c>
+      <c r="E205">
+        <v>1000</v>
+      </c>
+      <c r="F205">
+        <v>1033</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>1001</v>
+      </c>
+      <c r="I205">
+        <v>10</v>
+      </c>
+      <c r="J205">
+        <v>1016</v>
+      </c>
+      <c r="K205">
         <v>1</v>
       </c>
     </row>
@@ -7175,10 +7215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DF915C-1871-42C5-95D0-D0AF3AF774B2}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7186,84 +7226,68 @@
     <col min="1" max="1" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>1000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>1001</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7275,2385 +7299,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F35A559-70DB-42E3-B832-950C89CA9C4E}">
-  <dimension ref="A1:B296"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F13F98F-FDC5-42EF-AA90-6CBA20171543}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
+        <v>1000</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>101</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>102</v>
-      </c>
-      <c r="B10">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>103</v>
-      </c>
-      <c r="B11">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>104</v>
-      </c>
-      <c r="B12">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>105</v>
-      </c>
-      <c r="B13">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>106</v>
-      </c>
-      <c r="B14">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>107</v>
-      </c>
-      <c r="B15">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>108</v>
-      </c>
-      <c r="B16">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>109</v>
-      </c>
-      <c r="B17">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>110</v>
-      </c>
-      <c r="B18">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>111</v>
-      </c>
-      <c r="B19">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>112</v>
-      </c>
-      <c r="B20">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>113</v>
-      </c>
-      <c r="B21">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>114</v>
-      </c>
-      <c r="B22">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>115</v>
-      </c>
-      <c r="B23">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>116</v>
-      </c>
-      <c r="B24">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>117</v>
-      </c>
-      <c r="B25">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>118</v>
-      </c>
-      <c r="B26">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>123</v>
-      </c>
-      <c r="B27">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>124</v>
-      </c>
-      <c r="B28">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>125</v>
-      </c>
-      <c r="B29">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>126</v>
-      </c>
-      <c r="B30">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>127</v>
-      </c>
-      <c r="B31">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>128</v>
-      </c>
-      <c r="B32">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>129</v>
-      </c>
-      <c r="B33">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>134</v>
-      </c>
-      <c r="B34">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>135</v>
-      </c>
-      <c r="B35">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>136</v>
-      </c>
-      <c r="B36">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>137</v>
-      </c>
-      <c r="B37">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>138</v>
-      </c>
-      <c r="B38">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>139</v>
-      </c>
-      <c r="B39">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>200</v>
-      </c>
-      <c r="B40">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>201</v>
-      </c>
-      <c r="B41">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>202</v>
-      </c>
-      <c r="B42">
         <v>1008</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>203</v>
-      </c>
-      <c r="B43">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>204</v>
-      </c>
-      <c r="B44">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>205</v>
-      </c>
-      <c r="B45">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>206</v>
-      </c>
-      <c r="B46">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>207</v>
-      </c>
-      <c r="B47">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <v>208</v>
-      </c>
-      <c r="B48">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <v>209</v>
-      </c>
-      <c r="B49">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50">
-        <v>230</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>231</v>
-      </c>
-      <c r="B51">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <v>232</v>
-      </c>
-      <c r="B52">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53">
-        <v>233</v>
-      </c>
-      <c r="B53">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>234</v>
-      </c>
-      <c r="B54">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55">
-        <v>235</v>
-      </c>
-      <c r="B55">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56">
-        <v>236</v>
-      </c>
-      <c r="B56">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57">
-        <v>237</v>
-      </c>
-      <c r="B57">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58">
-        <v>238</v>
-      </c>
-      <c r="B58">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59">
-        <v>239</v>
-      </c>
-      <c r="B59">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60">
-        <v>278</v>
-      </c>
-      <c r="B60">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61">
-        <v>279</v>
-      </c>
-      <c r="B61">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62">
-        <v>280</v>
-      </c>
-      <c r="B62">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63">
-        <v>281</v>
-      </c>
-      <c r="B63">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64">
-        <v>282</v>
-      </c>
-      <c r="B64">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65">
-        <v>283</v>
-      </c>
-      <c r="B65">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66">
-        <v>284</v>
-      </c>
-      <c r="B66">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67">
-        <v>285</v>
-      </c>
-      <c r="B67">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68">
-        <v>287</v>
-      </c>
-      <c r="B68">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69">
-        <v>288</v>
-      </c>
-      <c r="B69">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70">
-        <v>289</v>
-      </c>
-      <c r="B70">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71">
-        <v>290</v>
-      </c>
-      <c r="B71">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72">
-        <v>291</v>
-      </c>
-      <c r="B72">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73">
-        <v>292</v>
-      </c>
-      <c r="B73">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74">
-        <v>293</v>
-      </c>
-      <c r="B74">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75">
-        <v>294</v>
-      </c>
-      <c r="B75">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76">
-        <v>295</v>
-      </c>
-      <c r="B76">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77">
-        <v>296</v>
-      </c>
-      <c r="B77">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78">
-        <v>297</v>
-      </c>
-      <c r="B78">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79">
-        <v>298</v>
-      </c>
-      <c r="B79">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80">
-        <v>299</v>
-      </c>
-      <c r="B80">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81">
-        <v>300</v>
-      </c>
-      <c r="B81">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82">
-        <v>301</v>
-      </c>
-      <c r="B82">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83">
-        <v>302</v>
-      </c>
-      <c r="B83">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84">
-        <v>303</v>
-      </c>
-      <c r="B84">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85">
-        <v>304</v>
-      </c>
-      <c r="B85">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86">
-        <v>305</v>
-      </c>
-      <c r="B86">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87">
-        <v>306</v>
-      </c>
-      <c r="B87">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88">
-        <v>307</v>
-      </c>
-      <c r="B88">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89">
-        <v>308</v>
-      </c>
-      <c r="B89">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90">
-        <v>309</v>
-      </c>
-      <c r="B90">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91">
-        <v>310</v>
-      </c>
-      <c r="B91">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92">
-        <v>311</v>
-      </c>
-      <c r="B92">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93">
-        <v>312</v>
-      </c>
-      <c r="B93">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94">
-        <v>313</v>
-      </c>
-      <c r="B94">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95">
-        <v>314</v>
-      </c>
-      <c r="B95">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96">
-        <v>315</v>
-      </c>
-      <c r="B96">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97">
-        <v>316</v>
-      </c>
-      <c r="B97">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98">
-        <v>317</v>
-      </c>
-      <c r="B98">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A99">
-        <v>318</v>
-      </c>
-      <c r="B99">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A100">
-        <v>319</v>
-      </c>
-      <c r="B100">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101">
-        <v>320</v>
-      </c>
-      <c r="B101">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102">
-        <v>321</v>
-      </c>
-      <c r="B102">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103">
-        <v>322</v>
-      </c>
-      <c r="B103">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104">
-        <v>323</v>
-      </c>
-      <c r="B104">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105">
-        <v>324</v>
-      </c>
-      <c r="B105">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106">
-        <v>325</v>
-      </c>
-      <c r="B106">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107">
-        <v>326</v>
-      </c>
-      <c r="B107">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108">
-        <v>327</v>
-      </c>
-      <c r="B108">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109">
-        <v>328</v>
-      </c>
-      <c r="B109">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110">
-        <v>329</v>
-      </c>
-      <c r="B110">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111">
-        <v>330</v>
-      </c>
-      <c r="B111">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112">
-        <v>331</v>
-      </c>
-      <c r="B112">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113">
-        <v>332</v>
-      </c>
-      <c r="B113">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114">
-        <v>333</v>
-      </c>
-      <c r="B114">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115">
-        <v>334</v>
-      </c>
-      <c r="B115">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116">
-        <v>335</v>
-      </c>
-      <c r="B116">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117">
-        <v>336</v>
-      </c>
-      <c r="B117">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A118">
-        <v>337</v>
-      </c>
-      <c r="B118">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119">
-        <v>338</v>
-      </c>
-      <c r="B119">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120">
-        <v>339</v>
-      </c>
-      <c r="B120">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121">
-        <v>340</v>
-      </c>
-      <c r="B121">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122">
-        <v>341</v>
-      </c>
-      <c r="B122">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123">
-        <v>342</v>
-      </c>
-      <c r="B123">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124">
-        <v>343</v>
-      </c>
-      <c r="B124">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125">
-        <v>344</v>
-      </c>
-      <c r="B125">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A126">
-        <v>345</v>
-      </c>
-      <c r="B126">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A127">
-        <v>346</v>
-      </c>
-      <c r="B127">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A128">
-        <v>347</v>
-      </c>
-      <c r="B128">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A129">
-        <v>348</v>
-      </c>
-      <c r="B129">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A130">
-        <v>349</v>
-      </c>
-      <c r="B130">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A131">
-        <v>350</v>
-      </c>
-      <c r="B131">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A132">
-        <v>351</v>
-      </c>
-      <c r="B132">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A133">
-        <v>352</v>
-      </c>
-      <c r="B133">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A134">
-        <v>353</v>
-      </c>
-      <c r="B134">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A135">
-        <v>354</v>
-      </c>
-      <c r="B135">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A136">
-        <v>355</v>
-      </c>
-      <c r="B136">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A137">
-        <v>356</v>
-      </c>
-      <c r="B137">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A138">
-        <v>357</v>
-      </c>
-      <c r="B138">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A139">
-        <v>358</v>
-      </c>
-      <c r="B139">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A140">
-        <v>359</v>
-      </c>
-      <c r="B140">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A141">
-        <v>360</v>
-      </c>
-      <c r="B141">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A142">
-        <v>361</v>
-      </c>
-      <c r="B142">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A143">
-        <v>362</v>
-      </c>
-      <c r="B143">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A144">
-        <v>363</v>
-      </c>
-      <c r="B144">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A145">
-        <v>364</v>
-      </c>
-      <c r="B145">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A146">
-        <v>365</v>
-      </c>
-      <c r="B146">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A147">
-        <v>366</v>
-      </c>
-      <c r="B147">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A148">
-        <v>367</v>
-      </c>
-      <c r="B148">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A149">
-        <v>368</v>
-      </c>
-      <c r="B149">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A150">
-        <v>369</v>
-      </c>
-      <c r="B150">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A151">
-        <v>370</v>
-      </c>
-      <c r="B151">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A152">
-        <v>371</v>
-      </c>
-      <c r="B152">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A153">
-        <v>372</v>
-      </c>
-      <c r="B153">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A154">
-        <v>373</v>
-      </c>
-      <c r="B154">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A155">
-        <v>374</v>
-      </c>
-      <c r="B155">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A156">
-        <v>375</v>
-      </c>
-      <c r="B156">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A157">
-        <v>376</v>
-      </c>
-      <c r="B157">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A158">
-        <v>377</v>
-      </c>
-      <c r="B158">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A159">
-        <v>378</v>
-      </c>
-      <c r="B159">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A160">
-        <v>379</v>
-      </c>
-      <c r="B160">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A161">
-        <v>380</v>
-      </c>
-      <c r="B161">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A162">
-        <v>381</v>
-      </c>
-      <c r="B162">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A163">
-        <v>382</v>
-      </c>
-      <c r="B163">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A164">
-        <v>383</v>
-      </c>
-      <c r="B164">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A165">
-        <v>384</v>
-      </c>
-      <c r="B165">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A166">
-        <v>385</v>
-      </c>
-      <c r="B166">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A167">
-        <v>386</v>
-      </c>
-      <c r="B167">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A168">
-        <v>387</v>
-      </c>
-      <c r="B168">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A169">
-        <v>388</v>
-      </c>
-      <c r="B169">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A170">
-        <v>389</v>
-      </c>
-      <c r="B170">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A171">
-        <v>500</v>
-      </c>
-      <c r="B171">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A172">
-        <v>501</v>
-      </c>
-      <c r="B172">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A173">
-        <v>502</v>
-      </c>
-      <c r="B173">
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A174">
-        <v>503</v>
-      </c>
-      <c r="B174">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A175">
-        <v>504</v>
-      </c>
-      <c r="B175">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A176">
-        <v>505</v>
-      </c>
-      <c r="B176">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A177">
-        <v>506</v>
-      </c>
-      <c r="B177">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A178">
-        <v>507</v>
-      </c>
-      <c r="B178">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A179">
-        <v>508</v>
-      </c>
-      <c r="B179">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A180">
-        <v>509</v>
-      </c>
-      <c r="B180">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A181">
-        <v>550</v>
-      </c>
-      <c r="B181">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A182">
-        <v>551</v>
-      </c>
-      <c r="B182">
-        <v>3011</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A183">
-        <v>552</v>
-      </c>
-      <c r="B183">
-        <v>3012</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A184">
-        <v>553</v>
-      </c>
-      <c r="B184">
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A185">
-        <v>554</v>
-      </c>
-      <c r="B185">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A186">
-        <v>555</v>
-      </c>
-      <c r="B186">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A187">
-        <v>556</v>
-      </c>
-      <c r="B187">
-        <v>3016</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A188">
-        <v>557</v>
-      </c>
-      <c r="B188">
-        <v>3017</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A189">
-        <v>558</v>
-      </c>
-      <c r="B189">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A190">
-        <v>559</v>
-      </c>
-      <c r="B190">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A191">
-        <v>600</v>
-      </c>
-      <c r="B191">
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A192">
-        <v>700</v>
-      </c>
-      <c r="B192">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A193">
-        <v>1001</v>
-      </c>
-      <c r="B193">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A194">
-        <v>1002</v>
-      </c>
-      <c r="B194">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A195">
-        <v>1003</v>
-      </c>
-      <c r="B195">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A196">
-        <v>1004</v>
-      </c>
-      <c r="B196">
-        <v>5003</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A197">
-        <v>1005</v>
-      </c>
-      <c r="B197">
-        <v>5004</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A198">
-        <v>1006</v>
-      </c>
-      <c r="B198">
-        <v>5005</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A199">
-        <v>1007</v>
-      </c>
-      <c r="B199">
-        <v>5006</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A200">
-        <v>1008</v>
-      </c>
-      <c r="B200">
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A201">
-        <v>1009</v>
-      </c>
-      <c r="B201">
-        <v>5008</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A202">
-        <v>1010</v>
-      </c>
-      <c r="B202">
-        <v>5009</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A203">
-        <v>1011</v>
-      </c>
-      <c r="B203">
-        <v>5010</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A204">
-        <v>1012</v>
-      </c>
-      <c r="B204">
-        <v>5011</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A205">
-        <v>1013</v>
-      </c>
-      <c r="B205">
-        <v>5012</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A206">
-        <v>1014</v>
-      </c>
-      <c r="B206">
-        <v>5013</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A207">
-        <v>1015</v>
-      </c>
-      <c r="B207">
-        <v>5014</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A208">
-        <v>1016</v>
-      </c>
-      <c r="B208">
-        <v>5015</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A209">
-        <v>1017</v>
-      </c>
-      <c r="B209">
-        <v>5016</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A210">
-        <v>1018</v>
-      </c>
-      <c r="B210">
-        <v>5017</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A211">
-        <v>1019</v>
-      </c>
-      <c r="B211">
-        <v>5018</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A212">
-        <v>1020</v>
-      </c>
-      <c r="B212">
-        <v>5019</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A213">
-        <v>1021</v>
-      </c>
-      <c r="B213">
-        <v>5020</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A214">
-        <v>1022</v>
-      </c>
-      <c r="B214">
-        <v>5021</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A215">
-        <v>1023</v>
-      </c>
-      <c r="B215">
-        <v>5022</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A216">
-        <v>1024</v>
-      </c>
-      <c r="B216">
-        <v>5023</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A217">
-        <v>1025</v>
-      </c>
-      <c r="B217">
-        <v>5024</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A218">
-        <v>1026</v>
-      </c>
-      <c r="B218">
-        <v>5025</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A219">
-        <v>1027</v>
-      </c>
-      <c r="B219">
-        <v>5026</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A220">
-        <v>1029</v>
-      </c>
-      <c r="B220">
-        <v>5027</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A221">
-        <v>1030</v>
-      </c>
-      <c r="B221">
-        <v>5028</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A222">
-        <v>1031</v>
-      </c>
-      <c r="B222">
-        <v>5029</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A223">
-        <v>1032</v>
-      </c>
-      <c r="B223">
-        <v>5030</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A224">
-        <v>1033</v>
-      </c>
-      <c r="B224">
-        <v>5031</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A225">
-        <v>1034</v>
-      </c>
-      <c r="B225">
-        <v>5032</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A226">
-        <v>1035</v>
-      </c>
-      <c r="B226">
-        <v>5033</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A227">
-        <v>1036</v>
-      </c>
-      <c r="B227">
-        <v>5034</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A228">
-        <v>1037</v>
-      </c>
-      <c r="B228">
-        <v>5035</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A229">
-        <v>1038</v>
-      </c>
-      <c r="B229">
-        <v>5036</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A230">
-        <v>2000</v>
-      </c>
-      <c r="B230">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A231">
-        <v>2001</v>
-      </c>
-      <c r="B231">
-        <v>7001</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A232">
-        <v>2002</v>
-      </c>
-      <c r="B232">
-        <v>7002</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A233">
-        <v>2500</v>
-      </c>
-      <c r="B233">
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A234">
-        <v>2501</v>
-      </c>
-      <c r="B234">
-        <v>7101</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A235">
-        <v>2502</v>
-      </c>
-      <c r="B235">
-        <v>7102</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A236">
-        <v>3000</v>
-      </c>
-      <c r="B236">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A237">
-        <v>3001</v>
-      </c>
-      <c r="B237">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A238">
-        <v>3002</v>
-      </c>
-      <c r="B238">
-        <v>8001</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A239">
-        <v>3003</v>
-      </c>
-      <c r="B239">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A240">
-        <v>4001</v>
-      </c>
-      <c r="B240">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A241">
-        <v>4002</v>
-      </c>
-      <c r="B241">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A242">
-        <v>4003</v>
-      </c>
-      <c r="B242">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A243">
-        <v>4004</v>
-      </c>
-      <c r="B243">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A244">
-        <v>4005</v>
-      </c>
-      <c r="B244">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A245">
-        <v>4006</v>
-      </c>
-      <c r="B245">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A246">
-        <v>5000</v>
-      </c>
-      <c r="B246">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A247">
-        <v>7016</v>
-      </c>
-      <c r="B247">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A248">
-        <v>7017</v>
-      </c>
-      <c r="B248">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A249">
-        <v>7018</v>
-      </c>
-      <c r="B249">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A250">
-        <v>7019</v>
-      </c>
-      <c r="B250">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A251">
-        <v>7020</v>
-      </c>
-      <c r="B251">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A252">
-        <v>7021</v>
-      </c>
-      <c r="B252">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A253">
-        <v>7022</v>
-      </c>
-      <c r="B253">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A254">
-        <v>7023</v>
-      </c>
-      <c r="B254">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A255">
-        <v>7024</v>
-      </c>
-      <c r="B255">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A256">
-        <v>7025</v>
-      </c>
-      <c r="B256">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A257">
-        <v>7026</v>
-      </c>
-      <c r="B257">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A258">
-        <v>7027</v>
-      </c>
-      <c r="B258">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A259">
-        <v>7028</v>
-      </c>
-      <c r="B259">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A260">
-        <v>7029</v>
-      </c>
-      <c r="B260">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A261">
-        <v>7030</v>
-      </c>
-      <c r="B261">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A262">
-        <v>7031</v>
-      </c>
-      <c r="B262">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A263">
-        <v>7032</v>
-      </c>
-      <c r="B263">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A264">
-        <v>7033</v>
-      </c>
-      <c r="B264">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A265">
-        <v>7034</v>
-      </c>
-      <c r="B265">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A266">
-        <v>9000</v>
-      </c>
-      <c r="B266">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A267">
-        <v>9001</v>
-      </c>
-      <c r="B267">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A268">
-        <v>9002</v>
-      </c>
-      <c r="B268">
-        <v>9002</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A269">
-        <v>9003</v>
-      </c>
-      <c r="B269">
-        <v>9003</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A270">
-        <v>9004</v>
-      </c>
-      <c r="B270">
-        <v>9004</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A271">
-        <v>9005</v>
-      </c>
-      <c r="B271">
-        <v>9005</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A272" s="5">
-        <v>10001</v>
-      </c>
-      <c r="B272">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A273" s="5">
-        <v>10002</v>
-      </c>
-      <c r="B273">
-        <v>20001</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A274" s="5">
-        <v>10003</v>
-      </c>
-      <c r="B274">
-        <v>20002</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A275" s="5">
-        <v>10004</v>
-      </c>
-      <c r="B275">
-        <v>20003</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A276" s="5">
-        <v>10005</v>
-      </c>
-      <c r="B276">
-        <v>20004</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A277" s="5">
-        <v>10006</v>
-      </c>
-      <c r="B277">
-        <v>20005</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A278" s="5">
-        <v>10007</v>
-      </c>
-      <c r="B278">
-        <v>20006</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A279" s="5">
-        <v>10008</v>
-      </c>
-      <c r="B279">
-        <v>20007</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A280" s="5">
-        <v>10009</v>
-      </c>
-      <c r="B280">
-        <v>20008</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A281" s="5">
-        <v>10010</v>
-      </c>
-      <c r="B281">
-        <v>20009</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A282" s="5">
-        <v>10011</v>
-      </c>
-      <c r="B282">
-        <v>20010</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A283" s="5">
-        <v>10012</v>
-      </c>
-      <c r="B283">
-        <v>20011</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A284">
-        <v>10013</v>
-      </c>
-      <c r="B284">
-        <v>20012</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A285">
-        <v>10014</v>
-      </c>
-      <c r="B285">
-        <v>20013</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A286">
-        <v>10015</v>
-      </c>
-      <c r="B286">
-        <v>20014</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A287">
-        <v>10016</v>
-      </c>
-      <c r="B287">
-        <v>20015</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A288">
-        <v>10017</v>
-      </c>
-      <c r="B288">
-        <v>20016</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A289">
-        <v>10018</v>
-      </c>
-      <c r="B289">
-        <v>20017</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A290">
-        <v>10019</v>
-      </c>
-      <c r="B290">
-        <v>20018</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A291">
-        <v>10020</v>
-      </c>
-      <c r="B291">
-        <v>20019</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A292">
-        <v>10021</v>
-      </c>
-      <c r="B292">
-        <v>20020</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A293">
-        <v>10022</v>
-      </c>
-      <c r="B293">
-        <v>20021</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A294">
-        <v>10023</v>
-      </c>
-      <c r="B294">
-        <v>20022</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A295">
-        <v>10024</v>
-      </c>
-      <c r="B295">
-        <v>20023</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A296">
-        <v>11001</v>
-      </c>
-      <c r="B296">
-        <v>10002</v>
+      <c r="B3" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658DD67F-786F-42C9-91CF-1D30C95169BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3422FB4-1AC6-4A4B-9FAC-B953DC0EF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="231">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -788,6 +788,16 @@
     <t>服</t>
     <rPh sb="0" eb="1">
       <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備作業台</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サギョウダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -928,8 +938,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N205" totalsRowShown="0">
-  <autoFilter ref="A1:N205" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N206" totalsRowShown="0">
+  <autoFilter ref="A1:N206" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -1247,13 +1257,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N205"/>
+  <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H198" sqref="H198"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1725,34 +1735,34 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5007</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="D16">
-        <v>1008</v>
+        <v>9</v>
       </c>
       <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16">
         <v>1001</v>
       </c>
-      <c r="F16">
-        <v>1004</v>
-      </c>
       <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>1003</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>1009</v>
+      </c>
+      <c r="K16">
         <v>5</v>
-      </c>
-      <c r="H16">
-        <v>1005</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>1001</v>
-      </c>
-      <c r="K16">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
@@ -1760,27 +1770,33 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E17">
         <v>1001</v>
       </c>
       <c r="F17">
+        <v>1004</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
         <v>1005</v>
       </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17">
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
         <v>1001</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>8</v>
       </c>
     </row>
@@ -1789,33 +1805,27 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E18">
         <v>1001</v>
       </c>
       <c r="F18">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H18">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>1001</v>
-      </c>
-      <c r="K18">
         <v>8</v>
       </c>
     </row>
@@ -1824,19 +1834,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E19">
         <v>1001</v>
       </c>
       <c r="F19">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -1859,22 +1869,34 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>251</v>
+        <v>5010</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20">
-        <v>113</v>
+        <v>1011</v>
       </c>
       <c r="E20">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F20">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>1005</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1001</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
@@ -1882,28 +1904,22 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F21">
         <v>1013</v>
       </c>
       <c r="G21">
         <v>3</v>
-      </c>
-      <c r="H21">
-        <v>1001</v>
-      </c>
-      <c r="I21">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
@@ -1911,13 +1927,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22">
         <v>1001</v>
@@ -1933,12 +1949,6 @@
       </c>
       <c r="I22">
         <v>5</v>
-      </c>
-      <c r="J22">
-        <v>1002</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
@@ -1946,13 +1956,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23">
         <v>1001</v>
@@ -1970,10 +1980,10 @@
         <v>5</v>
       </c>
       <c r="J23">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
@@ -1981,28 +1991,34 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>400</v>
+        <v>602</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F24">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>1011</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
@@ -2010,28 +2026,28 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E25">
         <v>1000</v>
       </c>
       <c r="F25">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
@@ -2039,13 +2055,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -2054,13 +2070,13 @@
         <v>1001</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>1009</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
@@ -2068,13 +2084,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2083,6 +2099,12 @@
         <v>1001</v>
       </c>
       <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>1009</v>
+      </c>
+      <c r="I27">
         <v>2</v>
       </c>
     </row>
@@ -2091,22 +2113,22 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>506</v>
+        <v>1002</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>1000</v>
       </c>
       <c r="F28">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
@@ -2114,13 +2136,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29">
         <v>1000</v>
@@ -2137,25 +2159,22 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1021</v>
+        <v>507</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30">
-        <v>3003</v>
+        <v>129</v>
       </c>
       <c r="E30">
         <v>1000</v>
       </c>
       <c r="F30">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G30">
-        <v>100</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
@@ -2163,28 +2182,25 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>20000</v>
+        <v>1021</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31">
-        <v>10001</v>
+        <v>3003</v>
       </c>
       <c r="E31">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="F31">
         <v>1001</v>
       </c>
       <c r="G31">
-        <v>50</v>
-      </c>
-      <c r="H31">
-        <v>1002</v>
-      </c>
-      <c r="I31">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
@@ -2192,13 +2208,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>20001</v>
+        <v>20000</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="E32">
         <v>1008</v>
@@ -2221,13 +2237,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="E33">
         <v>1008</v>
@@ -2250,13 +2266,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>21000</v>
+        <v>20002</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="D34">
-        <v>11001</v>
+        <v>10003</v>
       </c>
       <c r="E34">
         <v>1008</v>
@@ -2279,28 +2295,28 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1006</v>
+        <v>21000</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="D35">
-        <v>200</v>
+        <v>11001</v>
       </c>
       <c r="E35">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F35">
         <v>1001</v>
       </c>
       <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <v>1002</v>
+      </c>
+      <c r="I35">
         <v>30</v>
-      </c>
-      <c r="H35">
-        <v>1018</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -2308,13 +2324,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E36">
         <v>1000</v>
@@ -2337,13 +2353,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E37">
         <v>1000</v>
@@ -2366,13 +2382,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E38">
         <v>1000</v>
@@ -2395,13 +2411,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E39">
         <v>1000</v>
@@ -2424,13 +2440,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E40">
         <v>1000</v>
@@ -2453,13 +2469,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41">
         <v>1000</v>
@@ -2482,13 +2498,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E42">
         <v>1000</v>
@@ -2511,13 +2527,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E43">
         <v>1000</v>
@@ -2540,13 +2556,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E44">
         <v>1000</v>
@@ -2569,13 +2585,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2100</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>24</v>
+        <v>1015</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
       </c>
       <c r="D45">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="E45">
         <v>1000</v>
@@ -2584,6 +2600,12 @@
         <v>1001</v>
       </c>
       <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="H45">
+        <v>1018</v>
+      </c>
+      <c r="I45">
         <v>3</v>
       </c>
     </row>
@@ -2592,13 +2614,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E46">
         <v>1000</v>
@@ -2615,13 +2637,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D47">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E47">
         <v>1000</v>
@@ -2638,13 +2660,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1016</v>
+        <v>2103</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E48">
         <v>1000</v>
@@ -2661,13 +2683,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E49">
         <v>1000</v>
@@ -2684,13 +2706,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D50">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E50">
         <v>1000</v>
@@ -2707,13 +2729,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D51">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E51">
         <v>1000</v>
@@ -2730,13 +2752,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E52">
         <v>1000</v>
@@ -2753,28 +2775,22 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2000</v>
+        <v>1020</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E53">
         <v>1000</v>
       </c>
       <c r="F53">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G53">
         <v>3</v>
-      </c>
-      <c r="H53">
-        <v>1020</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
@@ -2782,13 +2798,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E54">
         <v>1000</v>
@@ -2811,22 +2827,28 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2102</v>
+        <v>2001</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E55">
         <v>1000</v>
       </c>
       <c r="F55">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G55">
         <v>3</v>
+      </c>
+      <c r="H55">
+        <v>1020</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -2834,28 +2856,22 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2002</v>
+        <v>2102</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E56">
         <v>1000</v>
       </c>
       <c r="F56">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G56">
         <v>3</v>
-      </c>
-      <c r="H56">
-        <v>1020</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
@@ -2863,13 +2879,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E57">
         <v>1000</v>
@@ -2892,22 +2908,28 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2104</v>
+        <v>2003</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E58">
         <v>1000</v>
       </c>
       <c r="F58">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G58">
         <v>3</v>
+      </c>
+      <c r="H58">
+        <v>1020</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -2915,28 +2937,22 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2004</v>
+        <v>2104</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D59">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E59">
         <v>1000</v>
       </c>
       <c r="F59">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G59">
         <v>3</v>
-      </c>
-      <c r="H59">
-        <v>1020</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
@@ -2944,28 +2960,28 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>102</v>
+        <v>2004</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="E60">
         <v>1000</v>
       </c>
       <c r="F60">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
@@ -2973,13 +2989,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D61">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E61">
         <v>1000</v>
@@ -3002,13 +3018,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E62">
         <v>1000</v>
@@ -3031,13 +3047,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E63">
         <v>1000</v>
@@ -3060,22 +3076,28 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D64">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E64">
         <v>1000</v>
       </c>
       <c r="F64">
-        <v>1001</v>
+        <v>1026</v>
       </c>
       <c r="G64">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>1027</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
@@ -3083,22 +3105,22 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D65">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E65">
         <v>1000</v>
       </c>
       <c r="F65">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
@@ -3106,13 +3128,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D66">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E66">
         <v>1000</v>
@@ -3121,7 +3143,7 @@
         <v>1003</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -3129,28 +3151,22 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D67">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E67">
         <v>1000</v>
       </c>
       <c r="F67">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="G67">
-        <v>2</v>
-      </c>
-      <c r="H67">
-        <v>1027</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
@@ -3158,13 +3174,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D68">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E68">
         <v>1000</v>
@@ -3187,13 +3203,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>900</v>
+        <v>107</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D69">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E69">
         <v>1000</v>
@@ -3216,22 +3232,28 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>901</v>
-      </c>
-      <c r="C70" t="s">
-        <v>92</v>
+        <v>900</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D70">
-        <v>389</v>
+        <v>239</v>
       </c>
       <c r="E70">
         <v>1000</v>
       </c>
       <c r="F70">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>1027</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
@@ -3239,28 +3261,22 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1028</v>
+        <v>901</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D71">
-        <v>5000</v>
+        <v>389</v>
       </c>
       <c r="E71">
         <v>1000</v>
       </c>
       <c r="F71">
-        <v>1001</v>
+        <v>1035</v>
       </c>
       <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>1009</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
@@ -3268,25 +3284,25 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2005</v>
+        <v>1028</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D72">
-        <v>294</v>
+        <v>5000</v>
       </c>
       <c r="E72">
         <v>1000</v>
       </c>
       <c r="F72">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -3297,13 +3313,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D73">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E73">
         <v>1000</v>
@@ -3326,13 +3342,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D74">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E74">
         <v>1000</v>
@@ -3355,13 +3371,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D75">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E75">
         <v>1000</v>
@@ -3384,13 +3400,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D76">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E76">
         <v>1000</v>
@@ -3413,13 +3429,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D77">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E77">
         <v>1000</v>
@@ -3431,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="H77">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -3442,13 +3458,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D78">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E78">
         <v>1000</v>
@@ -3471,13 +3487,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D79">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E79">
         <v>1000</v>
@@ -3500,13 +3516,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E80">
         <v>1000</v>
@@ -3529,13 +3545,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D81">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E81">
         <v>1000</v>
@@ -3558,13 +3574,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D82">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E82">
         <v>1000</v>
@@ -3576,15 +3592,9 @@
         <v>3</v>
       </c>
       <c r="H82">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>1027</v>
-      </c>
-      <c r="K82">
         <v>1</v>
       </c>
     </row>
@@ -3593,13 +3603,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D83">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E83">
         <v>1000</v>
@@ -3628,13 +3638,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D84">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E84">
         <v>1000</v>
@@ -3663,13 +3673,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D85">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E85">
         <v>1000</v>
@@ -3698,13 +3708,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D86">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E86">
         <v>1000</v>
@@ -3733,13 +3743,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D87">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E87">
         <v>1000</v>
@@ -3751,9 +3761,15 @@
         <v>3</v>
       </c>
       <c r="H87">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1027</v>
+      </c>
+      <c r="K87">
         <v>1</v>
       </c>
     </row>
@@ -3762,13 +3778,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D88">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E88">
         <v>1000</v>
@@ -3791,13 +3807,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D89">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E89">
         <v>1000</v>
@@ -3820,13 +3836,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D90">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E90">
         <v>1000</v>
@@ -3849,13 +3865,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D91">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E91">
         <v>1000</v>
@@ -3878,13 +3894,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D92">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E92">
         <v>1000</v>
@@ -3896,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="H92">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -3907,13 +3923,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D93">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E93">
         <v>1000</v>
@@ -3936,13 +3952,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D94">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E94">
         <v>1000</v>
@@ -3965,13 +3981,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D95">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E95">
         <v>1000</v>
@@ -3994,13 +4010,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D96">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E96">
         <v>1000</v>
@@ -4023,13 +4039,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D97">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E97">
         <v>1000</v>
@@ -4041,7 +4057,7 @@
         <v>3</v>
       </c>
       <c r="H97">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -4052,13 +4068,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D98">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E98">
         <v>1000</v>
@@ -4081,13 +4097,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D99">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E99">
         <v>1000</v>
@@ -4110,13 +4126,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D100">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E100">
         <v>1000</v>
@@ -4139,13 +4155,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D101">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E101">
         <v>1000</v>
@@ -4168,13 +4184,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D102">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E102">
         <v>1000</v>
@@ -4186,7 +4202,7 @@
         <v>3</v>
       </c>
       <c r="H102">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -4197,13 +4213,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D103">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E103">
         <v>1000</v>
@@ -4226,13 +4242,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D104">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E104">
         <v>1000</v>
@@ -4255,13 +4271,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D105">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E105">
         <v>1000</v>
@@ -4284,13 +4300,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D106">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E106">
         <v>1000</v>
@@ -4313,13 +4329,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D107">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E107">
         <v>1000</v>
@@ -4331,7 +4347,7 @@
         <v>3</v>
       </c>
       <c r="H107">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -4342,13 +4358,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D108">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E108">
         <v>1000</v>
@@ -4371,13 +4387,13 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D109">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E109">
         <v>1000</v>
@@ -4400,13 +4416,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C110" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D110">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E110">
         <v>1000</v>
@@ -4429,13 +4445,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D111">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E111">
         <v>1000</v>
@@ -4458,13 +4474,13 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C112" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D112">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E112">
         <v>1000</v>
@@ -4476,7 +4492,7 @@
         <v>3</v>
       </c>
       <c r="H112">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -4487,13 +4503,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C113" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D113">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E113">
         <v>1000</v>
@@ -4516,13 +4532,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D114">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E114">
         <v>1000</v>
@@ -4545,13 +4561,13 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D115">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E115">
         <v>1000</v>
@@ -4574,13 +4590,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D116">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E116">
         <v>1000</v>
@@ -4603,13 +4619,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D117">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E117">
         <v>1000</v>
@@ -4621,10 +4637,10 @@
         <v>3</v>
       </c>
       <c r="H117">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.4">
@@ -4632,13 +4648,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D118">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E118">
         <v>1000</v>
@@ -4661,13 +4677,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D119">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E119">
         <v>1000</v>
@@ -4690,13 +4706,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D120">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E120">
         <v>1000</v>
@@ -4719,13 +4735,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D121">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E121">
         <v>1000</v>
@@ -4748,13 +4764,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C122" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D122">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E122">
         <v>1000</v>
@@ -4766,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="H122">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I122">
         <v>2</v>
@@ -4777,13 +4793,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D123">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E123">
         <v>1000</v>
@@ -4806,13 +4822,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C124" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D124">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E124">
         <v>1000</v>
@@ -4835,13 +4851,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D125">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E125">
         <v>1000</v>
@@ -4864,13 +4880,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C126" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D126">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E126">
         <v>1000</v>
@@ -4893,13 +4909,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D127">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E127">
         <v>1000</v>
@@ -4911,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="H127">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -4922,13 +4938,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D128">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E128">
         <v>1000</v>
@@ -4951,13 +4967,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D129">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E129">
         <v>1000</v>
@@ -4980,13 +4996,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C130" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D130">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E130">
         <v>1000</v>
@@ -5009,13 +5025,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C131" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D131">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E131">
         <v>1000</v>
@@ -5038,13 +5054,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C132" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D132">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E132">
         <v>1000</v>
@@ -5056,15 +5072,9 @@
         <v>3</v>
       </c>
       <c r="H132">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="I132">
-        <v>2</v>
-      </c>
-      <c r="J132">
-        <v>1027</v>
-      </c>
-      <c r="K132">
         <v>2</v>
       </c>
     </row>
@@ -5073,13 +5083,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D133">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E133">
         <v>1000</v>
@@ -5108,13 +5118,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C134" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D134">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E134">
         <v>1000</v>
@@ -5143,13 +5153,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D135">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E135">
         <v>1000</v>
@@ -5178,13 +5188,13 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D136">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E136">
         <v>1000</v>
@@ -5213,13 +5223,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D137">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E137">
         <v>1000</v>
@@ -5231,9 +5241,15 @@
         <v>3</v>
       </c>
       <c r="H137">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>1027</v>
+      </c>
+      <c r="K137">
         <v>2</v>
       </c>
     </row>
@@ -5242,13 +5258,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D138">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E138">
         <v>1000</v>
@@ -5271,13 +5287,13 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D139">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E139">
         <v>1000</v>
@@ -5300,13 +5316,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D140">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E140">
         <v>1000</v>
@@ -5329,13 +5345,13 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D141">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E141">
         <v>1000</v>
@@ -5358,13 +5374,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D142">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E142">
         <v>1000</v>
@@ -5376,7 +5392,7 @@
         <v>3</v>
       </c>
       <c r="H142">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="I142">
         <v>2</v>
@@ -5387,13 +5403,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D143">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E143">
         <v>1000</v>
@@ -5416,13 +5432,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C144" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D144">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E144">
         <v>1000</v>
@@ -5445,13 +5461,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D145">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E145">
         <v>1000</v>
@@ -5474,13 +5490,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C146" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D146">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E146">
         <v>1000</v>
@@ -5503,13 +5519,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C147" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D147">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E147">
         <v>1000</v>
@@ -5521,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="H147">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I147">
         <v>2</v>
@@ -5532,13 +5548,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C148" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D148">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E148">
         <v>1000</v>
@@ -5561,13 +5577,13 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C149" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D149">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E149">
         <v>1000</v>
@@ -5590,13 +5606,13 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C150" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D150">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E150">
         <v>1000</v>
@@ -5619,13 +5635,13 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C151" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D151">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E151">
         <v>1000</v>
@@ -5648,13 +5664,13 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C152" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D152">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E152">
         <v>1000</v>
@@ -5666,7 +5682,7 @@
         <v>3</v>
       </c>
       <c r="H152">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="I152">
         <v>2</v>
@@ -5677,13 +5693,13 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C153" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D153">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E153">
         <v>1000</v>
@@ -5706,13 +5722,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D154">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E154">
         <v>1000</v>
@@ -5735,13 +5751,13 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C155" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D155">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E155">
         <v>1000</v>
@@ -5764,13 +5780,13 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C156" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D156">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E156">
         <v>1000</v>
@@ -5793,13 +5809,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C157" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D157">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E157">
         <v>1000</v>
@@ -5811,7 +5827,7 @@
         <v>3</v>
       </c>
       <c r="H157">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -5822,13 +5838,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C158" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D158">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E158">
         <v>1000</v>
@@ -5851,13 +5867,13 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D159">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E159">
         <v>1000</v>
@@ -5880,13 +5896,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C160" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D160">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E160">
         <v>1000</v>
@@ -5909,13 +5925,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C161" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D161">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E161">
         <v>1000</v>
@@ -5938,13 +5954,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C162" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D162">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E162">
         <v>1000</v>
@@ -5956,7 +5972,7 @@
         <v>3</v>
       </c>
       <c r="H162">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="I162">
         <v>2</v>
@@ -5967,13 +5983,13 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C163" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D163">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E163">
         <v>1000</v>
@@ -5996,13 +6012,13 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C164" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D164">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E164">
         <v>1000</v>
@@ -6025,13 +6041,13 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D165">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E165">
         <v>1000</v>
@@ -6054,13 +6070,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C166" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D166">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E166">
         <v>1000</v>
@@ -6083,28 +6099,28 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1022</v>
+        <v>2099</v>
       </c>
       <c r="C167" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D167">
-        <v>4001</v>
+        <v>388</v>
       </c>
       <c r="E167">
         <v>1000</v>
       </c>
       <c r="F167">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="G167">
         <v>3</v>
       </c>
       <c r="H167">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.4">
@@ -6112,13 +6128,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C168" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D168">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="E168">
         <v>1000</v>
@@ -6127,13 +6143,13 @@
         <v>1013</v>
       </c>
       <c r="G168">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H168">
         <v>1017</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
@@ -6141,13 +6157,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C169" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D169">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="E169">
         <v>1000</v>
@@ -6156,13 +6172,13 @@
         <v>1013</v>
       </c>
       <c r="G169">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H169">
         <v>1017</v>
       </c>
       <c r="I169">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
@@ -6170,13 +6186,13 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C170" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D170">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="E170">
         <v>1000</v>
@@ -6185,13 +6201,13 @@
         <v>1013</v>
       </c>
       <c r="G170">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H170">
         <v>1017</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
@@ -6199,13 +6215,13 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C171" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D171">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="E171">
         <v>1000</v>
@@ -6214,13 +6230,13 @@
         <v>1013</v>
       </c>
       <c r="G171">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H171">
         <v>1017</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.4">
@@ -6228,13 +6244,13 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C172" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D172">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="E172">
         <v>1000</v>
@@ -6243,13 +6259,13 @@
         <v>1013</v>
       </c>
       <c r="G172">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H172">
         <v>1017</v>
       </c>
       <c r="I172">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.4">
@@ -6257,22 +6273,28 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1003</v>
+        <v>1027</v>
       </c>
       <c r="C173" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D173">
-        <v>6</v>
+        <v>4006</v>
       </c>
       <c r="E173">
         <v>1000</v>
       </c>
       <c r="F173">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="G173">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="H173">
+        <v>1017</v>
+      </c>
+      <c r="I173">
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.4">
@@ -6280,13 +6302,13 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C174" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D174">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E174">
         <v>1000</v>
@@ -6303,13 +6325,13 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C175" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D175">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E175">
         <v>1000</v>
@@ -6326,19 +6348,19 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>501</v>
+        <v>1005</v>
       </c>
       <c r="C176" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D176">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="E176">
         <v>1000</v>
       </c>
       <c r="F176">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -6349,13 +6371,13 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C177" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D177">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E177">
         <v>1000</v>
@@ -6372,13 +6394,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C178" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D178">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E178">
         <v>1000</v>
@@ -6395,13 +6417,13 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C179" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D179">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E179">
         <v>1000</v>
@@ -6418,13 +6440,13 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C180" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D180">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E180">
         <v>1000</v>
@@ -6441,22 +6463,22 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>700</v>
+        <v>505</v>
       </c>
       <c r="C181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D181">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E181">
         <v>1000</v>
       </c>
       <c r="F181">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
@@ -6464,13 +6486,13 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C182" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D182">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E182">
         <v>1000</v>
@@ -6487,13 +6509,13 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C183" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D183">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E183">
         <v>1000</v>
@@ -6510,13 +6532,13 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C184" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D184">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E184">
         <v>1000</v>
@@ -6533,13 +6555,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C185" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D185">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E185">
         <v>1000</v>
@@ -6556,13 +6578,13 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C186" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D186">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E186">
         <v>1000</v>
@@ -6579,33 +6601,21 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1044</v>
+        <v>705</v>
       </c>
       <c r="C187" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D187">
-        <v>7031</v>
+        <v>139</v>
       </c>
       <c r="E187">
         <v>1000</v>
       </c>
       <c r="F187">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G187">
-        <v>10</v>
-      </c>
-      <c r="H187">
-        <v>1001</v>
-      </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
-      <c r="J187">
-        <v>1015</v>
-      </c>
-      <c r="K187">
         <v>1</v>
       </c>
     </row>
@@ -6614,27 +6624,33 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C188" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D188">
-        <v>7033</v>
+        <v>7031</v>
       </c>
       <c r="E188">
         <v>1000</v>
       </c>
       <c r="F188">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H188">
-        <v>1036</v>
+        <v>1001</v>
       </c>
       <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>1015</v>
+      </c>
+      <c r="K188">
         <v>1</v>
       </c>
     </row>
@@ -6643,39 +6659,27 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C189" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D189">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="E189">
         <v>1000</v>
       </c>
       <c r="F189">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G189">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="I189">
-        <v>1</v>
-      </c>
-      <c r="J189">
-        <v>1032</v>
-      </c>
-      <c r="K189">
-        <v>1</v>
-      </c>
-      <c r="L189">
-        <v>1036</v>
-      </c>
-      <c r="M189">
         <v>1</v>
       </c>
     </row>
@@ -6684,37 +6688,37 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C190" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D190">
-        <v>7032</v>
+        <v>7034</v>
       </c>
       <c r="E190">
         <v>1000</v>
       </c>
       <c r="F190">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="G190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>1001</v>
+        <v>1031</v>
       </c>
       <c r="I190">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J190">
-        <v>1002</v>
+        <v>1032</v>
       </c>
       <c r="K190">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L190">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M190">
         <v>1</v>
@@ -6725,28 +6729,40 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1029</v>
+        <v>1045</v>
       </c>
       <c r="C191" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D191">
-        <v>7016</v>
+        <v>7032</v>
       </c>
       <c r="E191">
         <v>1000</v>
       </c>
       <c r="F191">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H191">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="J191">
+        <v>1002</v>
+      </c>
+      <c r="K191">
+        <v>20</v>
+      </c>
+      <c r="L191">
+        <v>1037</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
@@ -6754,118 +6770,118 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C192" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D192">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="E192">
         <v>1000</v>
       </c>
       <c r="F192">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G192">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="I192">
-        <v>1</v>
-      </c>
-      <c r="J192">
-        <v>1032</v>
-      </c>
-      <c r="K192">
-        <v>1</v>
-      </c>
-      <c r="L192">
-        <v>1016</v>
-      </c>
-      <c r="M192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193">
+        <v>1030</v>
+      </c>
+      <c r="C193" t="s">
+        <v>214</v>
+      </c>
+      <c r="D193">
+        <v>7017</v>
+      </c>
+      <c r="E193">
+        <v>1000</v>
+      </c>
+      <c r="F193">
+        <v>1030</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
         <v>1031</v>
       </c>
-      <c r="C193" t="s">
-        <v>215</v>
-      </c>
-      <c r="D193">
-        <v>7018</v>
-      </c>
-      <c r="E193">
-        <v>1000</v>
-      </c>
-      <c r="F193">
-        <v>1001</v>
-      </c>
-      <c r="G193">
-        <v>10</v>
-      </c>
-      <c r="H193">
-        <v>1014</v>
-      </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193">
-        <v>1019</v>
+        <v>1032</v>
       </c>
       <c r="K193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L193">
+        <v>1016</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C194" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D194">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="E194">
         <v>1000</v>
       </c>
       <c r="F194">
-        <v>1033</v>
+        <v>1001</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H194">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="I194">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1019</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C195" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D195">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="E195">
         <v>1000</v>
@@ -6883,18 +6899,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C196" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D196">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="E196">
         <v>1000</v>
@@ -6903,7 +6919,7 @@
         <v>1033</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196">
         <v>1001</v>
@@ -6912,18 +6928,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C197" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D197">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="E197">
         <v>1000</v>
@@ -6941,18 +6957,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C198" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D198">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="E198">
         <v>1000</v>
@@ -6970,18 +6986,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C199" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D199">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="E199">
         <v>1000</v>
@@ -6999,18 +7015,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C200" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D200">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="E200">
         <v>1000</v>
@@ -7028,18 +7044,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C201" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D201">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="E201">
         <v>1000</v>
@@ -7056,25 +7072,19 @@
       <c r="I201">
         <v>10</v>
       </c>
-      <c r="J201">
-        <v>1016</v>
-      </c>
-      <c r="K201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C202" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D202">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="E202">
         <v>1000</v>
@@ -7098,18 +7108,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C203" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D203">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="E203">
         <v>1000</v>
@@ -7133,18 +7143,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C204" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D204">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="E204">
         <v>1000</v>
@@ -7168,18 +7178,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C205" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D205">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="E205">
         <v>1000</v>
@@ -7200,6 +7210,41 @@
         <v>1016</v>
       </c>
       <c r="K205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>1043</v>
+      </c>
+      <c r="C206" t="s">
+        <v>227</v>
+      </c>
+      <c r="D206">
+        <v>7030</v>
+      </c>
+      <c r="E206">
+        <v>1000</v>
+      </c>
+      <c r="F206">
+        <v>1033</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>1001</v>
+      </c>
+      <c r="I206">
+        <v>10</v>
+      </c>
+      <c r="J206">
+        <v>1016</v>
+      </c>
+      <c r="K206">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3422FB4-1AC6-4A4B-9FAC-B953DC0EF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A49A06-0585-4233-9A60-FD791CC89B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="236">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -798,6 +798,41 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>サギョウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理台</t>
+    <rPh sb="0" eb="3">
+      <t>リョウリダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理１</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理２</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理３</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -938,8 +973,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N206" totalsRowShown="0">
-  <autoFilter ref="A1:N206" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N210" totalsRowShown="0">
+  <autoFilter ref="A1:N210" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -1257,13 +1292,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N206"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1770,34 +1805,22 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5007</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="D17">
-        <v>1008</v>
+        <v>10</v>
       </c>
       <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
         <v>1001</v>
       </c>
-      <c r="F17">
-        <v>1004</v>
-      </c>
       <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>1005</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <v>1001</v>
-      </c>
-      <c r="K17">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
@@ -1805,27 +1828,33 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E18">
         <v>1001</v>
       </c>
       <c r="F18">
+        <v>1004</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
         <v>1005</v>
       </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
-      <c r="H18">
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
         <v>1001</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>8</v>
       </c>
     </row>
@@ -1834,33 +1863,27 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E19">
         <v>1001</v>
       </c>
       <c r="F19">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H19">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>1001</v>
-      </c>
-      <c r="K19">
         <v>8</v>
       </c>
     </row>
@@ -1869,19 +1892,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E20">
         <v>1001</v>
       </c>
       <c r="F20">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -1904,22 +1927,34 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>251</v>
+        <v>5010</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>113</v>
+        <v>1011</v>
       </c>
       <c r="E21">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F21">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>1005</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1001</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
@@ -1927,28 +1962,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F22">
         <v>1013</v>
       </c>
       <c r="G22">
         <v>3</v>
-      </c>
-      <c r="H22">
-        <v>1001</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
@@ -1956,13 +1985,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23">
         <v>1001</v>
@@ -1978,12 +2007,6 @@
       </c>
       <c r="I23">
         <v>5</v>
-      </c>
-      <c r="J23">
-        <v>1002</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
@@ -1991,13 +2014,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24">
         <v>1001</v>
@@ -2015,10 +2038,10 @@
         <v>5</v>
       </c>
       <c r="J24">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
@@ -2026,28 +2049,34 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>400</v>
+        <v>602</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F25">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
       <c r="H25">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>1011</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
@@ -2055,28 +2084,28 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E26">
         <v>1000</v>
       </c>
       <c r="F26">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
@@ -2084,13 +2113,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2099,13 +2128,13 @@
         <v>1001</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>1009</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
@@ -2113,13 +2142,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -2128,6 +2157,12 @@
         <v>1001</v>
       </c>
       <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>1009</v>
+      </c>
+      <c r="I28">
         <v>2</v>
       </c>
     </row>
@@ -2136,22 +2171,22 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>506</v>
+        <v>1002</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>1000</v>
       </c>
       <c r="F29">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
@@ -2159,13 +2194,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E30">
         <v>1000</v>
@@ -2182,25 +2217,22 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1021</v>
+        <v>507</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31">
-        <v>3003</v>
+        <v>129</v>
       </c>
       <c r="E31">
         <v>1000</v>
       </c>
       <c r="F31">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G31">
-        <v>100</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
@@ -2208,28 +2240,25 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>20000</v>
+        <v>1021</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>10001</v>
+        <v>3003</v>
       </c>
       <c r="E32">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="F32">
         <v>1001</v>
       </c>
       <c r="G32">
-        <v>50</v>
-      </c>
-      <c r="H32">
-        <v>1002</v>
-      </c>
-      <c r="I32">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
@@ -2237,13 +2266,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>20001</v>
+        <v>20000</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="E33">
         <v>1008</v>
@@ -2266,13 +2295,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="E34">
         <v>1008</v>
@@ -2295,13 +2324,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>21000</v>
+        <v>20002</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="D35">
-        <v>11001</v>
+        <v>10003</v>
       </c>
       <c r="E35">
         <v>1008</v>
@@ -2324,28 +2353,28 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1006</v>
+        <v>21000</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="D36">
-        <v>200</v>
+        <v>11001</v>
       </c>
       <c r="E36">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F36">
         <v>1001</v>
       </c>
       <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>1002</v>
+      </c>
+      <c r="I36">
         <v>30</v>
-      </c>
-      <c r="H36">
-        <v>1018</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -2353,13 +2382,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E37">
         <v>1000</v>
@@ -2382,13 +2411,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E38">
         <v>1000</v>
@@ -2411,13 +2440,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39">
         <v>1000</v>
@@ -2440,13 +2469,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E40">
         <v>1000</v>
@@ -2469,13 +2498,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E41">
         <v>1000</v>
@@ -2498,13 +2527,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E42">
         <v>1000</v>
@@ -2527,13 +2556,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E43">
         <v>1000</v>
@@ -2556,13 +2585,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E44">
         <v>1000</v>
@@ -2585,13 +2614,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E45">
         <v>1000</v>
@@ -2614,13 +2643,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2100</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>24</v>
+        <v>1015</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
       </c>
       <c r="D46">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="E46">
         <v>1000</v>
@@ -2629,6 +2658,12 @@
         <v>1001</v>
       </c>
       <c r="G46">
+        <v>30</v>
+      </c>
+      <c r="H46">
+        <v>1018</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
     </row>
@@ -2637,13 +2672,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E47">
         <v>1000</v>
@@ -2660,13 +2695,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D48">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E48">
         <v>1000</v>
@@ -2683,13 +2718,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1016</v>
+        <v>2103</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E49">
         <v>1000</v>
@@ -2706,13 +2741,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E50">
         <v>1000</v>
@@ -2729,13 +2764,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D51">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E51">
         <v>1000</v>
@@ -2752,13 +2787,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D52">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E52">
         <v>1000</v>
@@ -2775,13 +2810,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E53">
         <v>1000</v>
@@ -2798,28 +2833,22 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2000</v>
+        <v>1020</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E54">
         <v>1000</v>
       </c>
       <c r="F54">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G54">
         <v>3</v>
-      </c>
-      <c r="H54">
-        <v>1020</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -2827,13 +2856,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E55">
         <v>1000</v>
@@ -2856,22 +2885,28 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2102</v>
+        <v>2001</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E56">
         <v>1000</v>
       </c>
       <c r="F56">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G56">
         <v>3</v>
+      </c>
+      <c r="H56">
+        <v>1020</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
@@ -2879,28 +2914,22 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2002</v>
+        <v>2102</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E57">
         <v>1000</v>
       </c>
       <c r="F57">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G57">
         <v>3</v>
-      </c>
-      <c r="H57">
-        <v>1020</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
@@ -2908,13 +2937,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E58">
         <v>1000</v>
@@ -2937,22 +2966,28 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2104</v>
+        <v>2003</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E59">
         <v>1000</v>
       </c>
       <c r="F59">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G59">
         <v>3</v>
+      </c>
+      <c r="H59">
+        <v>1020</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
@@ -2960,28 +2995,22 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2004</v>
+        <v>2104</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D60">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E60">
         <v>1000</v>
       </c>
       <c r="F60">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G60">
         <v>3</v>
-      </c>
-      <c r="H60">
-        <v>1020</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
@@ -2989,28 +3018,28 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>102</v>
+        <v>2004</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D61">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="E61">
         <v>1000</v>
       </c>
       <c r="F61">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -3018,13 +3047,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D62">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E62">
         <v>1000</v>
@@ -3047,13 +3076,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D63">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E63">
         <v>1000</v>
@@ -3076,13 +3105,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D64">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E64">
         <v>1000</v>
@@ -3105,22 +3134,28 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D65">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E65">
         <v>1000</v>
       </c>
       <c r="F65">
-        <v>1001</v>
+        <v>1026</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>1027</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
@@ -3128,22 +3163,22 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D66">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E66">
         <v>1000</v>
       </c>
       <c r="F66">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -3151,13 +3186,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D67">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E67">
         <v>1000</v>
@@ -3166,7 +3201,7 @@
         <v>1003</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
@@ -3174,28 +3209,22 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D68">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E68">
         <v>1000</v>
       </c>
       <c r="F68">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="G68">
-        <v>2</v>
-      </c>
-      <c r="H68">
-        <v>1027</v>
-      </c>
-      <c r="I68">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
@@ -3203,13 +3232,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D69">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E69">
         <v>1000</v>
@@ -3232,13 +3261,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>900</v>
+        <v>107</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D70">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E70">
         <v>1000</v>
@@ -3261,22 +3290,28 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>901</v>
-      </c>
-      <c r="C71" t="s">
-        <v>92</v>
+        <v>900</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D71">
-        <v>389</v>
+        <v>239</v>
       </c>
       <c r="E71">
         <v>1000</v>
       </c>
       <c r="F71">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>1027</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
@@ -3284,28 +3319,22 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1028</v>
+        <v>901</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D72">
-        <v>5000</v>
+        <v>389</v>
       </c>
       <c r="E72">
         <v>1000</v>
       </c>
       <c r="F72">
-        <v>1001</v>
+        <v>1035</v>
       </c>
       <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>1009</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
@@ -3313,25 +3342,25 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2005</v>
+        <v>1028</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D73">
-        <v>294</v>
+        <v>5000</v>
       </c>
       <c r="E73">
         <v>1000</v>
       </c>
       <c r="F73">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -3342,13 +3371,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D74">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E74">
         <v>1000</v>
@@ -3371,13 +3400,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E75">
         <v>1000</v>
@@ -3400,13 +3429,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E76">
         <v>1000</v>
@@ -3429,13 +3458,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D77">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E77">
         <v>1000</v>
@@ -3458,13 +3487,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D78">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E78">
         <v>1000</v>
@@ -3476,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="H78">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -3487,13 +3516,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D79">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E79">
         <v>1000</v>
@@ -3516,13 +3545,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D80">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E80">
         <v>1000</v>
@@ -3545,13 +3574,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E81">
         <v>1000</v>
@@ -3574,13 +3603,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D82">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E82">
         <v>1000</v>
@@ -3603,13 +3632,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D83">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E83">
         <v>1000</v>
@@ -3621,15 +3650,9 @@
         <v>3</v>
       </c>
       <c r="H83">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>1027</v>
-      </c>
-      <c r="K83">
         <v>1</v>
       </c>
     </row>
@@ -3638,13 +3661,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D84">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E84">
         <v>1000</v>
@@ -3673,13 +3696,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D85">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E85">
         <v>1000</v>
@@ -3708,13 +3731,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D86">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E86">
         <v>1000</v>
@@ -3743,13 +3766,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D87">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E87">
         <v>1000</v>
@@ -3778,13 +3801,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D88">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E88">
         <v>1000</v>
@@ -3796,9 +3819,15 @@
         <v>3</v>
       </c>
       <c r="H88">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1027</v>
+      </c>
+      <c r="K88">
         <v>1</v>
       </c>
     </row>
@@ -3807,13 +3836,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D89">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E89">
         <v>1000</v>
@@ -3836,13 +3865,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D90">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E90">
         <v>1000</v>
@@ -3865,13 +3894,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D91">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E91">
         <v>1000</v>
@@ -3894,13 +3923,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D92">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E92">
         <v>1000</v>
@@ -3923,13 +3952,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D93">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E93">
         <v>1000</v>
@@ -3941,7 +3970,7 @@
         <v>3</v>
       </c>
       <c r="H93">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -3952,13 +3981,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D94">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E94">
         <v>1000</v>
@@ -3981,13 +4010,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D95">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E95">
         <v>1000</v>
@@ -4010,13 +4039,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D96">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E96">
         <v>1000</v>
@@ -4039,13 +4068,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D97">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E97">
         <v>1000</v>
@@ -4068,13 +4097,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D98">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E98">
         <v>1000</v>
@@ -4086,7 +4115,7 @@
         <v>3</v>
       </c>
       <c r="H98">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -4097,13 +4126,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D99">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E99">
         <v>1000</v>
@@ -4126,13 +4155,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D100">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E100">
         <v>1000</v>
@@ -4155,13 +4184,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D101">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E101">
         <v>1000</v>
@@ -4184,13 +4213,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D102">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E102">
         <v>1000</v>
@@ -4213,13 +4242,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D103">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E103">
         <v>1000</v>
@@ -4231,7 +4260,7 @@
         <v>3</v>
       </c>
       <c r="H103">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -4242,13 +4271,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D104">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E104">
         <v>1000</v>
@@ -4271,13 +4300,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D105">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E105">
         <v>1000</v>
@@ -4300,13 +4329,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D106">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E106">
         <v>1000</v>
@@ -4329,13 +4358,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D107">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E107">
         <v>1000</v>
@@ -4358,13 +4387,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D108">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E108">
         <v>1000</v>
@@ -4376,7 +4405,7 @@
         <v>3</v>
       </c>
       <c r="H108">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -4387,13 +4416,13 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D109">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E109">
         <v>1000</v>
@@ -4416,13 +4445,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D110">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E110">
         <v>1000</v>
@@ -4445,13 +4474,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E111">
         <v>1000</v>
@@ -4474,13 +4503,13 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D112">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E112">
         <v>1000</v>
@@ -4503,13 +4532,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D113">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E113">
         <v>1000</v>
@@ -4521,7 +4550,7 @@
         <v>3</v>
       </c>
       <c r="H113">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -4532,13 +4561,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D114">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E114">
         <v>1000</v>
@@ -4561,13 +4590,13 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D115">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E115">
         <v>1000</v>
@@ -4590,13 +4619,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D116">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E116">
         <v>1000</v>
@@ -4619,13 +4648,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D117">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E117">
         <v>1000</v>
@@ -4648,13 +4677,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D118">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E118">
         <v>1000</v>
@@ -4666,10 +4695,10 @@
         <v>3</v>
       </c>
       <c r="H118">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.4">
@@ -4677,13 +4706,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D119">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E119">
         <v>1000</v>
@@ -4706,13 +4735,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D120">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E120">
         <v>1000</v>
@@ -4735,13 +4764,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D121">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E121">
         <v>1000</v>
@@ -4764,13 +4793,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D122">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E122">
         <v>1000</v>
@@ -4793,13 +4822,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D123">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E123">
         <v>1000</v>
@@ -4811,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="H123">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I123">
         <v>2</v>
@@ -4822,13 +4851,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D124">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E124">
         <v>1000</v>
@@ -4851,13 +4880,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D125">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E125">
         <v>1000</v>
@@ -4880,13 +4909,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D126">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E126">
         <v>1000</v>
@@ -4909,13 +4938,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D127">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E127">
         <v>1000</v>
@@ -4938,13 +4967,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D128">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E128">
         <v>1000</v>
@@ -4956,7 +4985,7 @@
         <v>3</v>
       </c>
       <c r="H128">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -4967,13 +4996,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D129">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E129">
         <v>1000</v>
@@ -4996,13 +5025,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D130">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E130">
         <v>1000</v>
@@ -5025,13 +5054,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C131" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D131">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E131">
         <v>1000</v>
@@ -5054,13 +5083,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C132" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D132">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E132">
         <v>1000</v>
@@ -5083,13 +5112,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C133" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D133">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E133">
         <v>1000</v>
@@ -5101,15 +5130,9 @@
         <v>3</v>
       </c>
       <c r="H133">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="I133">
-        <v>2</v>
-      </c>
-      <c r="J133">
-        <v>1027</v>
-      </c>
-      <c r="K133">
         <v>2</v>
       </c>
     </row>
@@ -5118,13 +5141,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C134" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D134">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E134">
         <v>1000</v>
@@ -5153,13 +5176,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C135" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D135">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E135">
         <v>1000</v>
@@ -5188,13 +5211,13 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D136">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E136">
         <v>1000</v>
@@ -5223,13 +5246,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D137">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E137">
         <v>1000</v>
@@ -5258,13 +5281,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D138">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E138">
         <v>1000</v>
@@ -5276,9 +5299,15 @@
         <v>3</v>
       </c>
       <c r="H138">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138">
+        <v>1027</v>
+      </c>
+      <c r="K138">
         <v>2</v>
       </c>
     </row>
@@ -5287,13 +5316,13 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D139">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E139">
         <v>1000</v>
@@ -5316,13 +5345,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D140">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E140">
         <v>1000</v>
@@ -5345,13 +5374,13 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D141">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E141">
         <v>1000</v>
@@ -5374,13 +5403,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C142" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D142">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E142">
         <v>1000</v>
@@ -5403,13 +5432,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C143" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D143">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E143">
         <v>1000</v>
@@ -5421,7 +5450,7 @@
         <v>3</v>
       </c>
       <c r="H143">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="I143">
         <v>2</v>
@@ -5432,13 +5461,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D144">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E144">
         <v>1000</v>
@@ -5461,13 +5490,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D145">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E145">
         <v>1000</v>
@@ -5490,13 +5519,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D146">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E146">
         <v>1000</v>
@@ -5519,13 +5548,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C147" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D147">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E147">
         <v>1000</v>
@@ -5548,13 +5577,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D148">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E148">
         <v>1000</v>
@@ -5566,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="H148">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I148">
         <v>2</v>
@@ -5577,13 +5606,13 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C149" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D149">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E149">
         <v>1000</v>
@@ -5606,13 +5635,13 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C150" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D150">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E150">
         <v>1000</v>
@@ -5635,13 +5664,13 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D151">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E151">
         <v>1000</v>
@@ -5664,13 +5693,13 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C152" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D152">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E152">
         <v>1000</v>
@@ -5693,13 +5722,13 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C153" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D153">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E153">
         <v>1000</v>
@@ -5711,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="H153">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="I153">
         <v>2</v>
@@ -5722,13 +5751,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C154" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D154">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E154">
         <v>1000</v>
@@ -5751,13 +5780,13 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C155" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D155">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E155">
         <v>1000</v>
@@ -5780,13 +5809,13 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D156">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E156">
         <v>1000</v>
@@ -5809,13 +5838,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C157" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D157">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E157">
         <v>1000</v>
@@ -5838,13 +5867,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D158">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E158">
         <v>1000</v>
@@ -5856,7 +5885,7 @@
         <v>3</v>
       </c>
       <c r="H158">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -5867,13 +5896,13 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D159">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E159">
         <v>1000</v>
@@ -5896,13 +5925,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C160" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D160">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E160">
         <v>1000</v>
@@ -5925,13 +5954,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C161" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D161">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E161">
         <v>1000</v>
@@ -5954,13 +5983,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C162" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D162">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E162">
         <v>1000</v>
@@ -5983,13 +6012,13 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C163" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D163">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E163">
         <v>1000</v>
@@ -6001,7 +6030,7 @@
         <v>3</v>
       </c>
       <c r="H163">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -6012,13 +6041,13 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C164" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D164">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E164">
         <v>1000</v>
@@ -6041,13 +6070,13 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C165" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D165">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E165">
         <v>1000</v>
@@ -6070,13 +6099,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C166" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D166">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E166">
         <v>1000</v>
@@ -6099,13 +6128,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C167" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D167">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E167">
         <v>1000</v>
@@ -6128,28 +6157,28 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1022</v>
+        <v>2099</v>
       </c>
       <c r="C168" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D168">
-        <v>4001</v>
+        <v>388</v>
       </c>
       <c r="E168">
         <v>1000</v>
       </c>
       <c r="F168">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="G168">
         <v>3</v>
       </c>
       <c r="H168">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
@@ -6157,13 +6186,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C169" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D169">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="E169">
         <v>1000</v>
@@ -6172,13 +6201,13 @@
         <v>1013</v>
       </c>
       <c r="G169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H169">
         <v>1017</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
@@ -6186,13 +6215,13 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C170" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D170">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="E170">
         <v>1000</v>
@@ -6201,13 +6230,13 @@
         <v>1013</v>
       </c>
       <c r="G170">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H170">
         <v>1017</v>
       </c>
       <c r="I170">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
@@ -6215,13 +6244,13 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C171" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D171">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="E171">
         <v>1000</v>
@@ -6230,13 +6259,13 @@
         <v>1013</v>
       </c>
       <c r="G171">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H171">
         <v>1017</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.4">
@@ -6244,13 +6273,13 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C172" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D172">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="E172">
         <v>1000</v>
@@ -6259,13 +6288,13 @@
         <v>1013</v>
       </c>
       <c r="G172">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H172">
         <v>1017</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.4">
@@ -6273,13 +6302,13 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C173" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D173">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="E173">
         <v>1000</v>
@@ -6288,13 +6317,13 @@
         <v>1013</v>
       </c>
       <c r="G173">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H173">
         <v>1017</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.4">
@@ -6302,22 +6331,28 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1003</v>
+        <v>1027</v>
       </c>
       <c r="C174" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D174">
-        <v>6</v>
+        <v>4006</v>
       </c>
       <c r="E174">
         <v>1000</v>
       </c>
       <c r="F174">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="H174">
+        <v>1017</v>
+      </c>
+      <c r="I174">
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.4">
@@ -6325,13 +6360,13 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C175" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D175">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E175">
         <v>1000</v>
@@ -6348,13 +6383,13 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C176" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D176">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E176">
         <v>1000</v>
@@ -6371,19 +6406,19 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>501</v>
+        <v>1005</v>
       </c>
       <c r="C177" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D177">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="E177">
         <v>1000</v>
       </c>
       <c r="F177">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -6394,13 +6429,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C178" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D178">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E178">
         <v>1000</v>
@@ -6417,13 +6452,13 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C179" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D179">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E179">
         <v>1000</v>
@@ -6440,13 +6475,13 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C180" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D180">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E180">
         <v>1000</v>
@@ -6463,13 +6498,13 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C181" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D181">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E181">
         <v>1000</v>
@@ -6486,22 +6521,22 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>700</v>
+        <v>505</v>
       </c>
       <c r="C182" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D182">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E182">
         <v>1000</v>
       </c>
       <c r="F182">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
@@ -6509,13 +6544,13 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C183" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D183">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E183">
         <v>1000</v>
@@ -6532,13 +6567,13 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C184" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D184">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E184">
         <v>1000</v>
@@ -6555,13 +6590,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C185" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D185">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E185">
         <v>1000</v>
@@ -6578,13 +6613,13 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C186" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D186">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E186">
         <v>1000</v>
@@ -6601,13 +6636,13 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C187" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D187">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E187">
         <v>1000</v>
@@ -6624,33 +6659,21 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1044</v>
+        <v>705</v>
       </c>
       <c r="C188" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D188">
-        <v>7031</v>
+        <v>139</v>
       </c>
       <c r="E188">
         <v>1000</v>
       </c>
       <c r="F188">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G188">
-        <v>10</v>
-      </c>
-      <c r="H188">
-        <v>1001</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-      <c r="J188">
-        <v>1015</v>
-      </c>
-      <c r="K188">
         <v>1</v>
       </c>
     </row>
@@ -6659,27 +6682,33 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C189" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D189">
-        <v>7033</v>
+        <v>7031</v>
       </c>
       <c r="E189">
         <v>1000</v>
       </c>
       <c r="F189">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H189">
-        <v>1036</v>
+        <v>1001</v>
       </c>
       <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>1015</v>
+      </c>
+      <c r="K189">
         <v>1</v>
       </c>
     </row>
@@ -6688,39 +6717,27 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C190" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D190">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="E190">
         <v>1000</v>
       </c>
       <c r="F190">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G190">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="I190">
-        <v>1</v>
-      </c>
-      <c r="J190">
-        <v>1032</v>
-      </c>
-      <c r="K190">
-        <v>1</v>
-      </c>
-      <c r="L190">
-        <v>1036</v>
-      </c>
-      <c r="M190">
         <v>1</v>
       </c>
     </row>
@@ -6729,37 +6746,37 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C191" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D191">
-        <v>7032</v>
+        <v>7034</v>
       </c>
       <c r="E191">
         <v>1000</v>
       </c>
       <c r="F191">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="G191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>1001</v>
+        <v>1031</v>
       </c>
       <c r="I191">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J191">
-        <v>1002</v>
+        <v>1032</v>
       </c>
       <c r="K191">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L191">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M191">
         <v>1</v>
@@ -6770,28 +6787,40 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1029</v>
+        <v>1045</v>
       </c>
       <c r="C192" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D192">
-        <v>7016</v>
+        <v>7032</v>
       </c>
       <c r="E192">
         <v>1000</v>
       </c>
       <c r="F192">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H192">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="J192">
+        <v>1002</v>
+      </c>
+      <c r="K192">
+        <v>20</v>
+      </c>
+      <c r="L192">
+        <v>1037</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
@@ -6799,40 +6828,28 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C193" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D193">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="E193">
         <v>1000</v>
       </c>
       <c r="F193">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G193">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="I193">
-        <v>1</v>
-      </c>
-      <c r="J193">
-        <v>1032</v>
-      </c>
-      <c r="K193">
-        <v>1</v>
-      </c>
-      <c r="L193">
-        <v>1016</v>
-      </c>
-      <c r="M193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
@@ -6840,33 +6857,39 @@
         <v>193</v>
       </c>
       <c r="B194">
+        <v>1030</v>
+      </c>
+      <c r="C194" t="s">
+        <v>214</v>
+      </c>
+      <c r="D194">
+        <v>7017</v>
+      </c>
+      <c r="E194">
+        <v>1000</v>
+      </c>
+      <c r="F194">
+        <v>1030</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
         <v>1031</v>
       </c>
-      <c r="C194" t="s">
-        <v>215</v>
-      </c>
-      <c r="D194">
-        <v>7018</v>
-      </c>
-      <c r="E194">
-        <v>1000</v>
-      </c>
-      <c r="F194">
-        <v>1001</v>
-      </c>
-      <c r="G194">
-        <v>10</v>
-      </c>
-      <c r="H194">
-        <v>1014</v>
-      </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194">
-        <v>1019</v>
+        <v>1032</v>
       </c>
       <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1016</v>
+      </c>
+      <c r="M194">
         <v>1</v>
       </c>
     </row>
@@ -6875,28 +6898,34 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C195" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D195">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="E195">
         <v>1000</v>
       </c>
       <c r="F195">
-        <v>1033</v>
+        <v>1001</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H195">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="I195">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1019</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
@@ -6904,13 +6933,13 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C196" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D196">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="E196">
         <v>1000</v>
@@ -6933,13 +6962,13 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C197" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D197">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="E197">
         <v>1000</v>
@@ -6948,7 +6977,7 @@
         <v>1033</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197">
         <v>1001</v>
@@ -6962,13 +6991,13 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C198" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D198">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="E198">
         <v>1000</v>
@@ -6991,13 +7020,13 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C199" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D199">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="E199">
         <v>1000</v>
@@ -7020,13 +7049,13 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C200" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D200">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="E200">
         <v>1000</v>
@@ -7049,13 +7078,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C201" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D201">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="E201">
         <v>1000</v>
@@ -7078,13 +7107,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C202" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D202">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="E202">
         <v>1000</v>
@@ -7100,12 +7129,6 @@
       </c>
       <c r="I202">
         <v>10</v>
-      </c>
-      <c r="J202">
-        <v>1016</v>
-      </c>
-      <c r="K202">
-        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
@@ -7113,13 +7136,13 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C203" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D203">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="E203">
         <v>1000</v>
@@ -7148,13 +7171,13 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C204" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D204">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="E204">
         <v>1000</v>
@@ -7183,13 +7206,13 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C205" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D205">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="E205">
         <v>1000</v>
@@ -7218,13 +7241,13 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C206" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D206">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="E206">
         <v>1000</v>
@@ -7245,6 +7268,110 @@
         <v>1016</v>
       </c>
       <c r="K206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>1043</v>
+      </c>
+      <c r="C207" t="s">
+        <v>227</v>
+      </c>
+      <c r="D207">
+        <v>7030</v>
+      </c>
+      <c r="E207">
+        <v>1000</v>
+      </c>
+      <c r="F207">
+        <v>1033</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>1001</v>
+      </c>
+      <c r="I207">
+        <v>10</v>
+      </c>
+      <c r="J207">
+        <v>1016</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>30001</v>
+      </c>
+      <c r="C208" t="s">
+        <v>233</v>
+      </c>
+      <c r="D208">
+        <v>30001</v>
+      </c>
+      <c r="E208">
+        <v>1009</v>
+      </c>
+      <c r="F208">
+        <v>2500</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>30002</v>
+      </c>
+      <c r="C209" t="s">
+        <v>234</v>
+      </c>
+      <c r="D209">
+        <v>30002</v>
+      </c>
+      <c r="E209">
+        <v>1009</v>
+      </c>
+      <c r="F209">
+        <v>2501</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>30003</v>
+      </c>
+      <c r="C210" t="s">
+        <v>235</v>
+      </c>
+      <c r="D210">
+        <v>30003</v>
+      </c>
+      <c r="E210">
+        <v>1009</v>
+      </c>
+      <c r="F210">
+        <v>2502</v>
+      </c>
+      <c r="G210">
         <v>1</v>
       </c>
     </row>
@@ -7345,10 +7472,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F13F98F-FDC5-42EF-AA90-6CBA20171543}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7377,6 +7504,14 @@
         <v>228</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1009</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A49A06-0585-4233-9A60-FD791CC89B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9041EE5-158F-45D9-89D3-DFEE0793B415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="240">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -816,32 +816,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料理１</t>
-    <rPh sb="0" eb="2">
-      <t>リョウリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>料理２</t>
-    <rPh sb="0" eb="2">
-      <t>リョウリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>料理３</t>
-    <rPh sb="0" eb="2">
-      <t>リョウリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>蒸したじゃがいも</t>
+  </si>
+  <si>
+    <t>もやし</t>
+  </si>
+  <si>
+    <t>大根サラダ</t>
+  </si>
+  <si>
+    <t>ほうれん草のおひたし</t>
+  </si>
+  <si>
+    <t>枝豆</t>
+  </si>
+  <si>
+    <t>納豆</t>
+  </si>
+  <si>
+    <t>パン</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,6 +871,13 @@
       <color theme="1"/>
       <name val="メイリオ"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -939,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,6 +960,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,8 +983,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N210" totalsRowShown="0">
-  <autoFilter ref="A1:N210" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N214" totalsRowShown="0">
+  <autoFilter ref="A1:N214" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -1292,13 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F211" sqref="F211"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="Q208" sqref="Q208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7313,7 +7320,7 @@
       <c r="B208">
         <v>30001</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="5" t="s">
         <v>233</v>
       </c>
       <c r="D208">
@@ -7323,20 +7330,20 @@
         <v>1009</v>
       </c>
       <c r="F208">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="G208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209">
         <v>30002</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="5" t="s">
         <v>234</v>
       </c>
       <c r="D209">
@@ -7346,20 +7353,20 @@
         <v>1009</v>
       </c>
       <c r="F209">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="G209">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210">
         <v>30003</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="5" t="s">
         <v>235</v>
       </c>
       <c r="D210">
@@ -7369,10 +7376,108 @@
         <v>1009</v>
       </c>
       <c r="F210">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H210">
+        <v>30002</v>
+      </c>
+      <c r="I210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>30004</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D211">
+        <v>30004</v>
+      </c>
+      <c r="E211">
+        <v>1009</v>
+      </c>
+      <c r="F211">
+        <v>2504</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>30005</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D212">
+        <v>30005</v>
+      </c>
+      <c r="E212">
+        <v>1009</v>
+      </c>
+      <c r="F212">
+        <v>2503</v>
+      </c>
+      <c r="G212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>30006</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D213">
+        <v>30006</v>
+      </c>
+      <c r="E213">
+        <v>1009</v>
+      </c>
+      <c r="F213">
+        <v>2503</v>
+      </c>
+      <c r="G213">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>30007</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D214">
+        <v>30007</v>
+      </c>
+      <c r="E214">
+        <v>1009</v>
+      </c>
+      <c r="F214">
+        <v>2500</v>
+      </c>
+      <c r="G214">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9041EE5-158F-45D9-89D3-DFEE0793B415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B2A538-C8A4-47C2-8E02-F3028CA89F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="2235" yWindow="2955" windowWidth="21690" windowHeight="12525" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="251">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -785,23 +785,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>服</t>
-    <rPh sb="0" eb="1">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>装備作業台</t>
-    <rPh sb="0" eb="2">
-      <t>ソウビ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>サギョウダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>料理</t>
     <rPh sb="0" eb="2">
       <t>リョウリ</t>
@@ -835,6 +818,53 @@
   </si>
   <si>
     <t>パン</t>
+  </si>
+  <si>
+    <t>鍛治台</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理性の杖</t>
+  </si>
+  <si>
+    <t>エイムボウ</t>
+  </si>
+  <si>
+    <t>石の剣</t>
+  </si>
+  <si>
+    <t>知力の杖</t>
+  </si>
+  <si>
+    <t>上弦の弓</t>
+  </si>
+  <si>
+    <t>スチールソード</t>
+  </si>
+  <si>
+    <t>スプーンロッド</t>
+  </si>
+  <si>
+    <t>鉄の弓</t>
+  </si>
+  <si>
+    <t>達筆剣</t>
+  </si>
+  <si>
+    <t>夜明けの弓</t>
+  </si>
+  <si>
+    <t>番傘杖</t>
+  </si>
+  <si>
+    <t>カトラス</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -946,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,6 +993,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,8 +1016,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N214" totalsRowShown="0">
-  <autoFilter ref="A1:N214" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N225" totalsRowShown="0">
+  <autoFilter ref="A1:N225" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -1302,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N214"/>
+  <dimension ref="A1:N225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="Q208" sqref="Q208"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1780,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -1789,22 +1822,10 @@
         <v>1000</v>
       </c>
       <c r="F16">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16">
-        <v>1003</v>
-      </c>
-      <c r="I16">
-        <v>20</v>
-      </c>
-      <c r="J16">
-        <v>1009</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
@@ -1815,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -1827,7 +1848,13 @@
         <v>1001</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>1009</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
@@ -2360,28 +2387,22 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>21000</v>
-      </c>
-      <c r="C36" t="s">
-        <v>229</v>
+        <v>20003</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="D36">
-        <v>11001</v>
+        <v>10004</v>
       </c>
       <c r="E36">
         <v>1008</v>
       </c>
       <c r="F36">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G36">
         <v>50</v>
-      </c>
-      <c r="H36">
-        <v>1002</v>
-      </c>
-      <c r="I36">
-        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -2389,27 +2410,21 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1006</v>
-      </c>
-      <c r="C37" t="s">
-        <v>80</v>
+        <v>20004</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="D37">
-        <v>200</v>
+        <v>10005</v>
       </c>
       <c r="E37">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F37">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="G37">
-        <v>30</v>
-      </c>
-      <c r="H37">
-        <v>1018</v>
-      </c>
-      <c r="I37">
         <v>3</v>
       </c>
     </row>
@@ -2418,27 +2433,21 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1007</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
+        <v>20005</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="D38">
-        <v>201</v>
+        <v>10006</v>
       </c>
       <c r="E38">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F38">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="G38">
-        <v>30</v>
-      </c>
-      <c r="H38">
-        <v>1018</v>
-      </c>
-      <c r="I38">
         <v>3</v>
       </c>
     </row>
@@ -2447,27 +2456,21 @@
         <v>38</v>
       </c>
       <c r="B39">
+        <v>20006</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39">
+        <v>10007</v>
+      </c>
+      <c r="E39">
         <v>1008</v>
       </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39">
-        <v>202</v>
-      </c>
-      <c r="E39">
-        <v>1000</v>
-      </c>
       <c r="F39">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="G39">
-        <v>30</v>
-      </c>
-      <c r="H39">
-        <v>1018</v>
-      </c>
-      <c r="I39">
         <v>3</v>
       </c>
     </row>
@@ -2476,27 +2479,21 @@
         <v>39</v>
       </c>
       <c r="B40">
+        <v>20007</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40">
+        <v>10008</v>
+      </c>
+      <c r="E40">
+        <v>1008</v>
+      </c>
+      <c r="F40">
         <v>1009</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40">
-        <v>203</v>
-      </c>
-      <c r="E40">
-        <v>1000</v>
-      </c>
-      <c r="F40">
-        <v>1001</v>
-      </c>
       <c r="G40">
-        <v>30</v>
-      </c>
-      <c r="H40">
-        <v>1018</v>
-      </c>
-      <c r="I40">
         <v>3</v>
       </c>
     </row>
@@ -2505,27 +2502,21 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1010</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
+        <v>20008</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="D41">
-        <v>204</v>
+        <v>10009</v>
       </c>
       <c r="E41">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F41">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="G41">
-        <v>30</v>
-      </c>
-      <c r="H41">
-        <v>1018</v>
-      </c>
-      <c r="I41">
         <v>3</v>
       </c>
     </row>
@@ -2534,27 +2525,21 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1011</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
+        <v>20009</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="D42">
-        <v>205</v>
+        <v>10022</v>
       </c>
       <c r="E42">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F42">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="G42">
-        <v>30</v>
-      </c>
-      <c r="H42">
-        <v>1018</v>
-      </c>
-      <c r="I42">
         <v>3</v>
       </c>
     </row>
@@ -2563,27 +2548,21 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1012</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
+        <v>20010</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="D43">
-        <v>206</v>
+        <v>10023</v>
       </c>
       <c r="E43">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F43">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="G43">
-        <v>30</v>
-      </c>
-      <c r="H43">
-        <v>1018</v>
-      </c>
-      <c r="I43">
         <v>3</v>
       </c>
     </row>
@@ -2592,27 +2571,21 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1013</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
+        <v>20011</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="D44">
-        <v>207</v>
+        <v>10024</v>
       </c>
       <c r="E44">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F44">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="G44">
-        <v>30</v>
-      </c>
-      <c r="H44">
-        <v>1018</v>
-      </c>
-      <c r="I44">
         <v>3</v>
       </c>
     </row>
@@ -2621,28 +2594,28 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1014</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
+        <v>20012</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="D45">
-        <v>208</v>
+        <v>10031</v>
       </c>
       <c r="E45">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F45">
+        <v>1009</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
         <v>1001</v>
       </c>
-      <c r="G45">
-        <v>30</v>
-      </c>
-      <c r="H45">
-        <v>1018</v>
-      </c>
       <c r="I45">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -2650,28 +2623,28 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1015</v>
-      </c>
-      <c r="C46" t="s">
-        <v>89</v>
+        <v>20013</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="D46">
-        <v>209</v>
+        <v>10032</v>
       </c>
       <c r="E46">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F46">
+        <v>1009</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
         <v>1001</v>
       </c>
-      <c r="G46">
-        <v>30</v>
-      </c>
-      <c r="H46">
-        <v>1018</v>
-      </c>
       <c r="I46">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -2679,22 +2652,28 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2100</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>24</v>
+        <v>20014</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="D47">
-        <v>278</v>
+        <v>10033</v>
       </c>
       <c r="E47">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F47">
+        <v>1009</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
         <v>1001</v>
       </c>
-      <c r="G47">
-        <v>3</v>
+      <c r="I47">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -2702,13 +2681,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2101</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>90</v>
+        <v>1006</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
       </c>
       <c r="D48">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="E48">
         <v>1000</v>
@@ -2717,6 +2696,12 @@
         <v>1001</v>
       </c>
       <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="H48">
+        <v>1018</v>
+      </c>
+      <c r="I48">
         <v>3</v>
       </c>
     </row>
@@ -2725,13 +2710,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2103</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>25</v>
+        <v>1007</v>
+      </c>
+      <c r="C49" t="s">
+        <v>81</v>
       </c>
       <c r="D49">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="E49">
         <v>1000</v>
@@ -2740,6 +2725,12 @@
         <v>1001</v>
       </c>
       <c r="G49">
+        <v>30</v>
+      </c>
+      <c r="H49">
+        <v>1018</v>
+      </c>
+      <c r="I49">
         <v>3</v>
       </c>
     </row>
@@ -2748,13 +2739,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1016</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>26</v>
+        <v>1008</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
       </c>
       <c r="D50">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="E50">
         <v>1000</v>
@@ -2763,6 +2754,12 @@
         <v>1001</v>
       </c>
       <c r="G50">
+        <v>30</v>
+      </c>
+      <c r="H50">
+        <v>1018</v>
+      </c>
+      <c r="I50">
         <v>3</v>
       </c>
     </row>
@@ -2771,13 +2768,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1017</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>27</v>
+        <v>1009</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
       </c>
       <c r="D51">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="E51">
         <v>1000</v>
@@ -2786,6 +2783,12 @@
         <v>1001</v>
       </c>
       <c r="G51">
+        <v>30</v>
+      </c>
+      <c r="H51">
+        <v>1018</v>
+      </c>
+      <c r="I51">
         <v>3</v>
       </c>
     </row>
@@ -2794,13 +2797,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1018</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>91</v>
+        <v>1010</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
       </c>
       <c r="D52">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="E52">
         <v>1000</v>
@@ -2809,6 +2812,12 @@
         <v>1001</v>
       </c>
       <c r="G52">
+        <v>30</v>
+      </c>
+      <c r="H52">
+        <v>1018</v>
+      </c>
+      <c r="I52">
         <v>3</v>
       </c>
     </row>
@@ -2817,13 +2826,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1019</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>28</v>
+        <v>1011</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
       </c>
       <c r="D53">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="E53">
         <v>1000</v>
@@ -2832,6 +2841,12 @@
         <v>1001</v>
       </c>
       <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="H53">
+        <v>1018</v>
+      </c>
+      <c r="I53">
         <v>3</v>
       </c>
     </row>
@@ -2840,13 +2855,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1020</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>29</v>
+        <v>1012</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
       </c>
       <c r="D54">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="E54">
         <v>1000</v>
@@ -2855,6 +2870,12 @@
         <v>1001</v>
       </c>
       <c r="G54">
+        <v>30</v>
+      </c>
+      <c r="H54">
+        <v>1018</v>
+      </c>
+      <c r="I54">
         <v>3</v>
       </c>
     </row>
@@ -2863,28 +2884,28 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2000</v>
-      </c>
-      <c r="C55" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55">
+        <v>207</v>
+      </c>
+      <c r="E55">
+        <v>1000</v>
+      </c>
+      <c r="F55">
+        <v>1001</v>
+      </c>
+      <c r="G55">
         <v>30</v>
       </c>
-      <c r="D55">
-        <v>287</v>
-      </c>
-      <c r="E55">
-        <v>1000</v>
-      </c>
-      <c r="F55">
-        <v>1003</v>
-      </c>
-      <c r="G55">
-        <v>3</v>
-      </c>
       <c r="H55">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -2892,28 +2913,28 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2001</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>31</v>
+        <v>1014</v>
+      </c>
+      <c r="C56" t="s">
+        <v>88</v>
       </c>
       <c r="D56">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="E56">
         <v>1000</v>
       </c>
       <c r="F56">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
@@ -2921,13 +2942,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2102</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>32</v>
+        <v>1015</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
       </c>
       <c r="D57">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="E57">
         <v>1000</v>
@@ -2936,6 +2957,12 @@
         <v>1001</v>
       </c>
       <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57">
+        <v>1018</v>
+      </c>
+      <c r="I57">
         <v>3</v>
       </c>
     </row>
@@ -2944,28 +2971,22 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2002</v>
+        <v>2100</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E58">
         <v>1000</v>
       </c>
       <c r="F58">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G58">
         <v>3</v>
-      </c>
-      <c r="H58">
-        <v>1020</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -2973,28 +2994,22 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2003</v>
+        <v>2101</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D59">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E59">
         <v>1000</v>
       </c>
       <c r="F59">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G59">
         <v>3</v>
-      </c>
-      <c r="H59">
-        <v>1020</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
@@ -3002,13 +3017,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D60">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E60">
         <v>1000</v>
@@ -3025,28 +3040,22 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2004</v>
+        <v>1016</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D61">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E61">
         <v>1000</v>
       </c>
       <c r="F61">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G61">
         <v>3</v>
-      </c>
-      <c r="H61">
-        <v>1020</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -3054,28 +3063,22 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>102</v>
+        <v>1017</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D62">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="E62">
         <v>1000</v>
       </c>
       <c r="F62">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="H62">
-        <v>1027</v>
-      </c>
-      <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
@@ -3083,28 +3086,22 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>103</v>
+        <v>1018</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D63">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="E63">
         <v>1000</v>
       </c>
       <c r="F63">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="G63">
-        <v>2</v>
-      </c>
-      <c r="H63">
-        <v>1027</v>
-      </c>
-      <c r="I63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -3112,28 +3109,22 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>104</v>
+        <v>1019</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="E64">
         <v>1000</v>
       </c>
       <c r="F64">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="G64">
-        <v>2</v>
-      </c>
-      <c r="H64">
-        <v>1027</v>
-      </c>
-      <c r="I64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
@@ -3141,28 +3132,22 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>105</v>
+        <v>1020</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D65">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="E65">
         <v>1000</v>
       </c>
       <c r="F65">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>1027</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
@@ -3170,22 +3155,28 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>203</v>
+        <v>2000</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D66">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="E66">
         <v>1000</v>
       </c>
       <c r="F66">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G66">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>1020</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -3193,13 +3184,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>108</v>
+        <v>2001</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D67">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="E67">
         <v>1000</v>
@@ -3209,6 +3200,12 @@
       </c>
       <c r="G67">
         <v>3</v>
+      </c>
+      <c r="H67">
+        <v>1020</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
@@ -3216,22 +3213,22 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>109</v>
+        <v>2102</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D68">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="E68">
         <v>1000</v>
       </c>
       <c r="F68">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
@@ -3239,28 +3236,28 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>106</v>
+        <v>2002</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D69">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="E69">
         <v>1000</v>
       </c>
       <c r="F69">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -3268,28 +3265,28 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>107</v>
+        <v>2003</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D70">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="E70">
         <v>1000</v>
       </c>
       <c r="F70">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
@@ -3297,28 +3294,22 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>900</v>
+        <v>2104</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D71">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="E71">
         <v>1000</v>
       </c>
       <c r="F71">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="G71">
-        <v>2</v>
-      </c>
-      <c r="H71">
-        <v>1027</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
@@ -3326,22 +3317,28 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>901</v>
-      </c>
-      <c r="C72" t="s">
-        <v>92</v>
+        <v>2004</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D72">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="E72">
         <v>1000</v>
       </c>
       <c r="F72">
-        <v>1035</v>
+        <v>1003</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>1020</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
@@ -3349,28 +3346,28 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1028</v>
-      </c>
-      <c r="C73" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D73">
-        <v>5000</v>
+        <v>230</v>
       </c>
       <c r="E73">
         <v>1000</v>
       </c>
       <c r="F73">
-        <v>1001</v>
+        <v>1026</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
@@ -3378,28 +3375,28 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2005</v>
-      </c>
-      <c r="C74" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D74">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="E74">
         <v>1000</v>
       </c>
       <c r="F74">
-        <v>1003</v>
+        <v>1026</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
@@ -3407,28 +3404,28 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2006</v>
-      </c>
-      <c r="C75" t="s">
-        <v>95</v>
+        <v>104</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D75">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="E75">
         <v>1000</v>
       </c>
       <c r="F75">
-        <v>1003</v>
+        <v>1026</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
@@ -3436,28 +3433,28 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2007</v>
-      </c>
-      <c r="C76" t="s">
-        <v>96</v>
+        <v>105</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D76">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="E76">
         <v>1000</v>
       </c>
       <c r="F76">
-        <v>1003</v>
+        <v>1026</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
@@ -3465,28 +3462,22 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2008</v>
-      </c>
-      <c r="C77" t="s">
-        <v>97</v>
+        <v>203</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D77">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="E77">
         <v>1000</v>
       </c>
       <c r="F77">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G77">
-        <v>3</v>
-      </c>
-      <c r="H77">
-        <v>1011</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
@@ -3494,13 +3485,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2009</v>
-      </c>
-      <c r="C78" t="s">
-        <v>98</v>
+        <v>108</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D78">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="E78">
         <v>1000</v>
@@ -3510,12 +3501,6 @@
       </c>
       <c r="G78">
         <v>3</v>
-      </c>
-      <c r="H78">
-        <v>1011</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
@@ -3523,13 +3508,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2010</v>
-      </c>
-      <c r="C79" t="s">
-        <v>99</v>
+        <v>109</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D79">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="E79">
         <v>1000</v>
@@ -3538,13 +3523,7 @@
         <v>1003</v>
       </c>
       <c r="G79">
-        <v>3</v>
-      </c>
-      <c r="H79">
-        <v>1014</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
@@ -3552,28 +3531,28 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2011</v>
-      </c>
-      <c r="C80" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D80">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="E80">
         <v>1000</v>
       </c>
       <c r="F80">
-        <v>1003</v>
+        <v>1026</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
@@ -3581,28 +3560,28 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2012</v>
-      </c>
-      <c r="C81" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D81">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="E81">
         <v>1000</v>
       </c>
       <c r="F81">
-        <v>1003</v>
+        <v>1026</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
@@ -3610,28 +3589,28 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2013</v>
-      </c>
-      <c r="C82" t="s">
-        <v>102</v>
+        <v>900</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D82">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="E82">
         <v>1000</v>
       </c>
       <c r="F82">
-        <v>1003</v>
+        <v>1026</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
@@ -3639,28 +3618,22 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2014</v>
+        <v>901</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D83">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="E83">
         <v>1000</v>
       </c>
       <c r="F83">
-        <v>1003</v>
+        <v>1035</v>
       </c>
       <c r="G83">
-        <v>3</v>
-      </c>
-      <c r="H83">
-        <v>1014</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
@@ -3668,33 +3641,27 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2015</v>
+        <v>1028</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D84">
-        <v>304</v>
+        <v>5000</v>
       </c>
       <c r="E84">
         <v>1000</v>
       </c>
       <c r="F84">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <v>1027</v>
-      </c>
-      <c r="K84">
         <v>1</v>
       </c>
     </row>
@@ -3703,13 +3670,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D85">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E85">
         <v>1000</v>
@@ -3721,15 +3688,9 @@
         <v>3</v>
       </c>
       <c r="H85">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>1027</v>
-      </c>
-      <c r="K85">
         <v>1</v>
       </c>
     </row>
@@ -3738,13 +3699,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D86">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E86">
         <v>1000</v>
@@ -3756,15 +3717,9 @@
         <v>3</v>
       </c>
       <c r="H86">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>1027</v>
-      </c>
-      <c r="K86">
         <v>1</v>
       </c>
     </row>
@@ -3773,13 +3728,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D87">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E87">
         <v>1000</v>
@@ -3791,15 +3746,9 @@
         <v>3</v>
       </c>
       <c r="H87">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <v>1027</v>
-      </c>
-      <c r="K87">
         <v>1</v>
       </c>
     </row>
@@ -3808,13 +3757,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D88">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E88">
         <v>1000</v>
@@ -3826,15 +3775,9 @@
         <v>3</v>
       </c>
       <c r="H88">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>1027</v>
-      </c>
-      <c r="K88">
         <v>1</v>
       </c>
     </row>
@@ -3843,13 +3786,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D89">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E89">
         <v>1000</v>
@@ -3861,7 +3804,7 @@
         <v>3</v>
       </c>
       <c r="H89">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3872,13 +3815,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D90">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E90">
         <v>1000</v>
@@ -3890,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="H90">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3901,13 +3844,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D91">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E91">
         <v>1000</v>
@@ -3919,7 +3862,7 @@
         <v>3</v>
       </c>
       <c r="H91">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3930,13 +3873,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D92">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E92">
         <v>1000</v>
@@ -3948,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="H92">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -3959,13 +3902,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D93">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E93">
         <v>1000</v>
@@ -3977,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="H93">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -3988,13 +3931,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D94">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E94">
         <v>1000</v>
@@ -4006,7 +3949,7 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -4017,13 +3960,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2026</v>
+        <v>2015</v>
       </c>
       <c r="C95" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D95">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E95">
         <v>1000</v>
@@ -4035,9 +3978,15 @@
         <v>3</v>
       </c>
       <c r="H95">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1027</v>
+      </c>
+      <c r="K95">
         <v>1</v>
       </c>
     </row>
@@ -4046,13 +3995,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2027</v>
+        <v>2016</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D96">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E96">
         <v>1000</v>
@@ -4064,24 +4013,30 @@
         <v>3</v>
       </c>
       <c r="H96">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J96">
+        <v>1027</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2028</v>
+        <v>2017</v>
       </c>
       <c r="C97" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D97">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E97">
         <v>1000</v>
@@ -4093,24 +4048,30 @@
         <v>3</v>
       </c>
       <c r="H97">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J97">
+        <v>1027</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2029</v>
+        <v>2018</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D98">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E98">
         <v>1000</v>
@@ -4122,24 +4083,30 @@
         <v>3</v>
       </c>
       <c r="H98">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J98">
+        <v>1027</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="C99" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D99">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E99">
         <v>1000</v>
@@ -4151,24 +4118,30 @@
         <v>3</v>
       </c>
       <c r="H99">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J99">
+        <v>1027</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D100">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E100">
         <v>1000</v>
@@ -4180,24 +4153,24 @@
         <v>3</v>
       </c>
       <c r="H100">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2032</v>
+        <v>2021</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D101">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E101">
         <v>1000</v>
@@ -4209,24 +4182,24 @@
         <v>3</v>
       </c>
       <c r="H101">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>2033</v>
+        <v>2022</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D102">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E102">
         <v>1000</v>
@@ -4238,24 +4211,24 @@
         <v>3</v>
       </c>
       <c r="H102">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2034</v>
+        <v>2023</v>
       </c>
       <c r="C103" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D103">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E103">
         <v>1000</v>
@@ -4267,24 +4240,24 @@
         <v>3</v>
       </c>
       <c r="H103">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2035</v>
+        <v>2024</v>
       </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D104">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E104">
         <v>1000</v>
@@ -4296,24 +4269,24 @@
         <v>3</v>
       </c>
       <c r="H104">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>2036</v>
+        <v>2025</v>
       </c>
       <c r="C105" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D105">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E105">
         <v>1000</v>
@@ -4325,24 +4298,24 @@
         <v>3</v>
       </c>
       <c r="H105">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C106" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D106">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E106">
         <v>1000</v>
@@ -4354,24 +4327,24 @@
         <v>3</v>
       </c>
       <c r="H106">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>2038</v>
+        <v>2027</v>
       </c>
       <c r="C107" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D107">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E107">
         <v>1000</v>
@@ -4383,24 +4356,24 @@
         <v>3</v>
       </c>
       <c r="H107">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>2039</v>
+        <v>2028</v>
       </c>
       <c r="C108" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D108">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E108">
         <v>1000</v>
@@ -4412,24 +4385,24 @@
         <v>3</v>
       </c>
       <c r="H108">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>2040</v>
+        <v>2029</v>
       </c>
       <c r="C109" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D109">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E109">
         <v>1000</v>
@@ -4441,24 +4414,24 @@
         <v>3</v>
       </c>
       <c r="H109">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2041</v>
+        <v>2030</v>
       </c>
       <c r="C110" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D110">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E110">
         <v>1000</v>
@@ -4470,24 +4443,24 @@
         <v>3</v>
       </c>
       <c r="H110">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>2042</v>
+        <v>2031</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D111">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E111">
         <v>1000</v>
@@ -4499,24 +4472,24 @@
         <v>3</v>
       </c>
       <c r="H111">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>2043</v>
+        <v>2032</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D112">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E112">
         <v>1000</v>
@@ -4528,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="H112">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -4539,13 +4512,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2044</v>
+        <v>2033</v>
       </c>
       <c r="C113" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D113">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E113">
         <v>1000</v>
@@ -4557,7 +4530,7 @@
         <v>3</v>
       </c>
       <c r="H113">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -4568,13 +4541,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2045</v>
+        <v>2034</v>
       </c>
       <c r="C114" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D114">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E114">
         <v>1000</v>
@@ -4586,7 +4559,7 @@
         <v>3</v>
       </c>
       <c r="H114">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -4597,13 +4570,13 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2046</v>
+        <v>2035</v>
       </c>
       <c r="C115" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D115">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E115">
         <v>1000</v>
@@ -4615,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="H115">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -4626,13 +4599,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2047</v>
+        <v>2036</v>
       </c>
       <c r="C116" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D116">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E116">
         <v>1000</v>
@@ -4644,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="H116">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -4655,13 +4628,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>2048</v>
+        <v>2037</v>
       </c>
       <c r="C117" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D117">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E117">
         <v>1000</v>
@@ -4673,7 +4646,7 @@
         <v>3</v>
       </c>
       <c r="H117">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -4684,13 +4657,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2049</v>
+        <v>2038</v>
       </c>
       <c r="C118" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D118">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E118">
         <v>1000</v>
@@ -4702,7 +4675,7 @@
         <v>3</v>
       </c>
       <c r="H118">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -4713,13 +4686,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>2050</v>
+        <v>2039</v>
       </c>
       <c r="C119" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D119">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E119">
         <v>1000</v>
@@ -4734,7 +4707,7 @@
         <v>1020</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.4">
@@ -4742,13 +4715,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>2051</v>
+        <v>2040</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D120">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E120">
         <v>1000</v>
@@ -4760,10 +4733,10 @@
         <v>3</v>
       </c>
       <c r="H120">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.4">
@@ -4771,13 +4744,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>2052</v>
+        <v>2041</v>
       </c>
       <c r="C121" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D121">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E121">
         <v>1000</v>
@@ -4789,10 +4762,10 @@
         <v>3</v>
       </c>
       <c r="H121">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.4">
@@ -4800,13 +4773,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2053</v>
+        <v>2042</v>
       </c>
       <c r="C122" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D122">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E122">
         <v>1000</v>
@@ -4818,10 +4791,10 @@
         <v>3</v>
       </c>
       <c r="H122">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.4">
@@ -4829,13 +4802,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2054</v>
+        <v>2043</v>
       </c>
       <c r="C123" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D123">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E123">
         <v>1000</v>
@@ -4847,10 +4820,10 @@
         <v>3</v>
       </c>
       <c r="H123">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
@@ -4858,13 +4831,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2055</v>
+        <v>2044</v>
       </c>
       <c r="C124" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D124">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E124">
         <v>1000</v>
@@ -4879,7 +4852,7 @@
         <v>1022</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.4">
@@ -4887,13 +4860,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>2056</v>
+        <v>2045</v>
       </c>
       <c r="C125" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D125">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E125">
         <v>1000</v>
@@ -4905,10 +4878,10 @@
         <v>3</v>
       </c>
       <c r="H125">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.4">
@@ -4916,13 +4889,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2057</v>
+        <v>2046</v>
       </c>
       <c r="C126" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D126">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E126">
         <v>1000</v>
@@ -4934,10 +4907,10 @@
         <v>3</v>
       </c>
       <c r="H126">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
@@ -4945,13 +4918,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2058</v>
+        <v>2047</v>
       </c>
       <c r="C127" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D127">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E127">
         <v>1000</v>
@@ -4963,10 +4936,10 @@
         <v>3</v>
       </c>
       <c r="H127">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
@@ -4974,13 +4947,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2059</v>
+        <v>2048</v>
       </c>
       <c r="C128" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D128">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E128">
         <v>1000</v>
@@ -4992,24 +4965,24 @@
         <v>3</v>
       </c>
       <c r="H128">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="I128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2060</v>
+        <v>2049</v>
       </c>
       <c r="C129" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D129">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E129">
         <v>1000</v>
@@ -5021,24 +4994,24 @@
         <v>3</v>
       </c>
       <c r="H129">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="I129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2061</v>
+        <v>2050</v>
       </c>
       <c r="C130" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D130">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E130">
         <v>1000</v>
@@ -5050,24 +5023,24 @@
         <v>3</v>
       </c>
       <c r="H130">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="I130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2062</v>
+        <v>2051</v>
       </c>
       <c r="C131" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D131">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E131">
         <v>1000</v>
@@ -5079,24 +5052,24 @@
         <v>3</v>
       </c>
       <c r="H131">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2063</v>
+        <v>2052</v>
       </c>
       <c r="C132" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D132">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="E132">
         <v>1000</v>
@@ -5108,24 +5081,24 @@
         <v>3</v>
       </c>
       <c r="H132">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>2064</v>
+        <v>2053</v>
       </c>
       <c r="C133" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D133">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E133">
         <v>1000</v>
@@ -5137,24 +5110,24 @@
         <v>3</v>
       </c>
       <c r="H133">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2065</v>
+        <v>2054</v>
       </c>
       <c r="C134" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D134">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E134">
         <v>1000</v>
@@ -5166,30 +5139,24 @@
         <v>3</v>
       </c>
       <c r="H134">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="I134">
         <v>2</v>
       </c>
-      <c r="J134">
-        <v>1027</v>
-      </c>
-      <c r="K134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2066</v>
+        <v>2055</v>
       </c>
       <c r="C135" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D135">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E135">
         <v>1000</v>
@@ -5201,30 +5168,24 @@
         <v>3</v>
       </c>
       <c r="H135">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="I135">
         <v>2</v>
       </c>
-      <c r="J135">
-        <v>1027</v>
-      </c>
-      <c r="K135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2067</v>
+        <v>2056</v>
       </c>
       <c r="C136" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D136">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E136">
         <v>1000</v>
@@ -5236,30 +5197,24 @@
         <v>3</v>
       </c>
       <c r="H136">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="I136">
         <v>2</v>
       </c>
-      <c r="J136">
-        <v>1027</v>
-      </c>
-      <c r="K136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2068</v>
+        <v>2057</v>
       </c>
       <c r="C137" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D137">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="E137">
         <v>1000</v>
@@ -5271,30 +5226,24 @@
         <v>3</v>
       </c>
       <c r="H137">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="I137">
         <v>2</v>
       </c>
-      <c r="J137">
-        <v>1027</v>
-      </c>
-      <c r="K137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2069</v>
+        <v>2058</v>
       </c>
       <c r="C138" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D138">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E138">
         <v>1000</v>
@@ -5306,30 +5255,24 @@
         <v>3</v>
       </c>
       <c r="H138">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
-      <c r="J138">
-        <v>1027</v>
-      </c>
-      <c r="K138">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2070</v>
+        <v>2059</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D139">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E139">
         <v>1000</v>
@@ -5341,24 +5284,24 @@
         <v>3</v>
       </c>
       <c r="H139">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="I139">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2071</v>
+        <v>2060</v>
       </c>
       <c r="C140" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D140">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="E140">
         <v>1000</v>
@@ -5370,24 +5313,24 @@
         <v>3</v>
       </c>
       <c r="H140">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2072</v>
+        <v>2061</v>
       </c>
       <c r="C141" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D141">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E141">
         <v>1000</v>
@@ -5399,24 +5342,24 @@
         <v>3</v>
       </c>
       <c r="H141">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2073</v>
+        <v>2062</v>
       </c>
       <c r="C142" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D142">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="E142">
         <v>1000</v>
@@ -5428,24 +5371,24 @@
         <v>3</v>
       </c>
       <c r="H142">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2074</v>
+        <v>2063</v>
       </c>
       <c r="C143" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D143">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E143">
         <v>1000</v>
@@ -5457,24 +5400,24 @@
         <v>3</v>
       </c>
       <c r="H143">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I143">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>2075</v>
+        <v>2064</v>
       </c>
       <c r="C144" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D144">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E144">
         <v>1000</v>
@@ -5486,24 +5429,24 @@
         <v>3</v>
       </c>
       <c r="H144">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2076</v>
+        <v>2065</v>
       </c>
       <c r="C145" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D145">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E145">
         <v>1000</v>
@@ -5515,24 +5458,30 @@
         <v>3</v>
       </c>
       <c r="H145">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J145">
+        <v>1027</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2077</v>
+        <v>2066</v>
       </c>
       <c r="C146" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D146">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E146">
         <v>1000</v>
@@ -5544,24 +5493,30 @@
         <v>3</v>
       </c>
       <c r="H146">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="I146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J146">
+        <v>1027</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2078</v>
+        <v>2067</v>
       </c>
       <c r="C147" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D147">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E147">
         <v>1000</v>
@@ -5573,24 +5528,30 @@
         <v>3</v>
       </c>
       <c r="H147">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="I147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J147">
+        <v>1027</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2079</v>
+        <v>2068</v>
       </c>
       <c r="C148" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D148">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E148">
         <v>1000</v>
@@ -5602,24 +5563,30 @@
         <v>3</v>
       </c>
       <c r="H148">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="I148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J148">
+        <v>1027</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2080</v>
+        <v>2069</v>
       </c>
       <c r="C149" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D149">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E149">
         <v>1000</v>
@@ -5631,24 +5598,30 @@
         <v>3</v>
       </c>
       <c r="H149">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J149">
+        <v>1027</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2081</v>
+        <v>2070</v>
       </c>
       <c r="C150" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D150">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="E150">
         <v>1000</v>
@@ -5660,24 +5633,24 @@
         <v>3</v>
       </c>
       <c r="H150">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="I150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2082</v>
+        <v>2071</v>
       </c>
       <c r="C151" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D151">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E151">
         <v>1000</v>
@@ -5689,24 +5662,24 @@
         <v>3</v>
       </c>
       <c r="H151">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2083</v>
+        <v>2072</v>
       </c>
       <c r="C152" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D152">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E152">
         <v>1000</v>
@@ -5718,24 +5691,24 @@
         <v>3</v>
       </c>
       <c r="H152">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="I152">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2084</v>
+        <v>2073</v>
       </c>
       <c r="C153" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D153">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E153">
         <v>1000</v>
@@ -5747,24 +5720,24 @@
         <v>3</v>
       </c>
       <c r="H153">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="I153">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2085</v>
+        <v>2074</v>
       </c>
       <c r="C154" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D154">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E154">
         <v>1000</v>
@@ -5776,24 +5749,24 @@
         <v>3</v>
       </c>
       <c r="H154">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I154">
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>2086</v>
+        <v>2075</v>
       </c>
       <c r="C155" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D155">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E155">
         <v>1000</v>
@@ -5805,24 +5778,24 @@
         <v>3</v>
       </c>
       <c r="H155">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="I155">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>2087</v>
+        <v>2076</v>
       </c>
       <c r="C156" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D156">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="E156">
         <v>1000</v>
@@ -5834,24 +5807,24 @@
         <v>3</v>
       </c>
       <c r="H156">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2088</v>
+        <v>2077</v>
       </c>
       <c r="C157" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D157">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E157">
         <v>1000</v>
@@ -5863,24 +5836,24 @@
         <v>3</v>
       </c>
       <c r="H157">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="I157">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>2089</v>
+        <v>2078</v>
       </c>
       <c r="C158" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D158">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E158">
         <v>1000</v>
@@ -5892,24 +5865,24 @@
         <v>3</v>
       </c>
       <c r="H158">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="I158">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2090</v>
+        <v>2079</v>
       </c>
       <c r="C159" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D159">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E159">
         <v>1000</v>
@@ -5921,24 +5894,24 @@
         <v>3</v>
       </c>
       <c r="H159">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="I159">
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2091</v>
+        <v>2080</v>
       </c>
       <c r="C160" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D160">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E160">
         <v>1000</v>
@@ -5950,7 +5923,7 @@
         <v>3</v>
       </c>
       <c r="H160">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="I160">
         <v>2</v>
@@ -5961,13 +5934,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2092</v>
+        <v>2081</v>
       </c>
       <c r="C161" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D161">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="E161">
         <v>1000</v>
@@ -5979,7 +5952,7 @@
         <v>3</v>
       </c>
       <c r="H161">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -5990,13 +5963,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>2093</v>
+        <v>2082</v>
       </c>
       <c r="C162" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D162">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="E162">
         <v>1000</v>
@@ -6008,7 +5981,7 @@
         <v>3</v>
       </c>
       <c r="H162">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="I162">
         <v>2</v>
@@ -6019,13 +5992,13 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>2094</v>
+        <v>2083</v>
       </c>
       <c r="C163" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D163">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E163">
         <v>1000</v>
@@ -6037,7 +6010,7 @@
         <v>3</v>
       </c>
       <c r="H163">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -6048,13 +6021,13 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2095</v>
+        <v>2084</v>
       </c>
       <c r="C164" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D164">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E164">
         <v>1000</v>
@@ -6066,7 +6039,7 @@
         <v>3</v>
       </c>
       <c r="H164">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="I164">
         <v>2</v>
@@ -6077,13 +6050,13 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2096</v>
+        <v>2085</v>
       </c>
       <c r="C165" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D165">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E165">
         <v>1000</v>
@@ -6095,7 +6068,7 @@
         <v>3</v>
       </c>
       <c r="H165">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="I165">
         <v>2</v>
@@ -6106,13 +6079,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2097</v>
+        <v>2086</v>
       </c>
       <c r="C166" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D166">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E166">
         <v>1000</v>
@@ -6124,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="H166">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="I166">
         <v>2</v>
@@ -6135,13 +6108,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>2098</v>
+        <v>2087</v>
       </c>
       <c r="C167" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D167">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E167">
         <v>1000</v>
@@ -6153,7 +6126,7 @@
         <v>3</v>
       </c>
       <c r="H167">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="I167">
         <v>2</v>
@@ -6164,13 +6137,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>2099</v>
+        <v>2088</v>
       </c>
       <c r="C168" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D168">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E168">
         <v>1000</v>
@@ -6182,7 +6155,7 @@
         <v>3</v>
       </c>
       <c r="H168">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="I168">
         <v>2</v>
@@ -6193,28 +6166,28 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>1022</v>
+        <v>2089</v>
       </c>
       <c r="C169" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D169">
-        <v>4001</v>
+        <v>378</v>
       </c>
       <c r="E169">
         <v>1000</v>
       </c>
       <c r="F169">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="G169">
         <v>3</v>
       </c>
       <c r="H169">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
@@ -6222,25 +6195,25 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1023</v>
+        <v>2090</v>
       </c>
       <c r="C170" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D170">
-        <v>4002</v>
+        <v>379</v>
       </c>
       <c r="E170">
         <v>1000</v>
       </c>
       <c r="F170">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="G170">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H170">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="I170">
         <v>2</v>
@@ -6251,28 +6224,28 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>1024</v>
+        <v>2091</v>
       </c>
       <c r="C171" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D171">
-        <v>4003</v>
+        <v>380</v>
       </c>
       <c r="E171">
         <v>1000</v>
       </c>
       <c r="F171">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="G171">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H171">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="I171">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.4">
@@ -6280,28 +6253,28 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1025</v>
+        <v>2092</v>
       </c>
       <c r="C172" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D172">
-        <v>4004</v>
+        <v>381</v>
       </c>
       <c r="E172">
         <v>1000</v>
       </c>
       <c r="F172">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="G172">
         <v>3</v>
       </c>
       <c r="H172">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.4">
@@ -6309,25 +6282,25 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1026</v>
+        <v>2093</v>
       </c>
       <c r="C173" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D173">
-        <v>4005</v>
+        <v>382</v>
       </c>
       <c r="E173">
         <v>1000</v>
       </c>
       <c r="F173">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="G173">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H173">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="I173">
         <v>2</v>
@@ -6338,28 +6311,28 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1027</v>
+        <v>2094</v>
       </c>
       <c r="C174" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D174">
-        <v>4006</v>
+        <v>383</v>
       </c>
       <c r="E174">
         <v>1000</v>
       </c>
       <c r="F174">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="G174">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H174">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="I174">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.4">
@@ -6367,21 +6340,27 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1003</v>
+        <v>2095</v>
       </c>
       <c r="C175" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D175">
-        <v>6</v>
+        <v>384</v>
       </c>
       <c r="E175">
         <v>1000</v>
       </c>
       <c r="F175">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="G175">
+        <v>3</v>
+      </c>
+      <c r="H175">
+        <v>1016</v>
+      </c>
+      <c r="I175">
         <v>2</v>
       </c>
     </row>
@@ -6390,243 +6369,303 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1004</v>
+        <v>2096</v>
       </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D176">
-        <v>7</v>
+        <v>385</v>
       </c>
       <c r="E176">
         <v>1000</v>
       </c>
       <c r="F176">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="G176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H176">
+        <v>1016</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177">
-        <v>1005</v>
+        <v>2097</v>
       </c>
       <c r="C177" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D177">
-        <v>8</v>
+        <v>386</v>
       </c>
       <c r="E177">
         <v>1000</v>
       </c>
       <c r="F177">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="G177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>1016</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178">
-        <v>501</v>
+        <v>2098</v>
       </c>
       <c r="C178" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D178">
-        <v>123</v>
+        <v>387</v>
       </c>
       <c r="E178">
         <v>1000</v>
       </c>
       <c r="F178">
-        <v>1038</v>
+        <v>1003</v>
       </c>
       <c r="G178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H178">
+        <v>1016</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179">
-        <v>502</v>
+        <v>2099</v>
       </c>
       <c r="C179" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D179">
-        <v>124</v>
+        <v>388</v>
       </c>
       <c r="E179">
         <v>1000</v>
       </c>
       <c r="F179">
-        <v>1038</v>
+        <v>1003</v>
       </c>
       <c r="G179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H179">
+        <v>1016</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180">
-        <v>503</v>
+        <v>1022</v>
       </c>
       <c r="C180" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D180">
-        <v>125</v>
+        <v>4001</v>
       </c>
       <c r="E180">
         <v>1000</v>
       </c>
       <c r="F180">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="G180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H180">
+        <v>1017</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181">
-        <v>504</v>
+        <v>1023</v>
       </c>
       <c r="C181" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D181">
-        <v>126</v>
+        <v>4002</v>
       </c>
       <c r="E181">
         <v>1000</v>
       </c>
       <c r="F181">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="G181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="H181">
+        <v>1017</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>505</v>
+        <v>1024</v>
       </c>
       <c r="C182" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D182">
-        <v>127</v>
+        <v>4003</v>
       </c>
       <c r="E182">
         <v>1000</v>
       </c>
       <c r="F182">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="G182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="H182">
+        <v>1017</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183">
-        <v>700</v>
+        <v>1025</v>
       </c>
       <c r="C183" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D183">
-        <v>134</v>
+        <v>4004</v>
       </c>
       <c r="E183">
         <v>1000</v>
       </c>
       <c r="F183">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="G183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="H183">
+        <v>1017</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184">
-        <v>701</v>
+        <v>1026</v>
       </c>
       <c r="C184" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D184">
-        <v>135</v>
+        <v>4005</v>
       </c>
       <c r="E184">
         <v>1000</v>
       </c>
       <c r="F184">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="G184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="H184">
+        <v>1017</v>
+      </c>
+      <c r="I184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185">
-        <v>702</v>
+        <v>1027</v>
       </c>
       <c r="C185" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D185">
-        <v>136</v>
+        <v>4006</v>
       </c>
       <c r="E185">
         <v>1000</v>
       </c>
       <c r="F185">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="G185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="H185">
+        <v>1017</v>
+      </c>
+      <c r="I185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186">
-        <v>703</v>
+        <v>1003</v>
       </c>
       <c r="C186" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D186">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="E186">
         <v>1000</v>
@@ -6635,21 +6674,21 @@
         <v>1034</v>
       </c>
       <c r="G186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187">
-        <v>704</v>
+        <v>1004</v>
       </c>
       <c r="C187" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D187">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="E187">
         <v>1000</v>
@@ -6658,21 +6697,21 @@
         <v>1034</v>
       </c>
       <c r="G187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188">
-        <v>705</v>
+        <v>1005</v>
       </c>
       <c r="C188" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D188">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="E188">
         <v>1000</v>
@@ -6681,153 +6720,99 @@
         <v>1034</v>
       </c>
       <c r="G188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1044</v>
+        <v>501</v>
       </c>
       <c r="C189" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D189">
-        <v>7031</v>
+        <v>123</v>
       </c>
       <c r="E189">
         <v>1000</v>
       </c>
       <c r="F189">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="G189">
-        <v>10</v>
-      </c>
-      <c r="H189">
-        <v>1001</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-      <c r="J189">
-        <v>1015</v>
-      </c>
-      <c r="K189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1046</v>
+        <v>502</v>
       </c>
       <c r="C190" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D190">
-        <v>7033</v>
+        <v>124</v>
       </c>
       <c r="E190">
         <v>1000</v>
       </c>
       <c r="F190">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="G190">
-        <v>1</v>
-      </c>
-      <c r="H190">
-        <v>1036</v>
-      </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1047</v>
+        <v>503</v>
       </c>
       <c r="C191" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D191">
-        <v>7034</v>
+        <v>125</v>
       </c>
       <c r="E191">
         <v>1000</v>
       </c>
       <c r="F191">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="G191">
-        <v>1</v>
-      </c>
-      <c r="H191">
-        <v>1031</v>
-      </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
-      <c r="J191">
-        <v>1032</v>
-      </c>
-      <c r="K191">
-        <v>1</v>
-      </c>
-      <c r="L191">
-        <v>1036</v>
-      </c>
-      <c r="M191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1045</v>
+        <v>504</v>
       </c>
       <c r="C192" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D192">
-        <v>7032</v>
+        <v>126</v>
       </c>
       <c r="E192">
         <v>1000</v>
       </c>
       <c r="F192">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="G192">
-        <v>4</v>
-      </c>
-      <c r="H192">
-        <v>1001</v>
-      </c>
-      <c r="I192">
-        <v>10</v>
-      </c>
-      <c r="J192">
-        <v>1002</v>
-      </c>
-      <c r="K192">
-        <v>20</v>
-      </c>
-      <c r="L192">
-        <v>1037</v>
-      </c>
-      <c r="M192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
@@ -6835,27 +6820,21 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1029</v>
+        <v>505</v>
       </c>
       <c r="C193" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D193">
-        <v>7016</v>
+        <v>127</v>
       </c>
       <c r="E193">
         <v>1000</v>
       </c>
       <c r="F193">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="G193">
-        <v>1</v>
-      </c>
-      <c r="H193">
-        <v>1016</v>
-      </c>
-      <c r="I193">
         <v>2</v>
       </c>
     </row>
@@ -6864,39 +6843,21 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1030</v>
+        <v>700</v>
       </c>
       <c r="C194" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D194">
-        <v>7017</v>
+        <v>134</v>
       </c>
       <c r="E194">
         <v>1000</v>
       </c>
       <c r="F194">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="G194">
-        <v>1</v>
-      </c>
-      <c r="H194">
-        <v>1031</v>
-      </c>
-      <c r="I194">
-        <v>1</v>
-      </c>
-      <c r="J194">
-        <v>1032</v>
-      </c>
-      <c r="K194">
-        <v>1</v>
-      </c>
-      <c r="L194">
-        <v>1016</v>
-      </c>
-      <c r="M194">
         <v>1</v>
       </c>
     </row>
@@ -6905,33 +6866,21 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>1031</v>
+        <v>701</v>
       </c>
       <c r="C195" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D195">
-        <v>7018</v>
+        <v>135</v>
       </c>
       <c r="E195">
         <v>1000</v>
       </c>
       <c r="F195">
-        <v>1001</v>
+        <v>1034</v>
       </c>
       <c r="G195">
-        <v>10</v>
-      </c>
-      <c r="H195">
-        <v>1014</v>
-      </c>
-      <c r="I195">
-        <v>1</v>
-      </c>
-      <c r="J195">
-        <v>1019</v>
-      </c>
-      <c r="K195">
         <v>1</v>
       </c>
     </row>
@@ -6940,28 +6889,22 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1032</v>
+        <v>702</v>
       </c>
       <c r="C196" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D196">
-        <v>7019</v>
+        <v>136</v>
       </c>
       <c r="E196">
         <v>1000</v>
       </c>
       <c r="F196">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G196">
-        <v>2</v>
-      </c>
-      <c r="H196">
-        <v>1001</v>
-      </c>
-      <c r="I196">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
@@ -6969,28 +6912,22 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1033</v>
+        <v>703</v>
       </c>
       <c r="C197" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D197">
-        <v>7020</v>
+        <v>137</v>
       </c>
       <c r="E197">
         <v>1000</v>
       </c>
       <c r="F197">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G197">
-        <v>2</v>
-      </c>
-      <c r="H197">
-        <v>1001</v>
-      </c>
-      <c r="I197">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
@@ -6998,28 +6935,22 @@
         <v>197</v>
       </c>
       <c r="B198">
+        <v>704</v>
+      </c>
+      <c r="C198" t="s">
+        <v>207</v>
+      </c>
+      <c r="D198">
+        <v>138</v>
+      </c>
+      <c r="E198">
+        <v>1000</v>
+      </c>
+      <c r="F198">
         <v>1034</v>
       </c>
-      <c r="C198" t="s">
-        <v>218</v>
-      </c>
-      <c r="D198">
-        <v>7021</v>
-      </c>
-      <c r="E198">
-        <v>1000</v>
-      </c>
-      <c r="F198">
-        <v>1033</v>
-      </c>
       <c r="G198">
         <v>1</v>
-      </c>
-      <c r="H198">
-        <v>1001</v>
-      </c>
-      <c r="I198">
-        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
@@ -7027,28 +6958,22 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1035</v>
+        <v>705</v>
       </c>
       <c r="C199" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D199">
-        <v>7022</v>
+        <v>139</v>
       </c>
       <c r="E199">
         <v>1000</v>
       </c>
       <c r="F199">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G199">
         <v>1</v>
-      </c>
-      <c r="H199">
-        <v>1001</v>
-      </c>
-      <c r="I199">
-        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
@@ -7056,28 +6981,34 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="C200" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D200">
-        <v>7023</v>
+        <v>7031</v>
       </c>
       <c r="E200">
         <v>1000</v>
       </c>
       <c r="F200">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H200">
         <v>1001</v>
       </c>
       <c r="I200">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1015</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
@@ -7085,28 +7016,28 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1037</v>
+        <v>1046</v>
       </c>
       <c r="C201" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D201">
-        <v>7024</v>
+        <v>7033</v>
       </c>
       <c r="E201">
         <v>1000</v>
       </c>
       <c r="F201">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="G201">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="I201">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
@@ -7114,28 +7045,40 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1038</v>
+        <v>1047</v>
       </c>
       <c r="C202" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D202">
-        <v>7025</v>
+        <v>7034</v>
       </c>
       <c r="E202">
         <v>1000</v>
       </c>
       <c r="F202">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="G202">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>1001</v>
+        <v>1031</v>
       </c>
       <c r="I202">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>1032</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1036</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
@@ -7143,22 +7086,22 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="C203" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D203">
-        <v>7026</v>
+        <v>7032</v>
       </c>
       <c r="E203">
         <v>1000</v>
       </c>
       <c r="F203">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H203">
         <v>1001</v>
@@ -7167,9 +7110,15 @@
         <v>10</v>
       </c>
       <c r="J203">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="K203">
+        <v>20</v>
+      </c>
+      <c r="L203">
+        <v>1037</v>
+      </c>
+      <c r="M203">
         <v>1</v>
       </c>
     </row>
@@ -7178,34 +7127,28 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="C204" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D204">
-        <v>7027</v>
+        <v>7016</v>
       </c>
       <c r="E204">
         <v>1000</v>
       </c>
       <c r="F204">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="G204">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="I204">
-        <v>10</v>
-      </c>
-      <c r="J204">
-        <v>1016</v>
-      </c>
-      <c r="K204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
@@ -7213,33 +7156,39 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="C205" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D205">
-        <v>7028</v>
+        <v>7017</v>
       </c>
       <c r="E205">
         <v>1000</v>
       </c>
       <c r="F205">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="G205">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>1001</v>
+        <v>1031</v>
       </c>
       <c r="I205">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J205">
+        <v>1032</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
         <v>1016</v>
       </c>
-      <c r="K205">
+      <c r="M205">
         <v>1</v>
       </c>
     </row>
@@ -7248,31 +7197,31 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="C206" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D206">
-        <v>7029</v>
+        <v>7018</v>
       </c>
       <c r="E206">
         <v>1000</v>
       </c>
       <c r="F206">
-        <v>1033</v>
+        <v>1001</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H206">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="I206">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J206">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="K206">
         <v>1</v>
@@ -7283,13 +7232,13 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="C207" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D207">
-        <v>7030</v>
+        <v>7019</v>
       </c>
       <c r="E207">
         <v>1000</v>
@@ -7298,19 +7247,13 @@
         <v>1033</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H207">
         <v>1001</v>
       </c>
       <c r="I207">
         <v>10</v>
-      </c>
-      <c r="J207">
-        <v>1016</v>
-      </c>
-      <c r="K207">
-        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
@@ -7318,165 +7261,514 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>30001</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>233</v>
+        <v>1033</v>
+      </c>
+      <c r="C208" t="s">
+        <v>217</v>
       </c>
       <c r="D208">
-        <v>30001</v>
+        <v>7020</v>
       </c>
       <c r="E208">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="F208">
-        <v>2502</v>
+        <v>1033</v>
       </c>
       <c r="G208">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H208">
+        <v>1001</v>
+      </c>
+      <c r="I208">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209">
-        <v>30002</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>234</v>
+        <v>1034</v>
+      </c>
+      <c r="C209" t="s">
+        <v>218</v>
       </c>
       <c r="D209">
-        <v>30002</v>
+        <v>7021</v>
       </c>
       <c r="E209">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="F209">
-        <v>2503</v>
+        <v>1033</v>
       </c>
       <c r="G209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H209">
+        <v>1001</v>
+      </c>
+      <c r="I209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210">
-        <v>30003</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>235</v>
+        <v>1035</v>
+      </c>
+      <c r="C210" t="s">
+        <v>219</v>
       </c>
       <c r="D210">
-        <v>30003</v>
+        <v>7022</v>
       </c>
       <c r="E210">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="F210">
-        <v>2501</v>
+        <v>1033</v>
       </c>
       <c r="G210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>30002</v>
+        <v>1001</v>
       </c>
       <c r="I210">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211">
-        <v>30004</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>236</v>
+        <v>1036</v>
+      </c>
+      <c r="C211" t="s">
+        <v>220</v>
       </c>
       <c r="D211">
-        <v>30004</v>
+        <v>7023</v>
       </c>
       <c r="E211">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="F211">
-        <v>2504</v>
+        <v>1033</v>
       </c>
       <c r="G211">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>1001</v>
+      </c>
+      <c r="I211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>30005</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>237</v>
+        <v>1037</v>
+      </c>
+      <c r="C212" t="s">
+        <v>221</v>
       </c>
       <c r="D212">
-        <v>30005</v>
+        <v>7024</v>
       </c>
       <c r="E212">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="F212">
-        <v>2503</v>
+        <v>1033</v>
       </c>
       <c r="G212">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>1001</v>
+      </c>
+      <c r="I212">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213">
-        <v>30006</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>238</v>
+        <v>1038</v>
+      </c>
+      <c r="C213" t="s">
+        <v>222</v>
       </c>
       <c r="D213">
-        <v>30006</v>
+        <v>7025</v>
       </c>
       <c r="E213">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="F213">
-        <v>2503</v>
+        <v>1033</v>
       </c>
       <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>1001</v>
+      </c>
+      <c r="I213">
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214">
+        <v>1039</v>
+      </c>
+      <c r="C214" t="s">
+        <v>223</v>
+      </c>
+      <c r="D214">
+        <v>7026</v>
+      </c>
+      <c r="E214">
+        <v>1000</v>
+      </c>
+      <c r="F214">
+        <v>1033</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>1001</v>
+      </c>
+      <c r="I214">
+        <v>10</v>
+      </c>
+      <c r="J214">
+        <v>1016</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>1040</v>
+      </c>
+      <c r="C215" t="s">
+        <v>224</v>
+      </c>
+      <c r="D215">
+        <v>7027</v>
+      </c>
+      <c r="E215">
+        <v>1000</v>
+      </c>
+      <c r="F215">
+        <v>1033</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>1001</v>
+      </c>
+      <c r="I215">
+        <v>10</v>
+      </c>
+      <c r="J215">
+        <v>1016</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>1041</v>
+      </c>
+      <c r="C216" t="s">
+        <v>225</v>
+      </c>
+      <c r="D216">
+        <v>7028</v>
+      </c>
+      <c r="E216">
+        <v>1000</v>
+      </c>
+      <c r="F216">
+        <v>1033</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>1001</v>
+      </c>
+      <c r="I216">
+        <v>10</v>
+      </c>
+      <c r="J216">
+        <v>1016</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>1042</v>
+      </c>
+      <c r="C217" t="s">
+        <v>226</v>
+      </c>
+      <c r="D217">
+        <v>7029</v>
+      </c>
+      <c r="E217">
+        <v>1000</v>
+      </c>
+      <c r="F217">
+        <v>1033</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>1001</v>
+      </c>
+      <c r="I217">
+        <v>10</v>
+      </c>
+      <c r="J217">
+        <v>1016</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>1043</v>
+      </c>
+      <c r="C218" t="s">
+        <v>227</v>
+      </c>
+      <c r="D218">
+        <v>7030</v>
+      </c>
+      <c r="E218">
+        <v>1000</v>
+      </c>
+      <c r="F218">
+        <v>1033</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>1001</v>
+      </c>
+      <c r="I218">
+        <v>10</v>
+      </c>
+      <c r="J218">
+        <v>1016</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>30001</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D219">
+        <v>30001</v>
+      </c>
+      <c r="E219">
+        <v>1009</v>
+      </c>
+      <c r="F219">
+        <v>2502</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>30002</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D220">
+        <v>30002</v>
+      </c>
+      <c r="E220">
+        <v>1009</v>
+      </c>
+      <c r="F220">
+        <v>2503</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>30003</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D221">
+        <v>30003</v>
+      </c>
+      <c r="E221">
+        <v>1009</v>
+      </c>
+      <c r="F221">
+        <v>2501</v>
+      </c>
+      <c r="G221">
+        <v>2</v>
+      </c>
+      <c r="H221">
+        <v>30002</v>
+      </c>
+      <c r="I221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>30004</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D222">
+        <v>30004</v>
+      </c>
+      <c r="E222">
+        <v>1009</v>
+      </c>
+      <c r="F222">
+        <v>2504</v>
+      </c>
+      <c r="G222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>30005</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D223">
+        <v>30005</v>
+      </c>
+      <c r="E223">
+        <v>1009</v>
+      </c>
+      <c r="F223">
+        <v>2503</v>
+      </c>
+      <c r="G223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>30006</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D224">
+        <v>30006</v>
+      </c>
+      <c r="E224">
+        <v>1009</v>
+      </c>
+      <c r="F224">
+        <v>2503</v>
+      </c>
+      <c r="G224">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
         <v>30007</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D214">
+      <c r="C225" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D225">
         <v>30007</v>
       </c>
-      <c r="E214">
+      <c r="E225">
         <v>1009</v>
       </c>
-      <c r="F214">
+      <c r="F225">
         <v>2500</v>
       </c>
-      <c r="G214">
+      <c r="G225">
         <v>5</v>
       </c>
     </row>
@@ -7614,7 +7906,7 @@
         <v>1009</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B2A538-C8A4-47C2-8E02-F3028CA89F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84485858-E74D-480B-95C9-C763241F0234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2955" windowWidth="21690" windowHeight="12525" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="261">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -865,6 +865,36 @@
   <si>
     <t>カトラス</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絨毯（デフォルト）</t>
+  </si>
+  <si>
+    <t>絨毯（角）</t>
+  </si>
+  <si>
+    <t>絨毯（側面）</t>
+  </si>
+  <si>
+    <t>絨毯（柄なし）</t>
+  </si>
+  <si>
+    <t>ダイヤ柄</t>
+  </si>
+  <si>
+    <t>飾り木</t>
+  </si>
+  <si>
+    <t>黄色の柄</t>
+  </si>
+  <si>
+    <t>青飾りタイル</t>
+  </si>
+  <si>
+    <t>透け飾りガラス</t>
+  </si>
+  <si>
+    <t>木のブロック</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1046,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N225" totalsRowShown="0">
-  <autoFilter ref="A1:N225" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N235" totalsRowShown="0">
+  <autoFilter ref="A1:N235" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -1335,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N225"/>
+  <dimension ref="A1:N235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="K236" sqref="K236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7770,6 +7800,236 @@
       </c>
       <c r="G225">
         <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>99999</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D226">
+        <v>390</v>
+      </c>
+      <c r="E226">
+        <v>1000</v>
+      </c>
+      <c r="F226">
+        <v>1001</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>99999</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D227">
+        <v>391</v>
+      </c>
+      <c r="E227">
+        <v>1000</v>
+      </c>
+      <c r="F227">
+        <v>1001</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>99999</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D228">
+        <v>392</v>
+      </c>
+      <c r="E228">
+        <v>1000</v>
+      </c>
+      <c r="F228">
+        <v>1001</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>99999</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D229">
+        <v>393</v>
+      </c>
+      <c r="E229">
+        <v>1000</v>
+      </c>
+      <c r="F229">
+        <v>1001</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>99999</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D230">
+        <v>394</v>
+      </c>
+      <c r="E230">
+        <v>1000</v>
+      </c>
+      <c r="F230">
+        <v>1001</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>99999</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D231">
+        <v>395</v>
+      </c>
+      <c r="E231">
+        <v>1000</v>
+      </c>
+      <c r="F231">
+        <v>1001</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>99999</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D232">
+        <v>396</v>
+      </c>
+      <c r="E232">
+        <v>1000</v>
+      </c>
+      <c r="F232">
+        <v>1001</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>99999</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D233">
+        <v>397</v>
+      </c>
+      <c r="E233">
+        <v>1000</v>
+      </c>
+      <c r="F233">
+        <v>1001</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>99999</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D234">
+        <v>398</v>
+      </c>
+      <c r="E234">
+        <v>1000</v>
+      </c>
+      <c r="F234">
+        <v>1001</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>99999</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D235">
+        <v>399</v>
+      </c>
+      <c r="E235">
+        <v>1000</v>
+      </c>
+      <c r="F235">
+        <v>1001</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84485858-E74D-480B-95C9-C763241F0234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4A4353-0669-4A1D-97F4-6B1EBDB64D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="262">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -867,34 +867,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>絨毯（デフォルト）</t>
-  </si>
-  <si>
-    <t>絨毯（角）</t>
-  </si>
-  <si>
-    <t>絨毯（側面）</t>
-  </si>
-  <si>
-    <t>絨毯（柄なし）</t>
-  </si>
-  <si>
-    <t>ダイヤ柄</t>
-  </si>
-  <si>
-    <t>飾り木</t>
-  </si>
-  <si>
-    <t>黄色の柄</t>
-  </si>
-  <si>
-    <t>青飾りタイル</t>
-  </si>
-  <si>
-    <t>透け飾りガラス</t>
-  </si>
-  <si>
-    <t>木のブロック</t>
+    <t>柄絨毯のブロック</t>
+  </si>
+  <si>
+    <t>絨毯のブロック・でっぱり角</t>
+  </si>
+  <si>
+    <t>絨毯のブロック・側面</t>
+  </si>
+  <si>
+    <t>絨毯のブロック</t>
+  </si>
+  <si>
+    <t>ダイヤ絨毯のブロック</t>
+  </si>
+  <si>
+    <t>飾り木のブロック</t>
+  </si>
+  <si>
+    <t>金飾りのブロック</t>
+  </si>
+  <si>
+    <t>青飾りタイルのブロック</t>
+  </si>
+  <si>
+    <t>透け飾りガラスのブロック</t>
+  </si>
+  <si>
+    <t>木箱のブロック</t>
+  </si>
+  <si>
+    <t>絨毯のブロック・ひっこみ角</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1049,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N235" totalsRowShown="0">
-  <autoFilter ref="A1:N235" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N236" totalsRowShown="0">
+  <autoFilter ref="A1:N236" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort"/>
@@ -1365,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N235"/>
+  <dimension ref="A1:N236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="K236" sqref="K236"/>
+      <selection activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8029,6 +8032,29 @@
         <v>1001</v>
       </c>
       <c r="G235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>99999</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D236">
+        <v>400</v>
+      </c>
+      <c r="E236">
+        <v>1000</v>
+      </c>
+      <c r="F236">
+        <v>1001</v>
+      </c>
+      <c r="G236">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD7FCBB-C337-489B-A506-CA94B3E16ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F043A-395D-4927-B1A6-71BCC604AC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="277">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -904,6 +904,51 @@
   </si>
   <si>
     <t>絨毯のブロック・ひっこみ角</t>
+  </si>
+  <si>
+    <t>ホーリーソード</t>
+  </si>
+  <si>
+    <t>ホーリーロッド</t>
+  </si>
+  <si>
+    <t>ホーリーボウ</t>
+  </si>
+  <si>
+    <t>ジングルソード</t>
+  </si>
+  <si>
+    <t>ジングルロッド</t>
+  </si>
+  <si>
+    <t>ジングルボウ</t>
+  </si>
+  <si>
+    <t>ダークソード</t>
+  </si>
+  <si>
+    <t>ダークロッド</t>
+  </si>
+  <si>
+    <t>ダークボウ</t>
+  </si>
+  <si>
+    <t>羽子板</t>
+  </si>
+  <si>
+    <t>破魔矢</t>
+  </si>
+  <si>
+    <t>センス</t>
+  </si>
+  <si>
+    <t>ペイルスノウソード</t>
+  </si>
+  <si>
+    <t>ペイルスノウボウ</t>
+  </si>
+  <si>
+    <t>ペイルスノウロッド</t>
   </si>
 </sst>
 </file>
@@ -1658,8 +1703,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N236" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N236" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N251" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N251" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID" dataDxfId="13"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort" dataDxfId="12"/>
@@ -1977,9 +2022,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N236"/>
+  <dimension ref="A1:N251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="E253" sqref="E253"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8718,6 +8765,351 @@
       </c>
       <c r="I236" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A237" s="4">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>20015</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D237" s="4">
+        <v>10010</v>
+      </c>
+      <c r="E237" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F237" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G237" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A238" s="4">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>20016</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D238" s="4">
+        <v>10011</v>
+      </c>
+      <c r="E238" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F238" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G238" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A239" s="4">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>20017</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D239" s="4">
+        <v>10012</v>
+      </c>
+      <c r="E239" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F239" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G239" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A240" s="4">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>20018</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D240" s="4">
+        <v>10013</v>
+      </c>
+      <c r="E240" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F240" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G240" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A241" s="4">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>20019</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D241" s="4">
+        <v>10014</v>
+      </c>
+      <c r="E241" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F241" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G241" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A242" s="4">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>20020</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D242" s="4">
+        <v>10015</v>
+      </c>
+      <c r="E242" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F242" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G242" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A243" s="4">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>20021</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D243" s="4">
+        <v>10016</v>
+      </c>
+      <c r="E243" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F243" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G243" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A244" s="4">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>20022</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D244" s="4">
+        <v>10017</v>
+      </c>
+      <c r="E244" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F244" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G244" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A245" s="4">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>20023</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D245" s="4">
+        <v>10018</v>
+      </c>
+      <c r="E245" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F245" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G245" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A246" s="4">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>20024</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D246" s="4">
+        <v>10025</v>
+      </c>
+      <c r="E246" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F246" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G246" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A247" s="4">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>20025</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D247" s="4">
+        <v>10026</v>
+      </c>
+      <c r="E247" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F247" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G247" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A248" s="4">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>20026</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D248" s="4">
+        <v>10027</v>
+      </c>
+      <c r="E248" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F248" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G248" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A249" s="4">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>20027</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D249" s="4">
+        <v>10028</v>
+      </c>
+      <c r="E249" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F249" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G249" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A250" s="4">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>20028</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D250" s="4">
+        <v>10029</v>
+      </c>
+      <c r="E250" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F250" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G250" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A251" s="4">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>20029</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D251" s="4">
+        <v>10030</v>
+      </c>
+      <c r="E251" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F251" s="4">
+        <v>1039</v>
+      </c>
+      <c r="G251" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F043A-395D-4927-B1A6-71BCC604AC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F76FC6-DE06-404F-A49F-0095858CE99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
   <dimension ref="A1:N251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E253" sqref="E253"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2522,7 +2522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2966,9 +2966,6 @@
       </c>
       <c r="G32" s="4">
         <v>40</v>
-      </c>
-      <c r="N32" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">

--- a/Config/Excel/Craft.xlsx
+++ b/Config/Excel/Craft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F76FC6-DE06-404F-A49F-0095858CE99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F8F562-B0D9-4BF0-B1E4-D283C0598371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6664A91D-33D5-45BC-A9FE-64FC7A33009D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="278">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -949,6 +949,9 @@
   </si>
   <si>
     <t>ペイルスノウロッド</t>
+  </si>
+  <si>
+    <t>白の葉ブロック</t>
   </si>
 </sst>
 </file>
@@ -1703,8 +1706,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N251" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N251" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}" name="テーブル1" displayName="テーブル1" ref="A1:N252" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N252" xr:uid="{3686349C-A129-4887-B6C2-9236DB92C51D}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{22B41AE7-901E-4435-9334-47F3123AF4EE}" name="ID" dataDxfId="13"/>
     <tableColumn id="14" xr3:uid="{E3E8C7F2-537B-4694-8C7C-A1CCBCBEC464}" name="Sort" dataDxfId="12"/>
@@ -2022,11 +2025,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E35BD7F-0E9C-42C7-8B87-C1230C3CCD57}">
-  <dimension ref="A1:N251"/>
+  <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9106,6 +9107,29 @@
         <v>1039</v>
       </c>
       <c r="G251" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A252" s="4">
+        <v>251</v>
+      </c>
+      <c r="B252" s="4">
+        <v>508</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D252" s="4">
+        <v>401</v>
+      </c>
+      <c r="E252" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F252" s="4">
+        <v>1002</v>
+      </c>
+      <c r="G252" s="4">
         <v>3</v>
       </c>
     </row>
